--- a/database/industries/foroushgah/ofogh/product/monthly.xlsx
+++ b/database/industries/foroushgah/ofogh/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D9794A-0877-4A6A-913C-E7C737521C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +184,9 @@
     <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>پوشاک</t>
   </si>
   <si>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +464,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,6 +523,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +575,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2939,8 +2974,8 @@
       <c r="AR20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AS20" s="13" t="s">
-        <v>66</v>
+      <c r="AS20" s="13">
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
@@ -3087,8 +3122,8 @@
       <c r="V22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W22" s="17" t="s">
-        <v>66</v>
+      <c r="W22" s="17">
+        <v>0</v>
       </c>
       <c r="X22" s="17">
         <v>0</v>
@@ -3784,154 +3819,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>96099</v>
+        <v>102559</v>
       </c>
       <c r="F30" s="11">
-        <v>102559</v>
+        <v>112867</v>
       </c>
       <c r="G30" s="11">
-        <v>112867</v>
+        <v>148890</v>
       </c>
       <c r="H30" s="11">
-        <v>148890</v>
+        <v>78811</v>
       </c>
       <c r="I30" s="11">
-        <v>78811</v>
+        <v>96700</v>
       </c>
       <c r="J30" s="11">
-        <v>96700</v>
+        <v>103291</v>
       </c>
       <c r="K30" s="11">
-        <v>103291</v>
+        <v>86430</v>
       </c>
       <c r="L30" s="11">
-        <v>86430</v>
+        <v>103737</v>
       </c>
       <c r="M30" s="11">
-        <v>103737</v>
+        <v>131331</v>
       </c>
       <c r="N30" s="11">
-        <v>131331</v>
+        <v>155307</v>
       </c>
       <c r="O30" s="11">
-        <v>155307</v>
+        <v>172775</v>
       </c>
       <c r="P30" s="11">
-        <v>172775</v>
+        <v>178210</v>
       </c>
       <c r="Q30" s="11">
-        <v>178210</v>
+        <v>167465</v>
       </c>
       <c r="R30" s="11">
-        <v>167465</v>
+        <v>173328</v>
       </c>
       <c r="S30" s="11">
-        <v>173328</v>
+        <v>211293</v>
       </c>
       <c r="T30" s="11">
-        <v>211293</v>
+        <v>114976</v>
       </c>
       <c r="U30" s="11">
-        <v>114976</v>
+        <v>129551</v>
       </c>
       <c r="V30" s="11">
-        <v>129551</v>
+        <v>151611</v>
       </c>
       <c r="W30" s="11">
-        <v>151611</v>
+        <v>148020</v>
       </c>
       <c r="X30" s="11">
-        <v>148020</v>
+        <v>134579</v>
       </c>
       <c r="Y30" s="11">
-        <v>134579</v>
+        <v>151045</v>
       </c>
       <c r="Z30" s="11">
-        <v>151045</v>
+        <v>164685</v>
       </c>
       <c r="AA30" s="11">
-        <v>164685</v>
+        <v>166231</v>
       </c>
       <c r="AB30" s="11">
-        <v>166231</v>
+        <v>178115</v>
       </c>
       <c r="AC30" s="11">
-        <v>178115</v>
+        <v>152155</v>
       </c>
       <c r="AD30" s="11">
-        <v>152155</v>
+        <v>138295</v>
       </c>
       <c r="AE30" s="11">
-        <v>138295</v>
+        <v>165676</v>
       </c>
       <c r="AF30" s="11">
-        <v>165676</v>
+        <v>97085</v>
       </c>
       <c r="AG30" s="11">
-        <v>97085</v>
+        <v>66837</v>
       </c>
       <c r="AH30" s="11">
-        <v>66837</v>
+        <v>329719</v>
       </c>
       <c r="AI30" s="11">
-        <v>329719</v>
+        <v>51105</v>
       </c>
       <c r="AJ30" s="11">
-        <v>51105</v>
+        <v>49099</v>
       </c>
       <c r="AK30" s="11">
-        <v>49099</v>
+        <v>52153</v>
       </c>
       <c r="AL30" s="11">
-        <v>52153</v>
+        <v>150750</v>
       </c>
       <c r="AM30" s="11">
-        <v>150750</v>
+        <v>146185</v>
       </c>
       <c r="AN30" s="11">
-        <v>146185</v>
+        <v>154809</v>
       </c>
       <c r="AO30" s="11">
-        <v>154809</v>
+        <v>142001</v>
       </c>
       <c r="AP30" s="11">
-        <v>142001</v>
+        <v>132760</v>
       </c>
       <c r="AQ30" s="11">
-        <v>132760</v>
+        <v>101470</v>
       </c>
       <c r="AR30" s="11">
-        <v>101470</v>
+        <v>97236</v>
       </c>
       <c r="AS30" s="11">
-        <v>97236</v>
+        <v>104540</v>
       </c>
       <c r="AT30" s="11">
-        <v>104540</v>
+        <v>80012</v>
       </c>
       <c r="AU30" s="11">
-        <v>80012</v>
+        <v>75815</v>
       </c>
       <c r="AV30" s="11">
-        <v>75815</v>
+        <v>82855</v>
       </c>
       <c r="AW30" s="11">
-        <v>82855</v>
+        <v>90743</v>
       </c>
       <c r="AX30" s="11">
-        <v>90743</v>
+        <v>103275</v>
       </c>
       <c r="AY30" s="11">
-        <v>103275</v>
+        <v>89151</v>
       </c>
       <c r="AZ30" s="11">
-        <v>89151</v>
+        <v>82208</v>
       </c>
       <c r="BA30" s="11">
-        <v>82208</v>
+        <v>88774</v>
       </c>
       <c r="BB30" s="11">
-        <v>88774</v>
+        <v>144915</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
@@ -3943,154 +3978,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>5199711</v>
+        <v>4623154</v>
       </c>
       <c r="F31" s="13">
-        <v>4623154</v>
+        <v>5387728</v>
       </c>
       <c r="G31" s="13">
-        <v>5387728</v>
+        <v>6441312</v>
       </c>
       <c r="H31" s="13">
-        <v>6441312</v>
+        <v>6074205</v>
       </c>
       <c r="I31" s="13">
-        <v>6074205</v>
+        <v>7289547</v>
       </c>
       <c r="J31" s="13">
-        <v>7289547</v>
+        <v>8659755</v>
       </c>
       <c r="K31" s="13">
-        <v>8659755</v>
+        <v>8082305</v>
       </c>
       <c r="L31" s="13">
-        <v>8082305</v>
+        <v>9944091</v>
       </c>
       <c r="M31" s="13">
-        <v>9944091</v>
+        <v>9761618</v>
       </c>
       <c r="N31" s="13">
-        <v>9761618</v>
+        <v>8549247</v>
       </c>
       <c r="O31" s="13">
-        <v>8549247</v>
+        <v>7306571</v>
       </c>
       <c r="P31" s="13">
-        <v>7306571</v>
+        <v>7724916</v>
       </c>
       <c r="Q31" s="13">
-        <v>7724916</v>
+        <v>7072410</v>
       </c>
       <c r="R31" s="13">
-        <v>7072410</v>
+        <v>7350947</v>
       </c>
       <c r="S31" s="13">
-        <v>7350947</v>
+        <v>8662580</v>
       </c>
       <c r="T31" s="13">
-        <v>8662580</v>
+        <v>7021477</v>
       </c>
       <c r="U31" s="13">
-        <v>7021477</v>
+        <v>8916170</v>
       </c>
       <c r="V31" s="13">
-        <v>8916170</v>
+        <v>11749232</v>
       </c>
       <c r="W31" s="13">
-        <v>11749232</v>
+        <v>12338105</v>
       </c>
       <c r="X31" s="13">
-        <v>12338105</v>
+        <v>14830812</v>
       </c>
       <c r="Y31" s="13">
-        <v>14830812</v>
+        <v>12661600</v>
       </c>
       <c r="Z31" s="13">
-        <v>12661600</v>
+        <v>11488044</v>
       </c>
       <c r="AA31" s="13">
-        <v>11488044</v>
+        <v>11179961</v>
       </c>
       <c r="AB31" s="13">
-        <v>11179961</v>
+        <v>9351162</v>
       </c>
       <c r="AC31" s="13">
-        <v>9351162</v>
+        <v>8971867</v>
       </c>
       <c r="AD31" s="13">
-        <v>8971867</v>
+        <v>9717055</v>
       </c>
       <c r="AE31" s="13">
-        <v>9717055</v>
+        <v>11412688</v>
       </c>
       <c r="AF31" s="13">
-        <v>11412688</v>
+        <v>12624384</v>
       </c>
       <c r="AG31" s="13">
-        <v>12624384</v>
+        <v>13805974</v>
       </c>
       <c r="AH31" s="13">
-        <v>13805974</v>
+        <v>15961267</v>
       </c>
       <c r="AI31" s="13">
-        <v>15961267</v>
+        <v>17976227</v>
       </c>
       <c r="AJ31" s="13">
-        <v>17976227</v>
+        <v>16154420</v>
       </c>
       <c r="AK31" s="13">
-        <v>16154420</v>
+        <v>16084035</v>
       </c>
       <c r="AL31" s="13">
-        <v>16084035</v>
+        <v>13610934</v>
       </c>
       <c r="AM31" s="13">
-        <v>13610934</v>
+        <v>11101258</v>
       </c>
       <c r="AN31" s="13">
-        <v>11101258</v>
+        <v>11947247</v>
       </c>
       <c r="AO31" s="13">
-        <v>11947247</v>
+        <v>9825457</v>
       </c>
       <c r="AP31" s="13">
-        <v>9825457</v>
+        <v>9774660</v>
       </c>
       <c r="AQ31" s="13">
-        <v>9774660</v>
+        <v>10634712</v>
       </c>
       <c r="AR31" s="13">
-        <v>10634712</v>
+        <v>12641007</v>
       </c>
       <c r="AS31" s="13">
-        <v>12641007</v>
+        <v>13889100</v>
       </c>
       <c r="AT31" s="13">
-        <v>13889100</v>
+        <v>13916922</v>
       </c>
       <c r="AU31" s="13">
-        <v>13916922</v>
+        <v>14790107</v>
       </c>
       <c r="AV31" s="13">
-        <v>14790107</v>
+        <v>14444561</v>
       </c>
       <c r="AW31" s="13">
-        <v>14444561</v>
+        <v>15479125</v>
       </c>
       <c r="AX31" s="13">
-        <v>15479125</v>
+        <v>12622103</v>
       </c>
       <c r="AY31" s="13">
-        <v>12622103</v>
+        <v>9181529</v>
       </c>
       <c r="AZ31" s="13">
-        <v>9181529</v>
+        <v>8876590</v>
       </c>
       <c r="BA31" s="13">
-        <v>8876590</v>
+        <v>9697925</v>
       </c>
       <c r="BB31" s="13">
-        <v>9697925</v>
+        <v>10032474</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
@@ -4102,154 +4137,154 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>9909277</v>
+        <v>9570530</v>
       </c>
       <c r="F32" s="11">
-        <v>9570530</v>
+        <v>12060264</v>
       </c>
       <c r="G32" s="11">
-        <v>12060264</v>
+        <v>16557967</v>
       </c>
       <c r="H32" s="11">
-        <v>16557967</v>
+        <v>8538817</v>
       </c>
       <c r="I32" s="11">
-        <v>8538817</v>
+        <v>11763069</v>
       </c>
       <c r="J32" s="11">
-        <v>11763069</v>
+        <v>11616888</v>
       </c>
       <c r="K32" s="11">
-        <v>11616888</v>
+        <v>11352512</v>
       </c>
       <c r="L32" s="11">
-        <v>11352512</v>
+        <v>13370823</v>
       </c>
       <c r="M32" s="11">
-        <v>13370823</v>
+        <v>14568055</v>
       </c>
       <c r="N32" s="11">
-        <v>14568055</v>
+        <v>14082209</v>
       </c>
       <c r="O32" s="11">
-        <v>14082209</v>
+        <v>14967609</v>
       </c>
       <c r="P32" s="11">
-        <v>14967609</v>
+        <v>15459496</v>
       </c>
       <c r="Q32" s="11">
-        <v>15459496</v>
+        <v>14552552</v>
       </c>
       <c r="R32" s="11">
-        <v>14552552</v>
+        <v>14484935</v>
       </c>
       <c r="S32" s="11">
-        <v>14484935</v>
+        <v>27870096</v>
       </c>
       <c r="T32" s="11">
-        <v>27870096</v>
+        <v>12083421</v>
       </c>
       <c r="U32" s="11">
-        <v>12083421</v>
+        <v>13261570</v>
       </c>
       <c r="V32" s="11">
-        <v>13261570</v>
+        <v>15095494</v>
       </c>
       <c r="W32" s="11">
-        <v>15095494</v>
+        <v>17206660</v>
       </c>
       <c r="X32" s="11">
-        <v>17206660</v>
+        <v>17568099</v>
       </c>
       <c r="Y32" s="11">
-        <v>17568099</v>
+        <v>17706350</v>
       </c>
       <c r="Z32" s="11">
-        <v>17706350</v>
+        <v>18388526</v>
       </c>
       <c r="AA32" s="11">
-        <v>18388526</v>
+        <v>20708554</v>
       </c>
       <c r="AB32" s="11">
-        <v>20708554</v>
+        <v>17183591</v>
       </c>
       <c r="AC32" s="11">
-        <v>17183591</v>
+        <v>16376941</v>
       </c>
       <c r="AD32" s="11">
-        <v>16376941</v>
+        <v>16376968</v>
       </c>
       <c r="AE32" s="11">
-        <v>16376968</v>
+        <v>21248616</v>
       </c>
       <c r="AF32" s="11">
-        <v>21248616</v>
+        <v>15281382</v>
       </c>
       <c r="AG32" s="11">
-        <v>15281382</v>
+        <v>17220459</v>
       </c>
       <c r="AH32" s="11">
-        <v>17220459</v>
+        <v>18912959</v>
       </c>
       <c r="AI32" s="11">
-        <v>18912959</v>
+        <v>20079295</v>
       </c>
       <c r="AJ32" s="11">
-        <v>20079295</v>
+        <v>19301896</v>
       </c>
       <c r="AK32" s="11">
-        <v>19301896</v>
+        <v>20535799</v>
       </c>
       <c r="AL32" s="11">
-        <v>20535799</v>
+        <v>17651054</v>
       </c>
       <c r="AM32" s="11">
-        <v>17651054</v>
+        <v>16965670</v>
       </c>
       <c r="AN32" s="11">
-        <v>16965670</v>
+        <v>17600543</v>
       </c>
       <c r="AO32" s="11">
-        <v>17600543</v>
+        <v>17329932</v>
       </c>
       <c r="AP32" s="11">
-        <v>17329932</v>
+        <v>17099020</v>
       </c>
       <c r="AQ32" s="11">
-        <v>17099020</v>
+        <v>21483638</v>
       </c>
       <c r="AR32" s="11">
-        <v>21483638</v>
+        <v>13981098</v>
       </c>
       <c r="AS32" s="11">
-        <v>13981098</v>
+        <v>22754245</v>
       </c>
       <c r="AT32" s="11">
-        <v>22754245</v>
+        <v>18090677</v>
       </c>
       <c r="AU32" s="11">
-        <v>18090677</v>
+        <v>14466236</v>
       </c>
       <c r="AV32" s="11">
-        <v>14466236</v>
+        <v>14758053</v>
       </c>
       <c r="AW32" s="11">
-        <v>14758053</v>
+        <v>15563697</v>
       </c>
       <c r="AX32" s="11">
-        <v>15563697</v>
+        <v>15348170</v>
       </c>
       <c r="AY32" s="11">
-        <v>15348170</v>
+        <v>14203833</v>
       </c>
       <c r="AZ32" s="11">
-        <v>14203833</v>
+        <v>14533789</v>
       </c>
       <c r="BA32" s="11">
-        <v>14533789</v>
+        <v>16464210</v>
       </c>
       <c r="BB32" s="11">
-        <v>16464210</v>
+        <v>16814303</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
@@ -4261,154 +4296,154 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>36622706</v>
+        <v>36135385</v>
       </c>
       <c r="F33" s="13">
-        <v>36135385</v>
+        <v>40694713</v>
       </c>
       <c r="G33" s="13">
-        <v>40694713</v>
+        <v>51456261</v>
       </c>
       <c r="H33" s="13">
-        <v>51456261</v>
+        <v>33403458</v>
       </c>
       <c r="I33" s="13">
-        <v>33403458</v>
+        <v>45119722</v>
       </c>
       <c r="J33" s="13">
-        <v>45119722</v>
+        <v>39340831</v>
       </c>
       <c r="K33" s="13">
-        <v>39340831</v>
+        <v>33525785</v>
       </c>
       <c r="L33" s="13">
-        <v>33525785</v>
+        <v>39081503</v>
       </c>
       <c r="M33" s="13">
-        <v>39081503</v>
+        <v>43209897</v>
       </c>
       <c r="N33" s="13">
-        <v>43209897</v>
+        <v>47028639</v>
       </c>
       <c r="O33" s="13">
-        <v>47028639</v>
+        <v>48200143</v>
       </c>
       <c r="P33" s="13">
-        <v>48200143</v>
+        <v>51524604</v>
       </c>
       <c r="Q33" s="13">
-        <v>51524604</v>
+        <v>48255505</v>
       </c>
       <c r="R33" s="13">
-        <v>48255505</v>
+        <v>48685081</v>
       </c>
       <c r="S33" s="13">
-        <v>48685081</v>
+        <v>70579586</v>
       </c>
       <c r="T33" s="13">
-        <v>70579586</v>
+        <v>48690856</v>
       </c>
       <c r="U33" s="13">
-        <v>48690856</v>
+        <v>50683599</v>
       </c>
       <c r="V33" s="13">
-        <v>50683599</v>
+        <v>47361733</v>
       </c>
       <c r="W33" s="13">
-        <v>47361733</v>
+        <v>57571414</v>
       </c>
       <c r="X33" s="13">
-        <v>57571414</v>
+        <v>59646278</v>
       </c>
       <c r="Y33" s="13">
-        <v>59646278</v>
+        <v>58140459</v>
       </c>
       <c r="Z33" s="13">
-        <v>58140459</v>
+        <v>57773285</v>
       </c>
       <c r="AA33" s="13">
-        <v>57773285</v>
+        <v>64515930</v>
       </c>
       <c r="AB33" s="13">
-        <v>64515930</v>
+        <v>65714642</v>
       </c>
       <c r="AC33" s="13">
-        <v>65714642</v>
+        <v>62726377</v>
       </c>
       <c r="AD33" s="13">
-        <v>62726377</v>
+        <v>60609553</v>
       </c>
       <c r="AE33" s="13">
-        <v>60609553</v>
+        <v>67659907</v>
       </c>
       <c r="AF33" s="13">
-        <v>67659907</v>
+        <v>53457828</v>
       </c>
       <c r="AG33" s="13">
-        <v>53457828</v>
+        <v>66812305</v>
       </c>
       <c r="AH33" s="13">
-        <v>66812305</v>
+        <v>59614939</v>
       </c>
       <c r="AI33" s="13">
-        <v>59614939</v>
+        <v>58232320</v>
       </c>
       <c r="AJ33" s="13">
-        <v>58232320</v>
+        <v>56946505</v>
       </c>
       <c r="AK33" s="13">
-        <v>56946505</v>
+        <v>71602593</v>
       </c>
       <c r="AL33" s="13">
-        <v>71602593</v>
+        <v>57629702</v>
       </c>
       <c r="AM33" s="13">
-        <v>57629702</v>
+        <v>57386405</v>
       </c>
       <c r="AN33" s="13">
-        <v>57386405</v>
+        <v>66711181</v>
       </c>
       <c r="AO33" s="13">
-        <v>66711181</v>
+        <v>66548565</v>
       </c>
       <c r="AP33" s="13">
-        <v>66548565</v>
+        <v>63538266</v>
       </c>
       <c r="AQ33" s="13">
-        <v>63538266</v>
+        <v>66380136</v>
       </c>
       <c r="AR33" s="13">
-        <v>66380136</v>
+        <v>52970275</v>
       </c>
       <c r="AS33" s="13">
-        <v>52970275</v>
+        <v>67639588</v>
       </c>
       <c r="AT33" s="13">
-        <v>67639588</v>
+        <v>48804861</v>
       </c>
       <c r="AU33" s="13">
-        <v>48804861</v>
+        <v>47432831</v>
       </c>
       <c r="AV33" s="13">
-        <v>47432831</v>
+        <v>45354285</v>
       </c>
       <c r="AW33" s="13">
-        <v>45354285</v>
+        <v>48477286</v>
       </c>
       <c r="AX33" s="13">
-        <v>48477286</v>
+        <v>50169920</v>
       </c>
       <c r="AY33" s="13">
-        <v>50169920</v>
+        <v>45702718</v>
       </c>
       <c r="AZ33" s="13">
-        <v>45702718</v>
+        <v>47416084</v>
       </c>
       <c r="BA33" s="13">
-        <v>47416084</v>
+        <v>51214725</v>
       </c>
       <c r="BB33" s="13">
-        <v>51214725</v>
+        <v>59424541</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4420,40 +4455,40 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>48</v>
+        <v>479</v>
       </c>
       <c r="F34" s="11">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="G34" s="11">
-        <v>569</v>
+        <v>5283</v>
       </c>
       <c r="H34" s="11">
-        <v>5283</v>
+        <v>1550</v>
       </c>
       <c r="I34" s="11">
-        <v>1550</v>
+        <v>2099</v>
       </c>
       <c r="J34" s="11">
-        <v>2099</v>
+        <v>1213</v>
       </c>
       <c r="K34" s="11">
-        <v>1213</v>
+        <v>50</v>
       </c>
       <c r="L34" s="11">
-        <v>50</v>
+        <v>2404</v>
       </c>
       <c r="M34" s="11">
-        <v>2404</v>
+        <v>166</v>
       </c>
       <c r="N34" s="11">
-        <v>166</v>
+        <v>1006</v>
       </c>
       <c r="O34" s="11">
-        <v>1006</v>
+        <v>1762</v>
       </c>
       <c r="P34" s="11">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="11">
         <v>0</v>
@@ -4516,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="AK34" s="11">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="AL34" s="11">
-        <v>1656</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="11">
         <v>0</v>
@@ -4546,28 +4581,28 @@
         <v>0</v>
       </c>
       <c r="AU34" s="11">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="AV34" s="11">
-        <v>1334</v>
+        <v>1114</v>
       </c>
       <c r="AW34" s="11">
-        <v>1114</v>
+        <v>7122</v>
       </c>
       <c r="AX34" s="11">
-        <v>7122</v>
+        <v>1260</v>
       </c>
       <c r="AY34" s="11">
-        <v>1260</v>
+        <v>152</v>
       </c>
       <c r="AZ34" s="11">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="11">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="BB34" s="11">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4579,91 +4614,91 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>132893</v>
+        <v>200151</v>
       </c>
       <c r="F35" s="13">
-        <v>200151</v>
+        <v>271389</v>
       </c>
       <c r="G35" s="13">
-        <v>271389</v>
+        <v>355682</v>
       </c>
       <c r="H35" s="13">
-        <v>355682</v>
+        <v>200351</v>
       </c>
       <c r="I35" s="13">
-        <v>200351</v>
+        <v>413676</v>
       </c>
       <c r="J35" s="13">
-        <v>413676</v>
+        <v>487705</v>
       </c>
       <c r="K35" s="13">
-        <v>487705</v>
+        <v>597972</v>
       </c>
       <c r="L35" s="13">
-        <v>597972</v>
+        <v>831093</v>
       </c>
       <c r="M35" s="13">
-        <v>831093</v>
+        <v>942675</v>
       </c>
       <c r="N35" s="13">
-        <v>942675</v>
+        <v>948286</v>
       </c>
       <c r="O35" s="13">
-        <v>948286</v>
+        <v>892556</v>
       </c>
       <c r="P35" s="13">
-        <v>892556</v>
+        <v>1021392</v>
       </c>
       <c r="Q35" s="13">
-        <v>1021392</v>
+        <v>769794</v>
       </c>
       <c r="R35" s="13">
-        <v>769794</v>
+        <v>757082</v>
       </c>
       <c r="S35" s="13">
-        <v>757082</v>
+        <v>1128426</v>
       </c>
       <c r="T35" s="13">
-        <v>1128426</v>
+        <v>588840</v>
       </c>
       <c r="U35" s="13">
-        <v>588840</v>
+        <v>678019</v>
       </c>
       <c r="V35" s="13">
-        <v>678019</v>
+        <v>816027</v>
       </c>
       <c r="W35" s="13">
-        <v>816027</v>
+        <v>745530</v>
       </c>
       <c r="X35" s="13">
-        <v>745530</v>
+        <v>900893</v>
       </c>
       <c r="Y35" s="13">
-        <v>900893</v>
+        <v>726292</v>
       </c>
       <c r="Z35" s="13">
-        <v>726292</v>
+        <v>574826</v>
       </c>
       <c r="AA35" s="13">
-        <v>574826</v>
+        <v>283033</v>
       </c>
       <c r="AB35" s="13">
-        <v>283033</v>
+        <v>272393</v>
       </c>
       <c r="AC35" s="13">
-        <v>272393</v>
+        <v>210621</v>
       </c>
       <c r="AD35" s="13">
-        <v>210621</v>
+        <v>174080</v>
       </c>
       <c r="AE35" s="13">
-        <v>174080</v>
+        <v>121738</v>
       </c>
       <c r="AF35" s="13">
-        <v>121738</v>
+        <v>86250</v>
       </c>
       <c r="AG35" s="13">
-        <v>86250</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="13">
         <v>0</v>
@@ -4738,154 +4773,154 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>1277968</v>
+        <v>1175765</v>
       </c>
       <c r="F36" s="11">
-        <v>1175765</v>
+        <v>1375373</v>
       </c>
       <c r="G36" s="11">
-        <v>1375373</v>
+        <v>1865836</v>
       </c>
       <c r="H36" s="11">
-        <v>1865836</v>
+        <v>1110752</v>
       </c>
       <c r="I36" s="11">
-        <v>1110752</v>
+        <v>1473525</v>
       </c>
       <c r="J36" s="11">
-        <v>1473525</v>
+        <v>1495183</v>
       </c>
       <c r="K36" s="11">
-        <v>1495183</v>
+        <v>1385654</v>
       </c>
       <c r="L36" s="11">
-        <v>1385654</v>
+        <v>1682697</v>
       </c>
       <c r="M36" s="11">
-        <v>1682697</v>
+        <v>1844784</v>
       </c>
       <c r="N36" s="11">
-        <v>1844784</v>
+        <v>2108357</v>
       </c>
       <c r="O36" s="11">
-        <v>2108357</v>
+        <v>2224550</v>
       </c>
       <c r="P36" s="11">
-        <v>2224550</v>
+        <v>2245025</v>
       </c>
       <c r="Q36" s="11">
-        <v>2245025</v>
+        <v>2160514</v>
       </c>
       <c r="R36" s="11">
-        <v>2160514</v>
+        <v>2231429</v>
       </c>
       <c r="S36" s="11">
-        <v>2231429</v>
+        <v>4042605</v>
       </c>
       <c r="T36" s="11">
-        <v>4042605</v>
+        <v>2239551</v>
       </c>
       <c r="U36" s="11">
-        <v>2239551</v>
+        <v>2142439</v>
       </c>
       <c r="V36" s="11">
-        <v>2142439</v>
+        <v>2298856</v>
       </c>
       <c r="W36" s="11">
-        <v>2298856</v>
+        <v>2541700</v>
       </c>
       <c r="X36" s="11">
-        <v>2541700</v>
+        <v>2635036</v>
       </c>
       <c r="Y36" s="11">
-        <v>2635036</v>
+        <v>2593815</v>
       </c>
       <c r="Z36" s="11">
-        <v>2593815</v>
+        <v>2611827</v>
       </c>
       <c r="AA36" s="11">
-        <v>2611827</v>
+        <v>2550881</v>
       </c>
       <c r="AB36" s="11">
-        <v>2550881</v>
+        <v>2391337</v>
       </c>
       <c r="AC36" s="11">
-        <v>2391337</v>
+        <v>2106565</v>
       </c>
       <c r="AD36" s="11">
-        <v>2106565</v>
+        <v>2095587</v>
       </c>
       <c r="AE36" s="11">
-        <v>2095587</v>
+        <v>2775670</v>
       </c>
       <c r="AF36" s="11">
-        <v>2775670</v>
+        <v>2242860</v>
       </c>
       <c r="AG36" s="11">
-        <v>2242860</v>
+        <v>2304370</v>
       </c>
       <c r="AH36" s="11">
-        <v>2304370</v>
+        <v>2639319</v>
       </c>
       <c r="AI36" s="11">
-        <v>2639319</v>
+        <v>2427523</v>
       </c>
       <c r="AJ36" s="11">
-        <v>2427523</v>
+        <v>2562359</v>
       </c>
       <c r="AK36" s="11">
-        <v>2562359</v>
+        <v>2800216</v>
       </c>
       <c r="AL36" s="11">
-        <v>2800216</v>
+        <v>2523846</v>
       </c>
       <c r="AM36" s="11">
-        <v>2523846</v>
+        <v>2331925</v>
       </c>
       <c r="AN36" s="11">
-        <v>2331925</v>
+        <v>2410115</v>
       </c>
       <c r="AO36" s="11">
-        <v>2410115</v>
+        <v>2330385</v>
       </c>
       <c r="AP36" s="11">
-        <v>2330385</v>
+        <v>2337703</v>
       </c>
       <c r="AQ36" s="11">
-        <v>2337703</v>
+        <v>2605945</v>
       </c>
       <c r="AR36" s="11">
-        <v>2605945</v>
+        <v>1996719</v>
       </c>
       <c r="AS36" s="11">
-        <v>1996719</v>
+        <v>2315970</v>
       </c>
       <c r="AT36" s="11">
-        <v>2315970</v>
+        <v>1876064</v>
       </c>
       <c r="AU36" s="11">
-        <v>1876064</v>
+        <v>1873813</v>
       </c>
       <c r="AV36" s="11">
-        <v>1873813</v>
+        <v>1952996</v>
       </c>
       <c r="AW36" s="11">
-        <v>1952996</v>
+        <v>1989907</v>
       </c>
       <c r="AX36" s="11">
-        <v>1989907</v>
+        <v>1940115</v>
       </c>
       <c r="AY36" s="11">
-        <v>1940115</v>
+        <v>1852241</v>
       </c>
       <c r="AZ36" s="11">
-        <v>1852241</v>
+        <v>1802272</v>
       </c>
       <c r="BA36" s="11">
-        <v>1802272</v>
+        <v>1983721</v>
       </c>
       <c r="BB36" s="11">
-        <v>1983721</v>
+        <v>2551461</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4897,154 +4932,154 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>19586279</v>
+        <v>18943946</v>
       </c>
       <c r="F37" s="13">
-        <v>18943946</v>
+        <v>19896353</v>
       </c>
       <c r="G37" s="13">
-        <v>19896353</v>
+        <v>22124502</v>
       </c>
       <c r="H37" s="13">
-        <v>22124502</v>
+        <v>18175000</v>
       </c>
       <c r="I37" s="13">
-        <v>18175000</v>
+        <v>23917957</v>
       </c>
       <c r="J37" s="13">
-        <v>23917957</v>
+        <v>37747751</v>
       </c>
       <c r="K37" s="13">
-        <v>37747751</v>
+        <v>24531566</v>
       </c>
       <c r="L37" s="13">
-        <v>24531566</v>
+        <v>25549280</v>
       </c>
       <c r="M37" s="13">
-        <v>25549280</v>
+        <v>26360436</v>
       </c>
       <c r="N37" s="13">
-        <v>26360436</v>
+        <v>23676600</v>
       </c>
       <c r="O37" s="13">
-        <v>23676600</v>
+        <v>24285735</v>
       </c>
       <c r="P37" s="13">
-        <v>24285735</v>
+        <v>27718117</v>
       </c>
       <c r="Q37" s="13">
-        <v>27718117</v>
+        <v>28288675</v>
       </c>
       <c r="R37" s="13">
-        <v>28288675</v>
+        <v>26826691</v>
       </c>
       <c r="S37" s="13">
-        <v>26826691</v>
+        <v>36100791</v>
       </c>
       <c r="T37" s="13">
-        <v>36100791</v>
+        <v>30765673</v>
       </c>
       <c r="U37" s="13">
-        <v>30765673</v>
+        <v>30780036</v>
       </c>
       <c r="V37" s="13">
-        <v>30780036</v>
+        <v>32076277</v>
       </c>
       <c r="W37" s="13">
-        <v>32076277</v>
+        <v>30339987</v>
       </c>
       <c r="X37" s="13">
-        <v>30339987</v>
+        <v>33185494</v>
       </c>
       <c r="Y37" s="13">
-        <v>33185494</v>
+        <v>31092530</v>
       </c>
       <c r="Z37" s="13">
-        <v>31092530</v>
+        <v>29467135</v>
       </c>
       <c r="AA37" s="13">
-        <v>29467135</v>
+        <v>30089287</v>
       </c>
       <c r="AB37" s="13">
-        <v>30089287</v>
+        <v>30598330</v>
       </c>
       <c r="AC37" s="13">
-        <v>30598330</v>
+        <v>28352398</v>
       </c>
       <c r="AD37" s="13">
-        <v>28352398</v>
+        <v>27728429</v>
       </c>
       <c r="AE37" s="13">
-        <v>27728429</v>
+        <v>29817853</v>
       </c>
       <c r="AF37" s="13">
-        <v>29817853</v>
+        <v>27253387</v>
       </c>
       <c r="AG37" s="13">
-        <v>27253387</v>
+        <v>31028661</v>
       </c>
       <c r="AH37" s="13">
-        <v>31028661</v>
+        <v>33228542</v>
       </c>
       <c r="AI37" s="13">
-        <v>33228542</v>
+        <v>33720402</v>
       </c>
       <c r="AJ37" s="13">
-        <v>33720402</v>
+        <v>33519755</v>
       </c>
       <c r="AK37" s="13">
-        <v>33519755</v>
+        <v>33756058</v>
       </c>
       <c r="AL37" s="13">
-        <v>33756058</v>
+        <v>29258226</v>
       </c>
       <c r="AM37" s="13">
-        <v>29258226</v>
+        <v>27508476</v>
       </c>
       <c r="AN37" s="13">
-        <v>27508476</v>
+        <v>27884234</v>
       </c>
       <c r="AO37" s="13">
-        <v>27884234</v>
+        <v>27053859</v>
       </c>
       <c r="AP37" s="13">
-        <v>27053859</v>
+        <v>27624335</v>
       </c>
       <c r="AQ37" s="13">
-        <v>27624335</v>
+        <v>28596619</v>
       </c>
       <c r="AR37" s="13">
-        <v>28596619</v>
+        <v>27720113</v>
       </c>
       <c r="AS37" s="13">
-        <v>27720113</v>
+        <v>35902084</v>
       </c>
       <c r="AT37" s="13">
-        <v>35902084</v>
+        <v>28405738</v>
       </c>
       <c r="AU37" s="13">
-        <v>28405738</v>
+        <v>27973099</v>
       </c>
       <c r="AV37" s="13">
-        <v>27973099</v>
+        <v>25968930</v>
       </c>
       <c r="AW37" s="13">
-        <v>25968930</v>
+        <v>27613600</v>
       </c>
       <c r="AX37" s="13">
-        <v>27613600</v>
+        <v>26757928</v>
       </c>
       <c r="AY37" s="13">
-        <v>26757928</v>
+        <v>22485348</v>
       </c>
       <c r="AZ37" s="13">
-        <v>22485348</v>
+        <v>21782670</v>
       </c>
       <c r="BA37" s="13">
-        <v>21782670</v>
+        <v>23835702</v>
       </c>
       <c r="BB37" s="13">
-        <v>23835702</v>
+        <v>27280784</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
@@ -5056,133 +5091,133 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>85069</v>
+        <v>80613</v>
       </c>
       <c r="F38" s="11">
-        <v>80613</v>
+        <v>79952</v>
       </c>
       <c r="G38" s="11">
-        <v>79952</v>
+        <v>140831</v>
       </c>
       <c r="H38" s="11">
-        <v>140831</v>
+        <v>9313</v>
       </c>
       <c r="I38" s="11">
-        <v>9313</v>
+        <v>9974</v>
       </c>
       <c r="J38" s="11">
-        <v>9974</v>
+        <v>8988</v>
       </c>
       <c r="K38" s="11">
-        <v>8988</v>
+        <v>6821</v>
       </c>
       <c r="L38" s="11">
-        <v>6821</v>
+        <v>5012</v>
       </c>
       <c r="M38" s="11">
-        <v>5012</v>
+        <v>4834</v>
       </c>
       <c r="N38" s="11">
-        <v>4834</v>
+        <v>3870</v>
       </c>
       <c r="O38" s="11">
-        <v>3870</v>
+        <v>3472</v>
       </c>
       <c r="P38" s="11">
-        <v>3472</v>
+        <v>4081</v>
       </c>
       <c r="Q38" s="11">
-        <v>4081</v>
+        <v>4140</v>
       </c>
       <c r="R38" s="11">
-        <v>4140</v>
+        <v>4549</v>
       </c>
       <c r="S38" s="11">
-        <v>4549</v>
+        <v>4602</v>
       </c>
       <c r="T38" s="11">
-        <v>4602</v>
+        <v>3188</v>
       </c>
       <c r="U38" s="11">
-        <v>3188</v>
+        <v>4435</v>
       </c>
       <c r="V38" s="11">
-        <v>4435</v>
+        <v>6871</v>
       </c>
       <c r="W38" s="11">
-        <v>6871</v>
+        <v>5655</v>
       </c>
       <c r="X38" s="11">
-        <v>5655</v>
+        <v>5494</v>
       </c>
       <c r="Y38" s="11">
-        <v>5494</v>
+        <v>4796</v>
       </c>
       <c r="Z38" s="11">
-        <v>4796</v>
+        <v>161421120</v>
       </c>
       <c r="AA38" s="11">
-        <v>161421120</v>
+        <v>2597</v>
       </c>
       <c r="AB38" s="11">
-        <v>2597</v>
+        <v>2248</v>
       </c>
       <c r="AC38" s="11">
-        <v>2248</v>
+        <v>1914</v>
       </c>
       <c r="AD38" s="11">
-        <v>1914</v>
+        <v>2085</v>
       </c>
       <c r="AE38" s="11">
-        <v>2085</v>
+        <v>2759</v>
       </c>
       <c r="AF38" s="11">
-        <v>2759</v>
+        <v>2822</v>
       </c>
       <c r="AG38" s="11">
-        <v>2822</v>
+        <v>111810</v>
       </c>
       <c r="AH38" s="11">
-        <v>111810</v>
+        <v>106030</v>
       </c>
       <c r="AI38" s="11">
-        <v>106030</v>
+        <v>57510</v>
       </c>
       <c r="AJ38" s="11">
-        <v>57510</v>
+        <v>25041</v>
       </c>
       <c r="AK38" s="11">
-        <v>25041</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="11">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="AM38" s="11">
-        <v>6443</v>
+        <v>5988</v>
       </c>
       <c r="AN38" s="11">
-        <v>5988</v>
+        <v>9023</v>
       </c>
       <c r="AO38" s="11">
-        <v>9023</v>
+        <v>215</v>
       </c>
       <c r="AP38" s="11">
-        <v>215</v>
+        <v>1117</v>
       </c>
       <c r="AQ38" s="11">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="11">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AS38" s="11">
-        <v>713</v>
+        <v>251</v>
       </c>
       <c r="AT38" s="11">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AU38" s="11">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="11">
         <v>0</v>
@@ -5191,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="AX38" s="11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AY38" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BA38" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
@@ -5334,35 +5369,35 @@
       <c r="AR39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AS39" s="13" t="s">
-        <v>66</v>
+      <c r="AS39" s="13">
+        <v>201266</v>
       </c>
       <c r="AT39" s="13">
-        <v>201266</v>
+        <v>395223</v>
       </c>
       <c r="AU39" s="13">
-        <v>395223</v>
+        <v>507987</v>
       </c>
       <c r="AV39" s="13">
-        <v>507987</v>
+        <v>824330</v>
       </c>
       <c r="AW39" s="13">
-        <v>824330</v>
+        <v>1346724</v>
       </c>
       <c r="AX39" s="13">
-        <v>1346724</v>
+        <v>901773</v>
       </c>
       <c r="AY39" s="13">
-        <v>901773</v>
+        <v>744313</v>
       </c>
       <c r="AZ39" s="13">
-        <v>744313</v>
+        <v>809954</v>
       </c>
       <c r="BA39" s="13">
-        <v>809954</v>
+        <v>981146</v>
       </c>
       <c r="BB39" s="13">
-        <v>981146</v>
+        <v>991745</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5482,8 +5517,8 @@
       <c r="V41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W41" s="17" t="s">
-        <v>66</v>
+      <c r="W41" s="17">
+        <v>0</v>
       </c>
       <c r="X41" s="17">
         <v>0</v>
@@ -5696,8 +5731,8 @@
       <c r="V43" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W43" s="17" t="s">
-        <v>66</v>
+      <c r="W43" s="17">
+        <v>0</v>
       </c>
       <c r="X43" s="17">
         <v>0</v>
@@ -5800,154 +5835,154 @@
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
-        <v>72910050</v>
+        <v>70832582</v>
       </c>
       <c r="F44" s="19">
-        <v>70832582</v>
+        <v>79879208</v>
       </c>
       <c r="G44" s="19">
-        <v>79879208</v>
+        <v>99096564</v>
       </c>
       <c r="H44" s="19">
-        <v>99096564</v>
+        <v>67592257</v>
       </c>
       <c r="I44" s="19">
-        <v>67592257</v>
+        <v>90086269</v>
       </c>
       <c r="J44" s="19">
-        <v>90086269</v>
+        <v>99461605</v>
       </c>
       <c r="K44" s="19">
-        <v>99461605</v>
+        <v>79569095</v>
       </c>
       <c r="L44" s="19">
-        <v>79569095</v>
+        <v>90570640</v>
       </c>
       <c r="M44" s="19">
-        <v>90570640</v>
+        <v>96823796</v>
       </c>
       <c r="N44" s="19">
-        <v>96823796</v>
+        <v>96553521</v>
       </c>
       <c r="O44" s="19">
-        <v>96553521</v>
+        <v>98055173</v>
       </c>
       <c r="P44" s="19">
-        <v>98055173</v>
+        <v>105875841</v>
       </c>
       <c r="Q44" s="19">
-        <v>105875841</v>
+        <v>101271055</v>
       </c>
       <c r="R44" s="19">
-        <v>101271055</v>
+        <v>100514042</v>
       </c>
       <c r="S44" s="19">
-        <v>100514042</v>
+        <v>148599979</v>
       </c>
       <c r="T44" s="19">
-        <v>148599979</v>
+        <v>101507982</v>
       </c>
       <c r="U44" s="19">
-        <v>101507982</v>
+        <v>106595819</v>
       </c>
       <c r="V44" s="19">
-        <v>106595819</v>
+        <v>109556101</v>
       </c>
       <c r="W44" s="19">
-        <v>109556101</v>
+        <v>120897071</v>
       </c>
       <c r="X44" s="19">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="Y44" s="19">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="Z44" s="19">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="AA44" s="19">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="AB44" s="19">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AC44" s="19">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AD44" s="19">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AE44" s="19">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AF44" s="19">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AG44" s="19">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AH44" s="19">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AI44" s="19">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AJ44" s="19">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AK44" s="19">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AL44" s="19">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AM44" s="19">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AN44" s="19">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AO44" s="19">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AP44" s="19">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AQ44" s="19">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AR44" s="19">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AS44" s="19">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AT44" s="19">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AU44" s="19">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AV44" s="19">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AW44" s="19">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AX44" s="19">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AY44" s="19">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AZ44" s="19">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="BA44" s="19">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="BB44" s="19">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
@@ -6393,154 +6428,154 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>8182</v>
+        <v>8230</v>
       </c>
       <c r="F51" s="11">
-        <v>8230</v>
+        <v>9226</v>
       </c>
       <c r="G51" s="11">
-        <v>9226</v>
+        <v>12088</v>
       </c>
       <c r="H51" s="11">
-        <v>12088</v>
+        <v>6925</v>
       </c>
       <c r="I51" s="11">
-        <v>6925</v>
+        <v>8758</v>
       </c>
       <c r="J51" s="11">
-        <v>8758</v>
+        <v>9762</v>
       </c>
       <c r="K51" s="11">
-        <v>9762</v>
+        <v>9160</v>
       </c>
       <c r="L51" s="11">
-        <v>9160</v>
+        <v>11485</v>
       </c>
       <c r="M51" s="11">
-        <v>11485</v>
+        <v>14428</v>
       </c>
       <c r="N51" s="11">
-        <v>14428</v>
+        <v>16986</v>
       </c>
       <c r="O51" s="11">
-        <v>16986</v>
+        <v>19409</v>
       </c>
       <c r="P51" s="11">
-        <v>19409</v>
+        <v>20542</v>
       </c>
       <c r="Q51" s="11">
-        <v>20542</v>
+        <v>19234</v>
       </c>
       <c r="R51" s="11">
-        <v>19234</v>
+        <v>21333</v>
       </c>
       <c r="S51" s="11">
-        <v>21333</v>
+        <v>26773</v>
       </c>
       <c r="T51" s="11">
-        <v>26773</v>
+        <v>14602</v>
       </c>
       <c r="U51" s="11">
-        <v>14602</v>
+        <v>15967</v>
       </c>
       <c r="V51" s="11">
-        <v>15967</v>
+        <v>18562</v>
       </c>
       <c r="W51" s="11">
-        <v>18562</v>
+        <v>19257</v>
       </c>
       <c r="X51" s="11">
-        <v>19257</v>
+        <v>19091</v>
       </c>
       <c r="Y51" s="11">
-        <v>19091</v>
+        <v>21686</v>
       </c>
       <c r="Z51" s="11">
-        <v>21686</v>
+        <v>25120</v>
       </c>
       <c r="AA51" s="11">
-        <v>25120</v>
+        <v>28085</v>
       </c>
       <c r="AB51" s="11">
-        <v>28085</v>
+        <v>31177</v>
       </c>
       <c r="AC51" s="11">
-        <v>31177</v>
+        <v>26729</v>
       </c>
       <c r="AD51" s="11">
-        <v>26729</v>
+        <v>24057</v>
       </c>
       <c r="AE51" s="11">
-        <v>24057</v>
+        <v>29822</v>
       </c>
       <c r="AF51" s="11">
-        <v>29822</v>
+        <v>16880</v>
       </c>
       <c r="AG51" s="11">
-        <v>16880</v>
+        <v>11091</v>
       </c>
       <c r="AH51" s="11">
-        <v>11091</v>
+        <v>19898</v>
       </c>
       <c r="AI51" s="11">
-        <v>19898</v>
+        <v>22155</v>
       </c>
       <c r="AJ51" s="11">
-        <v>22155</v>
+        <v>21017</v>
       </c>
       <c r="AK51" s="11">
-        <v>21017</v>
+        <v>29361</v>
       </c>
       <c r="AL51" s="11">
-        <v>29361</v>
+        <v>30583</v>
       </c>
       <c r="AM51" s="11">
-        <v>30583</v>
+        <v>29217</v>
       </c>
       <c r="AN51" s="11">
-        <v>29217</v>
+        <v>32352</v>
       </c>
       <c r="AO51" s="11">
-        <v>32352</v>
+        <v>30611</v>
       </c>
       <c r="AP51" s="11">
-        <v>30611</v>
+        <v>28504</v>
       </c>
       <c r="AQ51" s="11">
-        <v>28504</v>
+        <v>25982</v>
       </c>
       <c r="AR51" s="11">
-        <v>25982</v>
+        <v>21147</v>
       </c>
       <c r="AS51" s="11">
-        <v>21147</v>
+        <v>24586</v>
       </c>
       <c r="AT51" s="11">
-        <v>24586</v>
+        <v>20484</v>
       </c>
       <c r="AU51" s="11">
-        <v>20484</v>
+        <v>22006</v>
       </c>
       <c r="AV51" s="11">
-        <v>22006</v>
+        <v>22320</v>
       </c>
       <c r="AW51" s="11">
-        <v>22320</v>
+        <v>24122</v>
       </c>
       <c r="AX51" s="11">
-        <v>24122</v>
+        <v>26782</v>
       </c>
       <c r="AY51" s="11">
-        <v>26782</v>
+        <v>24834</v>
       </c>
       <c r="AZ51" s="11">
-        <v>24834</v>
+        <v>23821</v>
       </c>
       <c r="BA51" s="11">
-        <v>23821</v>
+        <v>29723</v>
       </c>
       <c r="BB51" s="11">
-        <v>29723</v>
+        <v>47070</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
@@ -6552,154 +6587,154 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>160424</v>
+        <v>143758</v>
       </c>
       <c r="F52" s="13">
-        <v>143758</v>
+        <v>167966</v>
       </c>
       <c r="G52" s="13">
-        <v>167966</v>
+        <v>202383</v>
       </c>
       <c r="H52" s="13">
-        <v>202383</v>
+        <v>204713</v>
       </c>
       <c r="I52" s="13">
-        <v>204713</v>
+        <v>273939</v>
       </c>
       <c r="J52" s="13">
-        <v>273939</v>
+        <v>354007</v>
       </c>
       <c r="K52" s="13">
-        <v>354007</v>
+        <v>342804</v>
       </c>
       <c r="L52" s="13">
-        <v>342804</v>
+        <v>390270</v>
       </c>
       <c r="M52" s="13">
-        <v>390270</v>
+        <v>358303</v>
       </c>
       <c r="N52" s="13">
-        <v>358303</v>
+        <v>313049</v>
       </c>
       <c r="O52" s="13">
-        <v>313049</v>
+        <v>267994</v>
       </c>
       <c r="P52" s="13">
-        <v>267994</v>
+        <v>281635</v>
       </c>
       <c r="Q52" s="13">
-        <v>281635</v>
+        <v>264430</v>
       </c>
       <c r="R52" s="13">
-        <v>264430</v>
+        <v>288041</v>
       </c>
       <c r="S52" s="13">
-        <v>288041</v>
+        <v>363830</v>
       </c>
       <c r="T52" s="13">
-        <v>363830</v>
+        <v>307929</v>
       </c>
       <c r="U52" s="13">
-        <v>307929</v>
+        <v>390251</v>
       </c>
       <c r="V52" s="13">
-        <v>390251</v>
+        <v>526417</v>
       </c>
       <c r="W52" s="13">
-        <v>526417</v>
+        <v>585002</v>
       </c>
       <c r="X52" s="13">
-        <v>585002</v>
+        <v>729611</v>
       </c>
       <c r="Y52" s="13">
-        <v>729611</v>
+        <v>648355</v>
       </c>
       <c r="Z52" s="13">
-        <v>648355</v>
+        <v>636887</v>
       </c>
       <c r="AA52" s="13">
-        <v>636887</v>
+        <v>670461</v>
       </c>
       <c r="AB52" s="13">
-        <v>670461</v>
+        <v>599483</v>
       </c>
       <c r="AC52" s="13">
-        <v>599483</v>
+        <v>583108</v>
       </c>
       <c r="AD52" s="13">
-        <v>583108</v>
+        <v>643083</v>
       </c>
       <c r="AE52" s="13">
-        <v>643083</v>
+        <v>756688</v>
       </c>
       <c r="AF52" s="13">
-        <v>756688</v>
+        <v>914139</v>
       </c>
       <c r="AG52" s="13">
-        <v>914139</v>
+        <v>1091281</v>
       </c>
       <c r="AH52" s="13">
-        <v>1091281</v>
+        <v>1359509</v>
       </c>
       <c r="AI52" s="13">
-        <v>1359509</v>
+        <v>1545280</v>
       </c>
       <c r="AJ52" s="13">
-        <v>1545280</v>
+        <v>1508859</v>
       </c>
       <c r="AK52" s="13">
-        <v>1508859</v>
+        <v>1523560</v>
       </c>
       <c r="AL52" s="13">
-        <v>1523560</v>
+        <v>1249471</v>
       </c>
       <c r="AM52" s="13">
-        <v>1249471</v>
+        <v>1017604</v>
       </c>
       <c r="AN52" s="13">
-        <v>1017604</v>
+        <v>1072647</v>
       </c>
       <c r="AO52" s="13">
-        <v>1072647</v>
+        <v>945572</v>
       </c>
       <c r="AP52" s="13">
-        <v>945572</v>
+        <v>938030</v>
       </c>
       <c r="AQ52" s="13">
-        <v>938030</v>
+        <v>1011912</v>
       </c>
       <c r="AR52" s="13">
-        <v>1011912</v>
+        <v>1159348</v>
       </c>
       <c r="AS52" s="13">
-        <v>1159348</v>
+        <v>1356891</v>
       </c>
       <c r="AT52" s="13">
-        <v>1356891</v>
+        <v>1526004</v>
       </c>
       <c r="AU52" s="13">
-        <v>1526004</v>
+        <v>1727081</v>
       </c>
       <c r="AV52" s="13">
-        <v>1727081</v>
+        <v>1710685</v>
       </c>
       <c r="AW52" s="13">
-        <v>1710685</v>
+        <v>1747365</v>
       </c>
       <c r="AX52" s="13">
-        <v>1747365</v>
+        <v>1436820</v>
       </c>
       <c r="AY52" s="13">
-        <v>1436820</v>
+        <v>1064517</v>
       </c>
       <c r="AZ52" s="13">
-        <v>1064517</v>
+        <v>1047146</v>
       </c>
       <c r="BA52" s="13">
-        <v>1047146</v>
+        <v>1143177</v>
       </c>
       <c r="BB52" s="13">
-        <v>1143177</v>
+        <v>1228545</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -6711,154 +6746,154 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>1004745</v>
+        <v>979433</v>
       </c>
       <c r="F53" s="11">
-        <v>979433</v>
+        <v>1147244</v>
       </c>
       <c r="G53" s="11">
-        <v>1147244</v>
+        <v>1518982</v>
       </c>
       <c r="H53" s="11">
-        <v>1518982</v>
+        <v>904839</v>
       </c>
       <c r="I53" s="11">
-        <v>904839</v>
+        <v>1230952</v>
       </c>
       <c r="J53" s="11">
-        <v>1230952</v>
+        <v>1232585</v>
       </c>
       <c r="K53" s="11">
-        <v>1232585</v>
+        <v>1239695</v>
       </c>
       <c r="L53" s="11">
-        <v>1239695</v>
+        <v>1461718</v>
       </c>
       <c r="M53" s="11">
-        <v>1461718</v>
+        <v>1575057</v>
       </c>
       <c r="N53" s="11">
-        <v>1575057</v>
+        <v>1541073</v>
       </c>
       <c r="O53" s="11">
-        <v>1541073</v>
+        <v>1602288</v>
       </c>
       <c r="P53" s="11">
-        <v>1602288</v>
+        <v>1667371</v>
       </c>
       <c r="Q53" s="11">
-        <v>1667371</v>
+        <v>1613085</v>
       </c>
       <c r="R53" s="11">
-        <v>1613085</v>
+        <v>1651771</v>
       </c>
       <c r="S53" s="11">
-        <v>1651771</v>
+        <v>3191684</v>
       </c>
       <c r="T53" s="11">
-        <v>3191684</v>
+        <v>1474820</v>
       </c>
       <c r="U53" s="11">
-        <v>1474820</v>
+        <v>1657987</v>
       </c>
       <c r="V53" s="11">
-        <v>1657987</v>
+        <v>1878689</v>
       </c>
       <c r="W53" s="11">
-        <v>1878689</v>
+        <v>2151811</v>
       </c>
       <c r="X53" s="11">
-        <v>2151811</v>
+        <v>2285483</v>
       </c>
       <c r="Y53" s="11">
-        <v>2285483</v>
+        <v>2425327</v>
       </c>
       <c r="Z53" s="11">
-        <v>2425327</v>
+        <v>2631987</v>
       </c>
       <c r="AA53" s="11">
-        <v>2631987</v>
+        <v>3093213</v>
       </c>
       <c r="AB53" s="11">
-        <v>3093213</v>
+        <v>2844327</v>
       </c>
       <c r="AC53" s="11">
-        <v>2844327</v>
+        <v>2898215</v>
       </c>
       <c r="AD53" s="11">
-        <v>2898215</v>
+        <v>2997082</v>
       </c>
       <c r="AE53" s="11">
-        <v>2997082</v>
+        <v>3925203</v>
       </c>
       <c r="AF53" s="11">
-        <v>3925203</v>
+        <v>2999325</v>
       </c>
       <c r="AG53" s="11">
-        <v>2999325</v>
+        <v>3449680</v>
       </c>
       <c r="AH53" s="11">
-        <v>3449680</v>
+        <v>3743355</v>
       </c>
       <c r="AI53" s="11">
-        <v>3743355</v>
+        <v>3920905</v>
       </c>
       <c r="AJ53" s="11">
-        <v>3920905</v>
+        <v>3993741</v>
       </c>
       <c r="AK53" s="11">
-        <v>3993741</v>
+        <v>4439205</v>
       </c>
       <c r="AL53" s="11">
-        <v>4439205</v>
+        <v>4062786</v>
       </c>
       <c r="AM53" s="11">
-        <v>4062786</v>
+        <v>4009310</v>
       </c>
       <c r="AN53" s="11">
-        <v>4009310</v>
+        <v>4211898</v>
       </c>
       <c r="AO53" s="11">
-        <v>4211898</v>
+        <v>4130260</v>
       </c>
       <c r="AP53" s="11">
-        <v>4130260</v>
+        <v>4061542</v>
       </c>
       <c r="AQ53" s="11">
-        <v>4061542</v>
+        <v>5012506</v>
       </c>
       <c r="AR53" s="11">
-        <v>5012506</v>
+        <v>3503471</v>
       </c>
       <c r="AS53" s="11">
-        <v>3503471</v>
+        <v>5722771</v>
       </c>
       <c r="AT53" s="11">
-        <v>5722771</v>
+        <v>4711193</v>
       </c>
       <c r="AU53" s="11">
-        <v>4711193</v>
+        <v>3967881</v>
       </c>
       <c r="AV53" s="11">
-        <v>3967881</v>
+        <v>4241702</v>
       </c>
       <c r="AW53" s="11">
-        <v>4241702</v>
+        <v>4603288</v>
       </c>
       <c r="AX53" s="11">
-        <v>4603288</v>
+        <v>4744859</v>
       </c>
       <c r="AY53" s="11">
-        <v>4744859</v>
+        <v>4443387</v>
       </c>
       <c r="AZ53" s="11">
-        <v>4443387</v>
+        <v>4607831</v>
       </c>
       <c r="BA53" s="11">
-        <v>4607831</v>
+        <v>5307938</v>
       </c>
       <c r="BB53" s="11">
-        <v>5307938</v>
+        <v>5428002</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
@@ -6870,154 +6905,154 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>2054670</v>
+        <v>2042323</v>
       </c>
       <c r="F54" s="13">
-        <v>2042323</v>
+        <v>2468338</v>
       </c>
       <c r="G54" s="13">
-        <v>2468338</v>
+        <v>3453565</v>
       </c>
       <c r="H54" s="13">
-        <v>3453565</v>
+        <v>2028780</v>
       </c>
       <c r="I54" s="13">
-        <v>2028780</v>
+        <v>2920619</v>
       </c>
       <c r="J54" s="13">
-        <v>2920619</v>
+        <v>2604943</v>
       </c>
       <c r="K54" s="13">
-        <v>2604943</v>
+        <v>2488429</v>
       </c>
       <c r="L54" s="13">
-        <v>2488429</v>
+        <v>2975121</v>
       </c>
       <c r="M54" s="13">
-        <v>2975121</v>
+        <v>3273152</v>
       </c>
       <c r="N54" s="13">
-        <v>3273152</v>
+        <v>3106797</v>
       </c>
       <c r="O54" s="13">
-        <v>3106797</v>
+        <v>3425031</v>
       </c>
       <c r="P54" s="13">
-        <v>3425031</v>
+        <v>3700580</v>
       </c>
       <c r="Q54" s="13">
-        <v>3700580</v>
+        <v>3471847</v>
       </c>
       <c r="R54" s="13">
-        <v>3471847</v>
+        <v>3767354</v>
       </c>
       <c r="S54" s="13">
-        <v>3767354</v>
+        <v>6114291</v>
       </c>
       <c r="T54" s="13">
-        <v>6114291</v>
+        <v>3680929</v>
       </c>
       <c r="U54" s="13">
-        <v>3680929</v>
+        <v>4221481</v>
       </c>
       <c r="V54" s="13">
-        <v>4221481</v>
+        <v>4021188</v>
       </c>
       <c r="W54" s="13">
-        <v>4021188</v>
+        <v>4990908</v>
       </c>
       <c r="X54" s="13">
-        <v>4990908</v>
+        <v>5265812</v>
       </c>
       <c r="Y54" s="13">
-        <v>5265812</v>
+        <v>5900747</v>
       </c>
       <c r="Z54" s="13">
-        <v>5900747</v>
+        <v>6504085</v>
       </c>
       <c r="AA54" s="13">
-        <v>6504085</v>
+        <v>7219003</v>
       </c>
       <c r="AB54" s="13">
-        <v>7219003</v>
+        <v>7311372</v>
       </c>
       <c r="AC54" s="13">
-        <v>7311372</v>
+        <v>6935743</v>
       </c>
       <c r="AD54" s="13">
-        <v>6935743</v>
+        <v>7296125</v>
       </c>
       <c r="AE54" s="13">
-        <v>7296125</v>
+        <v>8748094</v>
       </c>
       <c r="AF54" s="13">
-        <v>8748094</v>
+        <v>6509840</v>
       </c>
       <c r="AG54" s="13">
-        <v>6509840</v>
+        <v>8066608</v>
       </c>
       <c r="AH54" s="13">
-        <v>8066608</v>
+        <v>7626220</v>
       </c>
       <c r="AI54" s="13">
-        <v>7626220</v>
+        <v>7920911</v>
       </c>
       <c r="AJ54" s="13">
-        <v>7920911</v>
+        <v>8360736</v>
       </c>
       <c r="AK54" s="13">
-        <v>8360736</v>
+        <v>10101834</v>
       </c>
       <c r="AL54" s="13">
-        <v>10101834</v>
+        <v>8398934</v>
       </c>
       <c r="AM54" s="13">
-        <v>8398934</v>
+        <v>8499351</v>
       </c>
       <c r="AN54" s="13">
-        <v>8499351</v>
+        <v>9596331</v>
       </c>
       <c r="AO54" s="13">
-        <v>9596331</v>
+        <v>10347719</v>
       </c>
       <c r="AP54" s="13">
-        <v>10347719</v>
+        <v>10772289</v>
       </c>
       <c r="AQ54" s="13">
-        <v>10772289</v>
+        <v>13235697</v>
       </c>
       <c r="AR54" s="13">
-        <v>13235697</v>
+        <v>9796097</v>
       </c>
       <c r="AS54" s="13">
-        <v>9796097</v>
+        <v>14324572</v>
       </c>
       <c r="AT54" s="13">
-        <v>14324572</v>
+        <v>13498000</v>
       </c>
       <c r="AU54" s="13">
-        <v>13498000</v>
+        <v>14494598</v>
       </c>
       <c r="AV54" s="13">
-        <v>14494598</v>
+        <v>14227007</v>
       </c>
       <c r="AW54" s="13">
-        <v>14227007</v>
+        <v>14823623</v>
       </c>
       <c r="AX54" s="13">
-        <v>14823623</v>
+        <v>14758883</v>
       </c>
       <c r="AY54" s="13">
-        <v>14758883</v>
+        <v>13660816</v>
       </c>
       <c r="AZ54" s="13">
-        <v>13660816</v>
+        <v>14326316</v>
       </c>
       <c r="BA54" s="13">
-        <v>14326316</v>
+        <v>16814363</v>
       </c>
       <c r="BB54" s="13">
-        <v>16814363</v>
+        <v>18473690</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -7029,40 +7064,40 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="F55" s="11">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G55" s="11">
-        <v>108</v>
+        <v>1015</v>
       </c>
       <c r="H55" s="11">
-        <v>1015</v>
+        <v>134</v>
       </c>
       <c r="I55" s="11">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="J55" s="11">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K55" s="11">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="L55" s="11">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="M55" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="N55" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="O55" s="11">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="P55" s="11">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="11">
         <v>0</v>
@@ -7125,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="AK55" s="11">
-        <v>0</v>
+        <v>2755119</v>
       </c>
       <c r="AL55" s="11">
-        <v>2755119</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="11">
         <v>0</v>
@@ -7152,31 +7187,31 @@
         <v>0</v>
       </c>
       <c r="AT55" s="11">
-        <v>0</v>
+        <v>103535</v>
       </c>
       <c r="AU55" s="11">
-        <v>103535</v>
+        <v>8731</v>
       </c>
       <c r="AV55" s="11">
-        <v>8731</v>
+        <v>5038</v>
       </c>
       <c r="AW55" s="11">
-        <v>5038</v>
+        <v>279748</v>
       </c>
       <c r="AX55" s="11">
-        <v>279748</v>
+        <v>4506</v>
       </c>
       <c r="AY55" s="11">
-        <v>4506</v>
+        <v>4331</v>
       </c>
       <c r="AZ55" s="11">
-        <v>4331</v>
+        <v>164511</v>
       </c>
       <c r="BA55" s="11">
-        <v>164511</v>
+        <v>4526</v>
       </c>
       <c r="BB55" s="11">
-        <v>4526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
@@ -7188,91 +7223,91 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>6409</v>
+        <v>9902</v>
       </c>
       <c r="F56" s="13">
-        <v>9902</v>
+        <v>15610</v>
       </c>
       <c r="G56" s="13">
-        <v>15610</v>
+        <v>25194</v>
       </c>
       <c r="H56" s="13">
-        <v>25194</v>
+        <v>16389</v>
       </c>
       <c r="I56" s="13">
-        <v>16389</v>
+        <v>25824</v>
       </c>
       <c r="J56" s="13">
-        <v>25824</v>
+        <v>26883</v>
       </c>
       <c r="K56" s="13">
-        <v>26883</v>
+        <v>28982</v>
       </c>
       <c r="L56" s="13">
-        <v>28982</v>
+        <v>34968</v>
       </c>
       <c r="M56" s="13">
-        <v>34968</v>
+        <v>36736</v>
       </c>
       <c r="N56" s="13">
-        <v>36736</v>
+        <v>44702</v>
       </c>
       <c r="O56" s="13">
-        <v>44702</v>
+        <v>51316</v>
       </c>
       <c r="P56" s="13">
-        <v>51316</v>
+        <v>67932</v>
       </c>
       <c r="Q56" s="13">
-        <v>67932</v>
+        <v>50769</v>
       </c>
       <c r="R56" s="13">
-        <v>50769</v>
+        <v>53676</v>
       </c>
       <c r="S56" s="13">
-        <v>53676</v>
+        <v>89320</v>
       </c>
       <c r="T56" s="13">
-        <v>89320</v>
+        <v>50925</v>
       </c>
       <c r="U56" s="13">
-        <v>50925</v>
+        <v>48082</v>
       </c>
       <c r="V56" s="13">
-        <v>48082</v>
+        <v>40152</v>
       </c>
       <c r="W56" s="13">
-        <v>40152</v>
+        <v>44553</v>
       </c>
       <c r="X56" s="13">
-        <v>44553</v>
+        <v>54408</v>
       </c>
       <c r="Y56" s="13">
-        <v>54408</v>
+        <v>49016</v>
       </c>
       <c r="Z56" s="13">
-        <v>49016</v>
+        <v>46330</v>
       </c>
       <c r="AA56" s="13">
-        <v>46330</v>
+        <v>32613</v>
       </c>
       <c r="AB56" s="13">
-        <v>32613</v>
+        <v>33980</v>
       </c>
       <c r="AC56" s="13">
-        <v>33980</v>
+        <v>26077</v>
       </c>
       <c r="AD56" s="13">
-        <v>26077</v>
+        <v>22750</v>
       </c>
       <c r="AE56" s="13">
-        <v>22750</v>
+        <v>15354</v>
       </c>
       <c r="AF56" s="13">
-        <v>15354</v>
+        <v>10058</v>
       </c>
       <c r="AG56" s="13">
-        <v>10058</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="13">
         <v>0</v>
@@ -7347,154 +7382,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>83861</v>
+        <v>80153</v>
       </c>
       <c r="F57" s="11">
-        <v>80153</v>
+        <v>87932</v>
       </c>
       <c r="G57" s="11">
-        <v>87932</v>
+        <v>117811</v>
       </c>
       <c r="H57" s="11">
-        <v>117811</v>
+        <v>77945</v>
       </c>
       <c r="I57" s="11">
-        <v>77945</v>
+        <v>98307</v>
       </c>
       <c r="J57" s="11">
-        <v>98307</v>
+        <v>97409</v>
       </c>
       <c r="K57" s="11">
-        <v>97409</v>
+        <v>92421</v>
       </c>
       <c r="L57" s="11">
-        <v>92421</v>
+        <v>113931</v>
       </c>
       <c r="M57" s="11">
-        <v>113931</v>
+        <v>127450</v>
       </c>
       <c r="N57" s="11">
-        <v>127450</v>
+        <v>146887</v>
       </c>
       <c r="O57" s="11">
-        <v>146887</v>
+        <v>157013</v>
       </c>
       <c r="P57" s="11">
-        <v>157013</v>
+        <v>160726</v>
       </c>
       <c r="Q57" s="11">
-        <v>160726</v>
+        <v>159456</v>
       </c>
       <c r="R57" s="11">
-        <v>159456</v>
+        <v>166041</v>
       </c>
       <c r="S57" s="11">
-        <v>166041</v>
+        <v>300463</v>
       </c>
       <c r="T57" s="11">
-        <v>300463</v>
+        <v>180614</v>
       </c>
       <c r="U57" s="11">
-        <v>180614</v>
+        <v>174124</v>
       </c>
       <c r="V57" s="11">
-        <v>174124</v>
+        <v>190557</v>
       </c>
       <c r="W57" s="11">
-        <v>190557</v>
+        <v>212010</v>
       </c>
       <c r="X57" s="11">
-        <v>212010</v>
+        <v>228097</v>
       </c>
       <c r="Y57" s="11">
-        <v>228097</v>
+        <v>232289</v>
       </c>
       <c r="Z57" s="11">
-        <v>232289</v>
+        <v>244016</v>
       </c>
       <c r="AA57" s="11">
-        <v>244016</v>
+        <v>276674</v>
       </c>
       <c r="AB57" s="11">
-        <v>276674</v>
+        <v>288483</v>
       </c>
       <c r="AC57" s="11">
-        <v>288483</v>
+        <v>274387</v>
       </c>
       <c r="AD57" s="11">
-        <v>274387</v>
+        <v>273734</v>
       </c>
       <c r="AE57" s="11">
-        <v>273734</v>
+        <v>359663</v>
       </c>
       <c r="AF57" s="11">
-        <v>359663</v>
+        <v>297043</v>
       </c>
       <c r="AG57" s="11">
-        <v>297043</v>
+        <v>308827</v>
       </c>
       <c r="AH57" s="11">
-        <v>308827</v>
+        <v>335207</v>
       </c>
       <c r="AI57" s="11">
-        <v>335207</v>
+        <v>369689</v>
       </c>
       <c r="AJ57" s="11">
-        <v>369689</v>
+        <v>365617</v>
       </c>
       <c r="AK57" s="11">
-        <v>365617</v>
+        <v>422248</v>
       </c>
       <c r="AL57" s="11">
-        <v>422248</v>
+        <v>399701</v>
       </c>
       <c r="AM57" s="11">
-        <v>399701</v>
+        <v>378506</v>
       </c>
       <c r="AN57" s="11">
-        <v>378506</v>
+        <v>386569</v>
       </c>
       <c r="AO57" s="11">
-        <v>386569</v>
+        <v>377865</v>
       </c>
       <c r="AP57" s="11">
-        <v>377865</v>
+        <v>380540</v>
       </c>
       <c r="AQ57" s="11">
-        <v>380540</v>
+        <v>446524</v>
       </c>
       <c r="AR57" s="11">
-        <v>446524</v>
+        <v>352952</v>
       </c>
       <c r="AS57" s="11">
-        <v>352952</v>
+        <v>433235</v>
       </c>
       <c r="AT57" s="11">
-        <v>433235</v>
+        <v>372635</v>
       </c>
       <c r="AU57" s="11">
-        <v>372635</v>
+        <v>408102</v>
       </c>
       <c r="AV57" s="11">
-        <v>408102</v>
+        <v>423248</v>
       </c>
       <c r="AW57" s="11">
-        <v>423248</v>
+        <v>443416</v>
       </c>
       <c r="AX57" s="11">
-        <v>443416</v>
+        <v>434388</v>
       </c>
       <c r="AY57" s="11">
-        <v>434388</v>
+        <v>410089</v>
       </c>
       <c r="AZ57" s="11">
-        <v>410089</v>
+        <v>423647</v>
       </c>
       <c r="BA57" s="11">
-        <v>423647</v>
+        <v>473244</v>
       </c>
       <c r="BB57" s="11">
-        <v>473244</v>
+        <v>636315</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -7506,154 +7541,154 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>1405445</v>
+        <v>1379363</v>
       </c>
       <c r="F58" s="13">
-        <v>1379363</v>
+        <v>1481960</v>
       </c>
       <c r="G58" s="13">
-        <v>1481960</v>
+        <v>1554888</v>
       </c>
       <c r="H58" s="13">
-        <v>1554888</v>
+        <v>1134505</v>
       </c>
       <c r="I58" s="13">
-        <v>1134505</v>
+        <v>1418933</v>
       </c>
       <c r="J58" s="13">
-        <v>1418933</v>
+        <v>1469102</v>
       </c>
       <c r="K58" s="13">
-        <v>1469102</v>
+        <v>1664369</v>
       </c>
       <c r="L58" s="13">
-        <v>1664369</v>
+        <v>2325393</v>
       </c>
       <c r="M58" s="13">
-        <v>2325393</v>
+        <v>2557551</v>
       </c>
       <c r="N58" s="13">
-        <v>2557551</v>
+        <v>2344533</v>
       </c>
       <c r="O58" s="13">
-        <v>2344533</v>
+        <v>2412956</v>
       </c>
       <c r="P58" s="13">
-        <v>2412956</v>
+        <v>2538473</v>
       </c>
       <c r="Q58" s="13">
-        <v>2538473</v>
+        <v>2427403</v>
       </c>
       <c r="R58" s="13">
-        <v>2427403</v>
+        <v>2459131</v>
       </c>
       <c r="S58" s="13">
-        <v>2459131</v>
+        <v>3488774</v>
       </c>
       <c r="T58" s="13">
-        <v>3488774</v>
+        <v>2636713</v>
       </c>
       <c r="U58" s="13">
-        <v>2636713</v>
+        <v>2658893</v>
       </c>
       <c r="V58" s="13">
-        <v>2658893</v>
+        <v>2703852</v>
       </c>
       <c r="W58" s="13">
-        <v>2703852</v>
+        <v>2972383</v>
       </c>
       <c r="X58" s="13">
-        <v>2972383</v>
+        <v>3257940</v>
       </c>
       <c r="Y58" s="13">
-        <v>3257940</v>
+        <v>3206542</v>
       </c>
       <c r="Z58" s="13">
-        <v>3206542</v>
+        <v>3351039</v>
       </c>
       <c r="AA58" s="13">
-        <v>3351039</v>
+        <v>3612938</v>
       </c>
       <c r="AB58" s="13">
-        <v>3612938</v>
+        <v>3941276</v>
       </c>
       <c r="AC58" s="13">
-        <v>3941276</v>
+        <v>3637068</v>
       </c>
       <c r="AD58" s="13">
-        <v>3637068</v>
+        <v>3530372</v>
       </c>
       <c r="AE58" s="13">
-        <v>3530372</v>
+        <v>4060749</v>
       </c>
       <c r="AF58" s="13">
-        <v>4060749</v>
+        <v>3332831</v>
       </c>
       <c r="AG58" s="13">
-        <v>3332831</v>
+        <v>3940472</v>
       </c>
       <c r="AH58" s="13">
-        <v>3940472</v>
+        <v>4271109</v>
       </c>
       <c r="AI58" s="13">
-        <v>4271109</v>
+        <v>4518665</v>
       </c>
       <c r="AJ58" s="13">
-        <v>4518665</v>
+        <v>4474989</v>
       </c>
       <c r="AK58" s="13">
-        <v>4474989</v>
+        <v>5096411</v>
       </c>
       <c r="AL58" s="13">
-        <v>5096411</v>
+        <v>4951513</v>
       </c>
       <c r="AM58" s="13">
-        <v>4951513</v>
+        <v>4951413</v>
       </c>
       <c r="AN58" s="13">
-        <v>4951413</v>
+        <v>4968123</v>
       </c>
       <c r="AO58" s="13">
-        <v>4968123</v>
+        <v>4819676</v>
       </c>
       <c r="AP58" s="13">
-        <v>4819676</v>
+        <v>4964394</v>
       </c>
       <c r="AQ58" s="13">
-        <v>4964394</v>
+        <v>5484395</v>
       </c>
       <c r="AR58" s="13">
-        <v>5484395</v>
+        <v>4787700</v>
       </c>
       <c r="AS58" s="13">
-        <v>4787700</v>
+        <v>6629414</v>
       </c>
       <c r="AT58" s="13">
-        <v>6629414</v>
+        <v>6264816</v>
       </c>
       <c r="AU58" s="13">
-        <v>6264816</v>
+        <v>6871349</v>
       </c>
       <c r="AV58" s="13">
-        <v>6871349</v>
+        <v>6677201</v>
       </c>
       <c r="AW58" s="13">
-        <v>6677201</v>
+        <v>7461348</v>
       </c>
       <c r="AX58" s="13">
-        <v>7461348</v>
+        <v>7721704</v>
       </c>
       <c r="AY58" s="13">
-        <v>7721704</v>
+        <v>6895939</v>
       </c>
       <c r="AZ58" s="13">
-        <v>6895939</v>
+        <v>6708641</v>
       </c>
       <c r="BA58" s="13">
-        <v>6708641</v>
+        <v>7401744</v>
       </c>
       <c r="BB58" s="13">
-        <v>7401744</v>
+        <v>8967356</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
@@ -7665,154 +7700,154 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>1268</v>
+        <v>1193</v>
       </c>
       <c r="F59" s="11">
+        <v>1204</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1997</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1557</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1681</v>
+      </c>
+      <c r="J59" s="11">
+        <v>1546</v>
+      </c>
+      <c r="K59" s="11">
+        <v>1173</v>
+      </c>
+      <c r="L59" s="11">
+        <v>867</v>
+      </c>
+      <c r="M59" s="11">
+        <v>830</v>
+      </c>
+      <c r="N59" s="11">
+        <v>671</v>
+      </c>
+      <c r="O59" s="11">
+        <v>603</v>
+      </c>
+      <c r="P59" s="11">
+        <v>708</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>718</v>
+      </c>
+      <c r="R59" s="11">
+        <v>789</v>
+      </c>
+      <c r="S59" s="11">
+        <v>798</v>
+      </c>
+      <c r="T59" s="11">
+        <v>553</v>
+      </c>
+      <c r="U59" s="11">
+        <v>770</v>
+      </c>
+      <c r="V59" s="11">
         <v>1193</v>
       </c>
-      <c r="G59" s="11">
-        <v>1204</v>
-      </c>
-      <c r="H59" s="11">
-        <v>1997</v>
-      </c>
-      <c r="I59" s="11">
-        <v>1557</v>
-      </c>
-      <c r="J59" s="11">
-        <v>1681</v>
-      </c>
-      <c r="K59" s="11">
-        <v>1546</v>
-      </c>
-      <c r="L59" s="11">
-        <v>1173</v>
-      </c>
-      <c r="M59" s="11">
-        <v>867</v>
-      </c>
-      <c r="N59" s="11">
-        <v>830</v>
-      </c>
-      <c r="O59" s="11">
-        <v>671</v>
-      </c>
-      <c r="P59" s="11">
-        <v>603</v>
-      </c>
-      <c r="Q59" s="11">
-        <v>708</v>
-      </c>
-      <c r="R59" s="11">
-        <v>718</v>
-      </c>
-      <c r="S59" s="11">
-        <v>789</v>
-      </c>
-      <c r="T59" s="11">
-        <v>798</v>
-      </c>
-      <c r="U59" s="11">
-        <v>553</v>
-      </c>
-      <c r="V59" s="11">
-        <v>770</v>
-      </c>
       <c r="W59" s="11">
-        <v>1193</v>
+        <v>982</v>
       </c>
       <c r="X59" s="11">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="Y59" s="11">
-        <v>954</v>
+        <v>832</v>
       </c>
       <c r="Z59" s="11">
-        <v>832</v>
+        <v>629</v>
       </c>
       <c r="AA59" s="11">
-        <v>629</v>
+        <v>451</v>
       </c>
       <c r="AB59" s="11">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="AC59" s="11">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="AD59" s="11">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AE59" s="11">
-        <v>362</v>
+        <v>479</v>
       </c>
       <c r="AF59" s="11">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AG59" s="11">
-        <v>490</v>
+        <v>12179</v>
       </c>
       <c r="AH59" s="11">
-        <v>12179</v>
+        <v>12743</v>
       </c>
       <c r="AI59" s="11">
-        <v>12743</v>
+        <v>7060</v>
       </c>
       <c r="AJ59" s="11">
-        <v>7060</v>
+        <v>2935</v>
       </c>
       <c r="AK59" s="11">
-        <v>2935</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="11">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AM59" s="11">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="AN59" s="11">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="AO59" s="11">
-        <v>995</v>
+        <v>53</v>
       </c>
       <c r="AP59" s="11">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="AQ59" s="11">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AS59" s="11">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="AT59" s="11">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AU59" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="11">
         <v>0</v>
       </c>
       <c r="AW59" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AX59" s="11">
         <v>9</v>
       </c>
       <c r="AY59" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="11">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="BA59" s="11">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -7943,35 +7978,35 @@
       <c r="AR60" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AS60" s="13" t="s">
-        <v>66</v>
+      <c r="AS60" s="13">
+        <v>20447</v>
       </c>
       <c r="AT60" s="13">
-        <v>20447</v>
+        <v>40470</v>
       </c>
       <c r="AU60" s="13">
-        <v>40470</v>
+        <v>53595</v>
       </c>
       <c r="AV60" s="13">
-        <v>53595</v>
+        <v>84891</v>
       </c>
       <c r="AW60" s="13">
-        <v>84891</v>
+        <v>142170</v>
       </c>
       <c r="AX60" s="13">
-        <v>142170</v>
+        <v>99683</v>
       </c>
       <c r="AY60" s="13">
-        <v>99683</v>
+        <v>84776</v>
       </c>
       <c r="AZ60" s="13">
-        <v>84776</v>
+        <v>94643</v>
       </c>
       <c r="BA60" s="13">
-        <v>94643</v>
+        <v>115263</v>
       </c>
       <c r="BB60" s="13">
-        <v>115263</v>
+        <v>117047</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
@@ -8093,8 +8128,8 @@
       <c r="V62" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W62" s="17" t="s">
-        <v>66</v>
+      <c r="W62" s="17">
+        <v>0</v>
       </c>
       <c r="X62" s="17">
         <v>0</v>
@@ -8309,8 +8344,8 @@
       <c r="V64" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="W64" s="17" t="s">
-        <v>66</v>
+      <c r="W64" s="17">
+        <v>0</v>
       </c>
       <c r="X64" s="17">
         <v>0</v>
@@ -8525,8 +8560,8 @@
       <c r="V66" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>66</v>
+      <c r="W66" s="11">
+        <v>0</v>
       </c>
       <c r="X66" s="11">
         <v>0</v>
@@ -8629,154 +8664,154 @@
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19">
-        <v>4725013</v>
+        <v>4644446</v>
       </c>
       <c r="F67" s="19">
-        <v>4644446</v>
+        <v>5379588</v>
       </c>
       <c r="G67" s="19">
-        <v>5379588</v>
+        <v>6887923</v>
       </c>
       <c r="H67" s="19">
-        <v>6887923</v>
+        <v>4375787</v>
       </c>
       <c r="I67" s="19">
-        <v>4375787</v>
+        <v>5979196</v>
       </c>
       <c r="J67" s="19">
-        <v>5979196</v>
+        <v>5796346</v>
       </c>
       <c r="K67" s="19">
-        <v>5796346</v>
+        <v>5867038</v>
       </c>
       <c r="L67" s="19">
-        <v>5867038</v>
+        <v>7313971</v>
       </c>
       <c r="M67" s="19">
-        <v>7313971</v>
+        <v>7943522</v>
       </c>
       <c r="N67" s="19">
-        <v>7943522</v>
+        <v>7514790</v>
       </c>
       <c r="O67" s="19">
-        <v>7514790</v>
+        <v>7936771</v>
       </c>
       <c r="P67" s="19">
-        <v>7936771</v>
+        <v>8437967</v>
       </c>
       <c r="Q67" s="19">
-        <v>8437967</v>
+        <v>8006942</v>
       </c>
       <c r="R67" s="19">
-        <v>8006942</v>
+        <v>8408136</v>
       </c>
       <c r="S67" s="19">
-        <v>8408136</v>
+        <v>13575933</v>
       </c>
       <c r="T67" s="19">
-        <v>13575933</v>
+        <v>8347085</v>
       </c>
       <c r="U67" s="19">
-        <v>8347085</v>
+        <v>9167555</v>
       </c>
       <c r="V67" s="19">
-        <v>9167555</v>
+        <v>9380610</v>
       </c>
       <c r="W67" s="19">
-        <v>9380610</v>
+        <v>10976906</v>
       </c>
       <c r="X67" s="19">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="Y67" s="19">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="Z67" s="19">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="AA67" s="19">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="AB67" s="19">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AC67" s="19">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AD67" s="19">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AE67" s="19">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AF67" s="19">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AG67" s="19">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AH67" s="19">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AI67" s="19">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AJ67" s="19">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AK67" s="19">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AL67" s="19">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AM67" s="19">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AN67" s="19">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AO67" s="19">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AP67" s="19">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AQ67" s="19">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AR67" s="19">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AS67" s="19">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AT67" s="19">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AU67" s="19">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AV67" s="19">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AW67" s="19">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AX67" s="19">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AY67" s="19">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AZ67" s="19">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="BA67" s="19">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="BB67" s="19">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -9222,154 +9257,154 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>85141</v>
+        <v>80246</v>
       </c>
       <c r="F74" s="11">
-        <v>80246</v>
+        <v>81742</v>
       </c>
       <c r="G74" s="11">
-        <v>81742</v>
+        <v>81187</v>
       </c>
       <c r="H74" s="11">
-        <v>81187</v>
+        <v>87868</v>
       </c>
       <c r="I74" s="11">
-        <v>87868</v>
+        <v>90569</v>
       </c>
       <c r="J74" s="11">
-        <v>90569</v>
+        <v>94510</v>
       </c>
       <c r="K74" s="11">
-        <v>94510</v>
+        <v>105982</v>
       </c>
       <c r="L74" s="11">
-        <v>105982</v>
+        <v>110713</v>
       </c>
       <c r="M74" s="11">
-        <v>110713</v>
+        <v>109860</v>
       </c>
       <c r="N74" s="11">
-        <v>109860</v>
+        <v>109370</v>
       </c>
       <c r="O74" s="11">
-        <v>109370</v>
+        <v>112337</v>
       </c>
       <c r="P74" s="11">
-        <v>112337</v>
+        <v>115269</v>
       </c>
       <c r="Q74" s="11">
-        <v>115269</v>
+        <v>114854</v>
       </c>
       <c r="R74" s="11">
-        <v>114854</v>
+        <v>123079</v>
       </c>
       <c r="S74" s="11">
-        <v>123079</v>
+        <v>126710</v>
       </c>
       <c r="T74" s="11">
-        <v>126710</v>
+        <v>127000</v>
       </c>
       <c r="U74" s="11">
-        <v>127000</v>
+        <v>123249</v>
       </c>
       <c r="V74" s="11">
-        <v>123249</v>
+        <v>122432</v>
       </c>
       <c r="W74" s="11">
-        <v>122432</v>
+        <v>130097</v>
       </c>
       <c r="X74" s="11">
-        <v>130097</v>
+        <v>141857</v>
       </c>
       <c r="Y74" s="11">
-        <v>141857</v>
+        <v>143573</v>
       </c>
       <c r="Z74" s="11">
-        <v>143573</v>
+        <v>152534</v>
       </c>
       <c r="AA74" s="11">
-        <v>152534</v>
+        <v>168952</v>
       </c>
       <c r="AB74" s="11">
-        <v>168952</v>
+        <v>175039</v>
       </c>
       <c r="AC74" s="11">
-        <v>175039</v>
+        <v>175670</v>
       </c>
       <c r="AD74" s="11">
-        <v>175670</v>
+        <v>173954</v>
       </c>
       <c r="AE74" s="11">
-        <v>173954</v>
+        <v>180002</v>
       </c>
       <c r="AF74" s="11">
-        <v>180002</v>
+        <v>173868</v>
       </c>
       <c r="AG74" s="11">
-        <v>173868</v>
+        <v>165941</v>
       </c>
       <c r="AH74" s="11">
-        <v>165941</v>
+        <v>60348</v>
       </c>
       <c r="AI74" s="11">
-        <v>60348</v>
+        <v>433519</v>
       </c>
       <c r="AJ74" s="11">
-        <v>433519</v>
+        <v>428054</v>
       </c>
       <c r="AK74" s="11">
-        <v>428054</v>
+        <v>562978</v>
       </c>
       <c r="AL74" s="11">
-        <v>562978</v>
+        <v>202872</v>
       </c>
       <c r="AM74" s="11">
-        <v>202872</v>
+        <v>199863</v>
       </c>
       <c r="AN74" s="11">
-        <v>199863</v>
+        <v>208980</v>
       </c>
       <c r="AO74" s="11">
-        <v>208980</v>
+        <v>215569</v>
       </c>
       <c r="AP74" s="11">
-        <v>215569</v>
+        <v>214703</v>
       </c>
       <c r="AQ74" s="11">
-        <v>214703</v>
+        <v>256056</v>
       </c>
       <c r="AR74" s="11">
-        <v>256056</v>
+        <v>217481</v>
       </c>
       <c r="AS74" s="11">
-        <v>217481</v>
+        <v>235183</v>
       </c>
       <c r="AT74" s="11">
-        <v>235183</v>
+        <v>256012</v>
       </c>
       <c r="AU74" s="11">
-        <v>256012</v>
+        <v>290259</v>
       </c>
       <c r="AV74" s="11">
-        <v>290259</v>
+        <v>269386</v>
       </c>
       <c r="AW74" s="11">
-        <v>269386</v>
+        <v>265828</v>
       </c>
       <c r="AX74" s="11">
-        <v>265828</v>
+        <v>259327</v>
       </c>
       <c r="AY74" s="11">
-        <v>259327</v>
+        <v>278561</v>
       </c>
       <c r="AZ74" s="11">
-        <v>278561</v>
+        <v>289765</v>
       </c>
       <c r="BA74" s="11">
-        <v>289765</v>
+        <v>334817</v>
       </c>
       <c r="BB74" s="11">
-        <v>334817</v>
+        <v>324811</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
@@ -9381,154 +9416,154 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>30852</v>
+        <v>31095</v>
       </c>
       <c r="F75" s="13">
-        <v>31095</v>
+        <v>31176</v>
       </c>
       <c r="G75" s="13">
-        <v>31176</v>
+        <v>31420</v>
       </c>
       <c r="H75" s="13">
-        <v>31420</v>
+        <v>33702</v>
       </c>
       <c r="I75" s="13">
-        <v>33702</v>
+        <v>37580</v>
       </c>
       <c r="J75" s="13">
-        <v>37580</v>
+        <v>40880</v>
       </c>
       <c r="K75" s="13">
-        <v>40880</v>
+        <v>42414</v>
       </c>
       <c r="L75" s="13">
-        <v>42414</v>
+        <v>39246</v>
       </c>
       <c r="M75" s="13">
-        <v>39246</v>
+        <v>36705</v>
       </c>
       <c r="N75" s="13">
-        <v>36705</v>
+        <v>36617</v>
       </c>
       <c r="O75" s="13">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="P75" s="13">
-        <v>36678</v>
+        <v>36458</v>
       </c>
       <c r="Q75" s="13">
-        <v>36458</v>
+        <v>37389</v>
       </c>
       <c r="R75" s="13">
-        <v>37389</v>
+        <v>39184</v>
       </c>
       <c r="S75" s="13">
-        <v>39184</v>
+        <v>42000</v>
       </c>
       <c r="T75" s="13">
-        <v>42000</v>
+        <v>43855</v>
       </c>
       <c r="U75" s="13">
-        <v>43855</v>
+        <v>43769</v>
       </c>
       <c r="V75" s="13">
-        <v>43769</v>
+        <v>44804</v>
       </c>
       <c r="W75" s="13">
-        <v>44804</v>
+        <v>47414</v>
       </c>
       <c r="X75" s="13">
-        <v>47414</v>
+        <v>49196</v>
       </c>
       <c r="Y75" s="13">
-        <v>49196</v>
+        <v>51206</v>
       </c>
       <c r="Z75" s="13">
-        <v>51206</v>
+        <v>55439</v>
       </c>
       <c r="AA75" s="13">
-        <v>55439</v>
+        <v>59970</v>
       </c>
       <c r="AB75" s="13">
-        <v>59970</v>
+        <v>64108</v>
       </c>
       <c r="AC75" s="13">
-        <v>64108</v>
+        <v>64993</v>
       </c>
       <c r="AD75" s="13">
-        <v>64993</v>
+        <v>66181</v>
       </c>
       <c r="AE75" s="13">
-        <v>66181</v>
+        <v>66302</v>
       </c>
       <c r="AF75" s="13">
-        <v>66302</v>
+        <v>72411</v>
       </c>
       <c r="AG75" s="13">
-        <v>72411</v>
+        <v>79044</v>
       </c>
       <c r="AH75" s="13">
-        <v>79044</v>
+        <v>85176</v>
       </c>
       <c r="AI75" s="13">
-        <v>85176</v>
+        <v>85962</v>
       </c>
       <c r="AJ75" s="13">
-        <v>85962</v>
+        <v>93402</v>
       </c>
       <c r="AK75" s="13">
-        <v>93402</v>
+        <v>94725</v>
       </c>
       <c r="AL75" s="13">
-        <v>94725</v>
+        <v>91799</v>
       </c>
       <c r="AM75" s="13">
-        <v>91799</v>
+        <v>91666</v>
       </c>
       <c r="AN75" s="13">
-        <v>91666</v>
+        <v>89782</v>
       </c>
       <c r="AO75" s="13">
-        <v>89782</v>
+        <v>96237</v>
       </c>
       <c r="AP75" s="13">
-        <v>96237</v>
+        <v>95965</v>
       </c>
       <c r="AQ75" s="13">
-        <v>95965</v>
+        <v>95152</v>
       </c>
       <c r="AR75" s="13">
-        <v>95152</v>
+        <v>91713</v>
       </c>
       <c r="AS75" s="13">
-        <v>91713</v>
+        <v>97695</v>
       </c>
       <c r="AT75" s="13">
-        <v>97695</v>
+        <v>109651</v>
       </c>
       <c r="AU75" s="13">
-        <v>109651</v>
+        <v>116773</v>
       </c>
       <c r="AV75" s="13">
-        <v>116773</v>
+        <v>118431</v>
       </c>
       <c r="AW75" s="13">
-        <v>118431</v>
+        <v>112885</v>
       </c>
       <c r="AX75" s="13">
-        <v>112885</v>
+        <v>113834</v>
       </c>
       <c r="AY75" s="13">
-        <v>113834</v>
+        <v>115941</v>
       </c>
       <c r="AZ75" s="13">
-        <v>115941</v>
+        <v>117967</v>
       </c>
       <c r="BA75" s="13">
-        <v>117967</v>
+        <v>117879</v>
       </c>
       <c r="BB75" s="13">
-        <v>117879</v>
+        <v>122457</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
@@ -9540,154 +9575,154 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>101394</v>
+        <v>102338</v>
       </c>
       <c r="F76" s="11">
-        <v>102338</v>
+        <v>95126</v>
       </c>
       <c r="G76" s="11">
-        <v>95126</v>
+        <v>91737</v>
       </c>
       <c r="H76" s="11">
-        <v>91737</v>
+        <v>105968</v>
       </c>
       <c r="I76" s="11">
-        <v>105968</v>
+        <v>104645</v>
       </c>
       <c r="J76" s="11">
-        <v>104645</v>
+        <v>106103</v>
       </c>
       <c r="K76" s="11">
-        <v>106103</v>
+        <v>109200</v>
       </c>
       <c r="L76" s="11">
-        <v>109200</v>
+        <v>109321</v>
       </c>
       <c r="M76" s="11">
-        <v>109321</v>
+        <v>108117</v>
       </c>
       <c r="N76" s="11">
-        <v>108117</v>
+        <v>109434</v>
       </c>
       <c r="O76" s="11">
-        <v>109434</v>
+        <v>107050</v>
       </c>
       <c r="P76" s="11">
-        <v>107050</v>
+        <v>107854</v>
       </c>
       <c r="Q76" s="11">
-        <v>107854</v>
+        <v>110846</v>
       </c>
       <c r="R76" s="11">
-        <v>110846</v>
+        <v>114034</v>
       </c>
       <c r="S76" s="11">
-        <v>114034</v>
+        <v>114520</v>
       </c>
       <c r="T76" s="11">
-        <v>114520</v>
+        <v>122053</v>
       </c>
       <c r="U76" s="11">
-        <v>122053</v>
+        <v>125022</v>
       </c>
       <c r="V76" s="11">
-        <v>125022</v>
+        <v>124454</v>
       </c>
       <c r="W76" s="11">
-        <v>124454</v>
+        <v>125057</v>
       </c>
       <c r="X76" s="11">
-        <v>125057</v>
+        <v>130093</v>
       </c>
       <c r="Y76" s="11">
-        <v>130093</v>
+        <v>136975</v>
       </c>
       <c r="Z76" s="11">
-        <v>136975</v>
+        <v>143132</v>
       </c>
       <c r="AA76" s="11">
-        <v>143132</v>
+        <v>149369</v>
       </c>
       <c r="AB76" s="11">
-        <v>149369</v>
+        <v>165526</v>
       </c>
       <c r="AC76" s="11">
-        <v>165526</v>
+        <v>176969</v>
       </c>
       <c r="AD76" s="11">
-        <v>176969</v>
+        <v>183006</v>
       </c>
       <c r="AE76" s="11">
-        <v>183006</v>
+        <v>184727</v>
       </c>
       <c r="AF76" s="11">
-        <v>184727</v>
+        <v>196273</v>
       </c>
       <c r="AG76" s="11">
-        <v>196273</v>
+        <v>200325</v>
       </c>
       <c r="AH76" s="11">
-        <v>200325</v>
+        <v>197925</v>
       </c>
       <c r="AI76" s="11">
-        <v>197925</v>
+        <v>195271</v>
       </c>
       <c r="AJ76" s="11">
-        <v>195271</v>
+        <v>206909</v>
       </c>
       <c r="AK76" s="11">
-        <v>206909</v>
+        <v>216169</v>
       </c>
       <c r="AL76" s="11">
-        <v>216169</v>
+        <v>230172</v>
       </c>
       <c r="AM76" s="11">
-        <v>230172</v>
+        <v>236319</v>
       </c>
       <c r="AN76" s="11">
-        <v>236319</v>
+        <v>239305</v>
       </c>
       <c r="AO76" s="11">
-        <v>239305</v>
+        <v>238331</v>
       </c>
       <c r="AP76" s="11">
-        <v>238331</v>
+        <v>237531</v>
       </c>
       <c r="AQ76" s="11">
-        <v>237531</v>
+        <v>233317</v>
       </c>
       <c r="AR76" s="11">
-        <v>233317</v>
+        <v>250586</v>
       </c>
       <c r="AS76" s="11">
-        <v>250586</v>
+        <v>251503</v>
       </c>
       <c r="AT76" s="11">
-        <v>251503</v>
+        <v>260421</v>
       </c>
       <c r="AU76" s="11">
-        <v>260421</v>
+        <v>274286</v>
       </c>
       <c r="AV76" s="11">
-        <v>274286</v>
+        <v>287416</v>
       </c>
       <c r="AW76" s="11">
-        <v>287416</v>
+        <v>295771</v>
       </c>
       <c r="AX76" s="11">
-        <v>295771</v>
+        <v>309148</v>
       </c>
       <c r="AY76" s="11">
-        <v>309148</v>
+        <v>312830</v>
       </c>
       <c r="AZ76" s="11">
-        <v>312830</v>
+        <v>317043</v>
       </c>
       <c r="BA76" s="11">
-        <v>317043</v>
+        <v>322393</v>
       </c>
       <c r="BB76" s="11">
-        <v>322393</v>
+        <v>322821</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
@@ -9699,154 +9734,154 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>56104</v>
+        <v>56519</v>
       </c>
       <c r="F77" s="13">
-        <v>56519</v>
+        <v>60655</v>
       </c>
       <c r="G77" s="13">
-        <v>60655</v>
+        <v>67117</v>
       </c>
       <c r="H77" s="13">
-        <v>67117</v>
+        <v>60736</v>
       </c>
       <c r="I77" s="13">
-        <v>60736</v>
+        <v>64730</v>
       </c>
       <c r="J77" s="13">
-        <v>64730</v>
+        <v>66215</v>
       </c>
       <c r="K77" s="13">
-        <v>66215</v>
+        <v>74224</v>
       </c>
       <c r="L77" s="13">
-        <v>74224</v>
+        <v>76126</v>
       </c>
       <c r="M77" s="13">
-        <v>76126</v>
+        <v>75750</v>
       </c>
       <c r="N77" s="13">
-        <v>75750</v>
+        <v>66062</v>
       </c>
       <c r="O77" s="13">
-        <v>66062</v>
+        <v>71059</v>
       </c>
       <c r="P77" s="13">
-        <v>71059</v>
+        <v>71822</v>
       </c>
       <c r="Q77" s="13">
-        <v>71822</v>
+        <v>71947</v>
       </c>
       <c r="R77" s="13">
-        <v>71947</v>
+        <v>77382</v>
       </c>
       <c r="S77" s="13">
-        <v>77382</v>
+        <v>86630</v>
       </c>
       <c r="T77" s="13">
-        <v>86630</v>
+        <v>75598</v>
       </c>
       <c r="U77" s="13">
-        <v>75598</v>
+        <v>83291</v>
       </c>
       <c r="V77" s="13">
-        <v>83291</v>
+        <v>84904</v>
       </c>
       <c r="W77" s="13">
-        <v>84904</v>
+        <v>86691</v>
       </c>
       <c r="X77" s="13">
-        <v>86691</v>
+        <v>88284</v>
       </c>
       <c r="Y77" s="13">
-        <v>88284</v>
+        <v>101491</v>
       </c>
       <c r="Z77" s="13">
-        <v>101491</v>
+        <v>112579</v>
       </c>
       <c r="AA77" s="13">
-        <v>112579</v>
+        <v>111895</v>
       </c>
       <c r="AB77" s="13">
-        <v>111895</v>
+        <v>111259</v>
       </c>
       <c r="AC77" s="13">
-        <v>111259</v>
+        <v>110571</v>
       </c>
       <c r="AD77" s="13">
-        <v>110571</v>
+        <v>120379</v>
       </c>
       <c r="AE77" s="13">
-        <v>120379</v>
+        <v>129295</v>
       </c>
       <c r="AF77" s="13">
-        <v>129295</v>
+        <v>121775</v>
       </c>
       <c r="AG77" s="13">
-        <v>121775</v>
+        <v>120735</v>
       </c>
       <c r="AH77" s="13">
-        <v>120735</v>
+        <v>127925</v>
       </c>
       <c r="AI77" s="13">
-        <v>127925</v>
+        <v>136023</v>
       </c>
       <c r="AJ77" s="13">
-        <v>136023</v>
+        <v>146817</v>
       </c>
       <c r="AK77" s="13">
-        <v>146817</v>
+        <v>141082</v>
       </c>
       <c r="AL77" s="13">
-        <v>141082</v>
+        <v>145740</v>
       </c>
       <c r="AM77" s="13">
-        <v>145740</v>
+        <v>148107</v>
       </c>
       <c r="AN77" s="13">
-        <v>148107</v>
+        <v>143849</v>
       </c>
       <c r="AO77" s="13">
-        <v>143849</v>
+        <v>155491</v>
       </c>
       <c r="AP77" s="13">
-        <v>155491</v>
+        <v>169540</v>
       </c>
       <c r="AQ77" s="13">
-        <v>169540</v>
+        <v>199392</v>
       </c>
       <c r="AR77" s="13">
-        <v>199392</v>
+        <v>184936</v>
       </c>
       <c r="AS77" s="13">
-        <v>184936</v>
+        <v>211778</v>
       </c>
       <c r="AT77" s="13">
-        <v>211778</v>
+        <v>276571</v>
       </c>
       <c r="AU77" s="13">
-        <v>276571</v>
+        <v>305582</v>
       </c>
       <c r="AV77" s="13">
-        <v>305582</v>
+        <v>313686</v>
       </c>
       <c r="AW77" s="13">
-        <v>313686</v>
+        <v>305785</v>
       </c>
       <c r="AX77" s="13">
-        <v>305785</v>
+        <v>294178</v>
       </c>
       <c r="AY77" s="13">
-        <v>294178</v>
+        <v>298906</v>
       </c>
       <c r="AZ77" s="13">
-        <v>298906</v>
+        <v>302140</v>
       </c>
       <c r="BA77" s="13">
-        <v>302140</v>
+        <v>328311</v>
       </c>
       <c r="BB77" s="13">
-        <v>328311</v>
+        <v>310876</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
@@ -9858,40 +9893,40 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>187500</v>
+        <v>189979</v>
       </c>
       <c r="F78" s="11">
-        <v>189979</v>
+        <v>189807</v>
       </c>
       <c r="G78" s="11">
-        <v>189807</v>
+        <v>192126</v>
       </c>
       <c r="H78" s="11">
-        <v>192126</v>
+        <v>86452</v>
       </c>
       <c r="I78" s="11">
-        <v>86452</v>
+        <v>87184</v>
       </c>
       <c r="J78" s="11">
-        <v>87184</v>
+        <v>89860</v>
       </c>
       <c r="K78" s="11">
-        <v>89860</v>
+        <v>100000</v>
       </c>
       <c r="L78" s="11">
-        <v>100000</v>
+        <v>90682</v>
       </c>
       <c r="M78" s="11">
-        <v>90682</v>
+        <v>90361</v>
       </c>
       <c r="N78" s="11">
-        <v>90361</v>
+        <v>91451</v>
       </c>
       <c r="O78" s="11">
-        <v>91451</v>
+        <v>91373</v>
       </c>
       <c r="P78" s="11">
-        <v>91373</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="11">
         <v>0</v>
@@ -9902,8 +9937,8 @@
       <c r="S78" s="11">
         <v>0</v>
       </c>
-      <c r="T78" s="11">
-        <v>0</v>
+      <c r="T78" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="U78" s="11" t="s">
         <v>66</v>
@@ -9953,12 +9988,12 @@
       <c r="AJ78" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AK78" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL78" s="11">
+      <c r="AK78" s="11">
         <v>1663719203</v>
       </c>
+      <c r="AL78" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AM78" s="11" t="s">
         <v>66</v>
       </c>
@@ -9983,29 +10018,29 @@
       <c r="AT78" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AU78" s="11" t="s">
-        <v>66</v>
+      <c r="AU78" s="11">
+        <v>6544978</v>
       </c>
       <c r="AV78" s="11">
-        <v>6544978</v>
+        <v>4522442</v>
       </c>
       <c r="AW78" s="11">
-        <v>4522442</v>
+        <v>39279416</v>
       </c>
       <c r="AX78" s="11">
-        <v>39279416</v>
+        <v>3576190</v>
       </c>
       <c r="AY78" s="11">
-        <v>3576190</v>
-      </c>
-      <c r="AZ78" s="11">
         <v>28493421</v>
       </c>
-      <c r="BA78" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB78" s="11">
+      <c r="AZ78" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA78" s="11">
         <v>14694805</v>
+      </c>
+      <c r="BB78" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -10017,91 +10052,91 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>48227</v>
+        <v>49473</v>
       </c>
       <c r="F79" s="13">
-        <v>49473</v>
+        <v>57519</v>
       </c>
       <c r="G79" s="13">
-        <v>57519</v>
+        <v>70833</v>
       </c>
       <c r="H79" s="13">
-        <v>70833</v>
+        <v>81801</v>
       </c>
       <c r="I79" s="13">
-        <v>81801</v>
+        <v>62426</v>
       </c>
       <c r="J79" s="13">
-        <v>62426</v>
+        <v>55121</v>
       </c>
       <c r="K79" s="13">
-        <v>55121</v>
+        <v>48467</v>
       </c>
       <c r="L79" s="13">
-        <v>48467</v>
+        <v>42075</v>
       </c>
       <c r="M79" s="13">
-        <v>42075</v>
+        <v>38970</v>
       </c>
       <c r="N79" s="13">
-        <v>38970</v>
+        <v>47140</v>
       </c>
       <c r="O79" s="13">
-        <v>47140</v>
+        <v>57493</v>
       </c>
       <c r="P79" s="13">
-        <v>57493</v>
+        <v>66509</v>
       </c>
       <c r="Q79" s="13">
-        <v>66509</v>
+        <v>65951</v>
       </c>
       <c r="R79" s="13">
-        <v>65951</v>
+        <v>70899</v>
       </c>
       <c r="S79" s="13">
-        <v>70899</v>
+        <v>79155</v>
       </c>
       <c r="T79" s="13">
-        <v>79155</v>
+        <v>86484</v>
       </c>
       <c r="U79" s="13">
-        <v>86484</v>
+        <v>70915</v>
       </c>
       <c r="V79" s="13">
-        <v>70915</v>
+        <v>49204</v>
       </c>
       <c r="W79" s="13">
-        <v>49204</v>
+        <v>59760</v>
       </c>
       <c r="X79" s="13">
-        <v>59760</v>
+        <v>60393</v>
       </c>
       <c r="Y79" s="13">
-        <v>60393</v>
+        <v>67488</v>
       </c>
       <c r="Z79" s="13">
-        <v>67488</v>
+        <v>80598</v>
       </c>
       <c r="AA79" s="13">
-        <v>80598</v>
+        <v>115227</v>
       </c>
       <c r="AB79" s="13">
-        <v>115227</v>
+        <v>124746</v>
       </c>
       <c r="AC79" s="13">
-        <v>124746</v>
+        <v>123810</v>
       </c>
       <c r="AD79" s="13">
-        <v>123810</v>
+        <v>130687</v>
       </c>
       <c r="AE79" s="13">
-        <v>130687</v>
+        <v>126123</v>
       </c>
       <c r="AF79" s="13">
-        <v>126123</v>
-      </c>
-      <c r="AG79" s="13">
         <v>116614</v>
+      </c>
+      <c r="AG79" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AH79" s="13" t="s">
         <v>66</v>
@@ -10176,154 +10211,154 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>65621</v>
+        <v>68171</v>
       </c>
       <c r="F80" s="11">
-        <v>68171</v>
+        <v>63933</v>
       </c>
       <c r="G80" s="11">
-        <v>63933</v>
+        <v>63141</v>
       </c>
       <c r="H80" s="11">
-        <v>63141</v>
+        <v>70173</v>
       </c>
       <c r="I80" s="11">
-        <v>70173</v>
+        <v>66716</v>
       </c>
       <c r="J80" s="11">
-        <v>66716</v>
+        <v>65149</v>
       </c>
       <c r="K80" s="11">
-        <v>65149</v>
+        <v>66698</v>
       </c>
       <c r="L80" s="11">
-        <v>66698</v>
+        <v>67707</v>
       </c>
       <c r="M80" s="11">
-        <v>67707</v>
+        <v>69087</v>
       </c>
       <c r="N80" s="11">
-        <v>69087</v>
+        <v>69669</v>
       </c>
       <c r="O80" s="11">
-        <v>69669</v>
+        <v>70582</v>
       </c>
       <c r="P80" s="11">
-        <v>70582</v>
+        <v>71592</v>
       </c>
       <c r="Q80" s="11">
-        <v>71592</v>
+        <v>73805</v>
       </c>
       <c r="R80" s="11">
-        <v>73805</v>
+        <v>74410</v>
       </c>
       <c r="S80" s="11">
-        <v>74410</v>
+        <v>74324</v>
       </c>
       <c r="T80" s="11">
-        <v>74324</v>
+        <v>80647</v>
       </c>
       <c r="U80" s="11">
-        <v>80647</v>
+        <v>81274</v>
       </c>
       <c r="V80" s="11">
-        <v>81274</v>
+        <v>82892</v>
       </c>
       <c r="W80" s="11">
-        <v>82892</v>
+        <v>83413</v>
       </c>
       <c r="X80" s="11">
-        <v>83413</v>
+        <v>86563</v>
       </c>
       <c r="Y80" s="11">
-        <v>86563</v>
+        <v>89555</v>
       </c>
       <c r="Z80" s="11">
-        <v>89555</v>
+        <v>93427</v>
       </c>
       <c r="AA80" s="11">
-        <v>93427</v>
+        <v>108462</v>
       </c>
       <c r="AB80" s="11">
-        <v>108462</v>
+        <v>120637</v>
       </c>
       <c r="AC80" s="11">
-        <v>120637</v>
+        <v>130253</v>
       </c>
       <c r="AD80" s="11">
-        <v>130253</v>
+        <v>130624</v>
       </c>
       <c r="AE80" s="11">
-        <v>130624</v>
+        <v>129577</v>
       </c>
       <c r="AF80" s="11">
-        <v>129577</v>
+        <v>132439</v>
       </c>
       <c r="AG80" s="11">
-        <v>132439</v>
+        <v>134018</v>
       </c>
       <c r="AH80" s="11">
-        <v>134018</v>
+        <v>127005</v>
       </c>
       <c r="AI80" s="11">
-        <v>127005</v>
+        <v>152291</v>
       </c>
       <c r="AJ80" s="11">
-        <v>152291</v>
+        <v>142688</v>
       </c>
       <c r="AK80" s="11">
-        <v>142688</v>
+        <v>150791</v>
       </c>
       <c r="AL80" s="11">
-        <v>150791</v>
+        <v>158370</v>
       </c>
       <c r="AM80" s="11">
-        <v>158370</v>
+        <v>162315</v>
       </c>
       <c r="AN80" s="11">
-        <v>162315</v>
+        <v>160394</v>
       </c>
       <c r="AO80" s="11">
-        <v>160394</v>
+        <v>162147</v>
       </c>
       <c r="AP80" s="11">
-        <v>162147</v>
+        <v>162784</v>
       </c>
       <c r="AQ80" s="11">
-        <v>162784</v>
+        <v>171348</v>
       </c>
       <c r="AR80" s="11">
-        <v>171348</v>
+        <v>176766</v>
       </c>
       <c r="AS80" s="11">
-        <v>176766</v>
+        <v>187064</v>
       </c>
       <c r="AT80" s="11">
-        <v>187064</v>
+        <v>198626</v>
       </c>
       <c r="AU80" s="11">
-        <v>198626</v>
+        <v>217792</v>
       </c>
       <c r="AV80" s="11">
-        <v>217792</v>
+        <v>216717</v>
       </c>
       <c r="AW80" s="11">
-        <v>216717</v>
+        <v>222833</v>
       </c>
       <c r="AX80" s="11">
-        <v>222833</v>
+        <v>223898</v>
       </c>
       <c r="AY80" s="11">
-        <v>223898</v>
+        <v>221402</v>
       </c>
       <c r="AZ80" s="11">
-        <v>221402</v>
+        <v>235063</v>
       </c>
       <c r="BA80" s="11">
-        <v>235063</v>
+        <v>238564</v>
       </c>
       <c r="BB80" s="11">
-        <v>238564</v>
+        <v>249392</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
@@ -10335,154 +10370,154 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>71757</v>
+        <v>72813</v>
       </c>
       <c r="F81" s="13">
-        <v>72813</v>
+        <v>74484</v>
       </c>
       <c r="G81" s="13">
-        <v>74484</v>
+        <v>70279</v>
       </c>
       <c r="H81" s="13">
-        <v>70279</v>
+        <v>62421</v>
       </c>
       <c r="I81" s="13">
-        <v>62421</v>
+        <v>59325</v>
       </c>
       <c r="J81" s="13">
-        <v>59325</v>
+        <v>38919</v>
       </c>
       <c r="K81" s="13">
-        <v>38919</v>
+        <v>67846</v>
       </c>
       <c r="L81" s="13">
-        <v>67846</v>
+        <v>91016</v>
       </c>
       <c r="M81" s="13">
-        <v>91016</v>
+        <v>97022</v>
       </c>
       <c r="N81" s="13">
-        <v>97022</v>
+        <v>99023</v>
       </c>
       <c r="O81" s="13">
-        <v>99023</v>
+        <v>99357</v>
       </c>
       <c r="P81" s="13">
-        <v>99357</v>
+        <v>91582</v>
       </c>
       <c r="Q81" s="13">
-        <v>91582</v>
+        <v>85808</v>
       </c>
       <c r="R81" s="13">
-        <v>85808</v>
+        <v>91667</v>
       </c>
       <c r="S81" s="13">
-        <v>91667</v>
+        <v>96640</v>
       </c>
       <c r="T81" s="13">
-        <v>96640</v>
+        <v>85703</v>
       </c>
       <c r="U81" s="13">
-        <v>85703</v>
+        <v>86384</v>
       </c>
       <c r="V81" s="13">
-        <v>86384</v>
+        <v>84294</v>
       </c>
       <c r="W81" s="13">
-        <v>84294</v>
+        <v>97969</v>
       </c>
       <c r="X81" s="13">
-        <v>97969</v>
+        <v>98174</v>
       </c>
       <c r="Y81" s="13">
-        <v>98174</v>
+        <v>103129</v>
       </c>
       <c r="Z81" s="13">
-        <v>103129</v>
+        <v>113721</v>
       </c>
       <c r="AA81" s="13">
-        <v>113721</v>
+        <v>120074</v>
       </c>
       <c r="AB81" s="13">
-        <v>120074</v>
+        <v>128807</v>
       </c>
       <c r="AC81" s="13">
-        <v>128807</v>
+        <v>128281</v>
       </c>
       <c r="AD81" s="13">
-        <v>128281</v>
+        <v>127320</v>
       </c>
       <c r="AE81" s="13">
-        <v>127320</v>
+        <v>136185</v>
       </c>
       <c r="AF81" s="13">
-        <v>136185</v>
+        <v>122291</v>
       </c>
       <c r="AG81" s="13">
-        <v>122291</v>
+        <v>126995</v>
       </c>
       <c r="AH81" s="13">
-        <v>126995</v>
+        <v>128537</v>
       </c>
       <c r="AI81" s="13">
-        <v>128537</v>
+        <v>134004</v>
       </c>
       <c r="AJ81" s="13">
-        <v>134004</v>
+        <v>133503</v>
       </c>
       <c r="AK81" s="13">
-        <v>133503</v>
+        <v>150978</v>
       </c>
       <c r="AL81" s="13">
-        <v>150978</v>
+        <v>169235</v>
       </c>
       <c r="AM81" s="13">
-        <v>169235</v>
+        <v>179996</v>
       </c>
       <c r="AN81" s="13">
-        <v>179996</v>
+        <v>178170</v>
       </c>
       <c r="AO81" s="13">
-        <v>178170</v>
+        <v>178151</v>
       </c>
       <c r="AP81" s="13">
-        <v>178151</v>
+        <v>179711</v>
       </c>
       <c r="AQ81" s="13">
-        <v>179711</v>
+        <v>191785</v>
       </c>
       <c r="AR81" s="13">
-        <v>191785</v>
+        <v>172716</v>
       </c>
       <c r="AS81" s="13">
-        <v>172716</v>
+        <v>184653</v>
       </c>
       <c r="AT81" s="13">
-        <v>184653</v>
+        <v>220548</v>
       </c>
       <c r="AU81" s="13">
-        <v>220548</v>
+        <v>245641</v>
       </c>
       <c r="AV81" s="13">
-        <v>245641</v>
+        <v>257123</v>
       </c>
       <c r="AW81" s="13">
-        <v>257123</v>
+        <v>270206</v>
       </c>
       <c r="AX81" s="13">
-        <v>270206</v>
+        <v>288576</v>
       </c>
       <c r="AY81" s="13">
-        <v>288576</v>
+        <v>306686</v>
       </c>
       <c r="AZ81" s="13">
-        <v>306686</v>
+        <v>307981</v>
       </c>
       <c r="BA81" s="13">
-        <v>307981</v>
+        <v>310532</v>
       </c>
       <c r="BB81" s="13">
-        <v>310532</v>
+        <v>328706</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
@@ -10494,154 +10529,154 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>14906</v>
+        <v>14799</v>
       </c>
       <c r="F82" s="11">
-        <v>14799</v>
+        <v>15059</v>
       </c>
       <c r="G82" s="11">
-        <v>15059</v>
+        <v>14180</v>
       </c>
       <c r="H82" s="11">
-        <v>14180</v>
+        <v>167186</v>
       </c>
       <c r="I82" s="11">
-        <v>167186</v>
+        <v>168538</v>
       </c>
       <c r="J82" s="11">
-        <v>168538</v>
+        <v>172007</v>
       </c>
       <c r="K82" s="11">
-        <v>172007</v>
+        <v>171969</v>
       </c>
       <c r="L82" s="11">
-        <v>171969</v>
+        <v>172985</v>
       </c>
       <c r="M82" s="11">
-        <v>172985</v>
+        <v>171700</v>
       </c>
       <c r="N82" s="11">
-        <v>171700</v>
+        <v>173385</v>
       </c>
       <c r="O82" s="11">
-        <v>173385</v>
+        <v>173675</v>
       </c>
       <c r="P82" s="11">
-        <v>173675</v>
+        <v>173487</v>
       </c>
       <c r="Q82" s="11">
-        <v>173487</v>
+        <v>173430</v>
       </c>
       <c r="R82" s="11">
-        <v>173430</v>
+        <v>173445</v>
       </c>
       <c r="S82" s="11">
-        <v>173445</v>
+        <v>173403</v>
       </c>
       <c r="T82" s="11">
-        <v>173403</v>
+        <v>173463</v>
       </c>
       <c r="U82" s="11">
-        <v>173463</v>
+        <v>173619</v>
       </c>
       <c r="V82" s="11">
-        <v>173619</v>
+        <v>173628</v>
       </c>
       <c r="W82" s="11">
-        <v>173628</v>
+        <v>173652</v>
       </c>
       <c r="X82" s="11">
-        <v>173652</v>
+        <v>173644</v>
       </c>
       <c r="Y82" s="11">
-        <v>173644</v>
+        <v>173478</v>
       </c>
       <c r="Z82" s="11">
-        <v>173478</v>
+        <v>4</v>
       </c>
       <c r="AA82" s="11">
-        <v>4</v>
+        <v>173662</v>
       </c>
       <c r="AB82" s="11">
-        <v>173662</v>
+        <v>173488</v>
       </c>
       <c r="AC82" s="11">
-        <v>173488</v>
+        <v>173459</v>
       </c>
       <c r="AD82" s="11">
-        <v>173459</v>
+        <v>173621</v>
       </c>
       <c r="AE82" s="11">
-        <v>173621</v>
+        <v>173614</v>
       </c>
       <c r="AF82" s="11">
-        <v>173614</v>
+        <v>173636</v>
       </c>
       <c r="AG82" s="11">
-        <v>173636</v>
+        <v>108926</v>
       </c>
       <c r="AH82" s="11">
-        <v>108926</v>
+        <v>120183</v>
       </c>
       <c r="AI82" s="11">
-        <v>120183</v>
+        <v>122761</v>
       </c>
       <c r="AJ82" s="11">
-        <v>122761</v>
-      </c>
-      <c r="AK82" s="11">
         <v>117208</v>
       </c>
-      <c r="AL82" s="11" t="s">
-        <v>66</v>
+      <c r="AK82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL82" s="11">
+        <v>147757</v>
       </c>
       <c r="AM82" s="11">
-        <v>147757</v>
+        <v>144623</v>
       </c>
       <c r="AN82" s="11">
-        <v>144623</v>
+        <v>110274</v>
       </c>
       <c r="AO82" s="11">
-        <v>110274</v>
+        <v>246512</v>
       </c>
       <c r="AP82" s="11">
-        <v>246512</v>
-      </c>
-      <c r="AQ82" s="11">
         <v>256043</v>
       </c>
-      <c r="AR82" s="11" t="s">
-        <v>66</v>
+      <c r="AQ82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR82" s="11">
+        <v>269285</v>
       </c>
       <c r="AS82" s="11">
-        <v>269285</v>
+        <v>266932</v>
       </c>
       <c r="AT82" s="11">
-        <v>266932</v>
-      </c>
-      <c r="AU82" s="11">
         <v>265060</v>
       </c>
+      <c r="AU82" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AV82" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AW82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AX82" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY82" s="11">
+      <c r="AX82" s="11">
         <v>257143</v>
       </c>
-      <c r="AZ82" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA82" s="11">
+      <c r="AY82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ82" s="11">
         <v>313333</v>
       </c>
-      <c r="BB82" s="11" t="s">
-        <v>66</v>
+      <c r="BA82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB82" s="11">
+        <v>148472</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
@@ -10772,35 +10807,35 @@
       <c r="AR83" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AS83" s="13" t="s">
-        <v>66</v>
+      <c r="AS83" s="13">
+        <v>101592</v>
       </c>
       <c r="AT83" s="13">
-        <v>101592</v>
+        <v>102398</v>
       </c>
       <c r="AU83" s="13">
-        <v>102398</v>
+        <v>105505</v>
       </c>
       <c r="AV83" s="13">
-        <v>105505</v>
+        <v>102982</v>
       </c>
       <c r="AW83" s="13">
-        <v>102982</v>
+        <v>105567</v>
       </c>
       <c r="AX83" s="13">
-        <v>105567</v>
+        <v>110541</v>
       </c>
       <c r="AY83" s="13">
-        <v>110541</v>
+        <v>113898</v>
       </c>
       <c r="AZ83" s="13">
-        <v>113898</v>
+        <v>116850</v>
       </c>
       <c r="BA83" s="13">
-        <v>116850</v>
+        <v>117478</v>
       </c>
       <c r="BB83" s="13">
-        <v>117478</v>
+        <v>118021</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/foroushgah/ofogh/product/monthly.xlsx
+++ b/database/industries/foroushgah/ofogh/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="82">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>0</v>
+        <v>108159</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>108159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>0</v>
+        <v>12309181</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>12309181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>0</v>
+        <v>22388732</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>22388732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="BA14" s="14" t="n">
-        <v>0</v>
+        <v>67469487</v>
       </c>
       <c r="BB14" s="14" t="n">
-        <v>67469487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BA15" s="12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="BA17" s="12" t="n">
-        <v>0</v>
+        <v>2934695</v>
       </c>
       <c r="BB17" s="12" t="n">
-        <v>2934695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="14" t="n">
-        <v>0</v>
+        <v>33180182</v>
       </c>
       <c r="BB18" s="14" t="n">
-        <v>33180182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="BA19" s="12" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BB19" s="12" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,8 +4802,8 @@
       <c r="AP20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AQ20" s="15" t="s">
-        <v>66</v>
+      <c r="AQ20" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AR20" s="15" t="n">
         <v>0</v>
@@ -4833,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="BA20" s="15" t="n">
-        <v>0</v>
+        <v>1121250</v>
       </c>
       <c r="BB20" s="15" t="n">
-        <v>1121250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,8 +4950,8 @@
       <c r="T22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U22" s="19" t="s">
-        <v>66</v>
+      <c r="U22" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="19" t="n">
         <v>0</v>
@@ -5204,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="BA23" s="21" t="n">
-        <v>0</v>
+        <v>139511780</v>
       </c>
       <c r="BB23" s="21" t="n">
-        <v>139511780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,154 +5653,154 @@
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12" t="n">
-        <v>112867</v>
+        <v>148890</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>148890</v>
+        <v>78811</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>78811</v>
+        <v>96700</v>
       </c>
       <c r="H30" s="12" t="n">
-        <v>96700</v>
+        <v>103291</v>
       </c>
       <c r="I30" s="12" t="n">
-        <v>103291</v>
+        <v>86430</v>
       </c>
       <c r="J30" s="12" t="n">
-        <v>86430</v>
+        <v>103737</v>
       </c>
       <c r="K30" s="12" t="n">
-        <v>103737</v>
+        <v>131331</v>
       </c>
       <c r="L30" s="12" t="n">
-        <v>131331</v>
+        <v>155307</v>
       </c>
       <c r="M30" s="12" t="n">
-        <v>155307</v>
+        <v>172775</v>
       </c>
       <c r="N30" s="12" t="n">
-        <v>172775</v>
+        <v>178210</v>
       </c>
       <c r="O30" s="12" t="n">
-        <v>178210</v>
+        <v>167465</v>
       </c>
       <c r="P30" s="12" t="n">
-        <v>167465</v>
+        <v>173328</v>
       </c>
       <c r="Q30" s="12" t="n">
-        <v>173328</v>
+        <v>211293</v>
       </c>
       <c r="R30" s="12" t="n">
-        <v>211293</v>
+        <v>114976</v>
       </c>
       <c r="S30" s="12" t="n">
-        <v>114976</v>
+        <v>129551</v>
       </c>
       <c r="T30" s="12" t="n">
-        <v>129551</v>
+        <v>151611</v>
       </c>
       <c r="U30" s="12" t="n">
-        <v>151611</v>
+        <v>148020</v>
       </c>
       <c r="V30" s="12" t="n">
-        <v>148020</v>
+        <v>134579</v>
       </c>
       <c r="W30" s="12" t="n">
-        <v>134579</v>
+        <v>151045</v>
       </c>
       <c r="X30" s="12" t="n">
-        <v>151045</v>
+        <v>164685</v>
       </c>
       <c r="Y30" s="12" t="n">
-        <v>164685</v>
+        <v>166231</v>
       </c>
       <c r="Z30" s="12" t="n">
-        <v>166231</v>
+        <v>178115</v>
       </c>
       <c r="AA30" s="12" t="n">
-        <v>178115</v>
+        <v>152155</v>
       </c>
       <c r="AB30" s="12" t="n">
-        <v>152155</v>
+        <v>138295</v>
       </c>
       <c r="AC30" s="12" t="n">
-        <v>138295</v>
+        <v>165676</v>
       </c>
       <c r="AD30" s="12" t="n">
-        <v>165676</v>
+        <v>97085</v>
       </c>
       <c r="AE30" s="12" t="n">
-        <v>97085</v>
+        <v>66837</v>
       </c>
       <c r="AF30" s="12" t="n">
-        <v>66837</v>
+        <v>329719</v>
       </c>
       <c r="AG30" s="12" t="n">
-        <v>329719</v>
+        <v>51105</v>
       </c>
       <c r="AH30" s="12" t="n">
-        <v>51105</v>
+        <v>49099</v>
       </c>
       <c r="AI30" s="12" t="n">
-        <v>49099</v>
+        <v>52153</v>
       </c>
       <c r="AJ30" s="12" t="n">
-        <v>52153</v>
+        <v>150750</v>
       </c>
       <c r="AK30" s="12" t="n">
-        <v>150750</v>
+        <v>146185</v>
       </c>
       <c r="AL30" s="12" t="n">
-        <v>146185</v>
+        <v>154809</v>
       </c>
       <c r="AM30" s="12" t="n">
-        <v>154809</v>
+        <v>142001</v>
       </c>
       <c r="AN30" s="12" t="n">
-        <v>142001</v>
+        <v>132760</v>
       </c>
       <c r="AO30" s="12" t="n">
-        <v>132760</v>
+        <v>101470</v>
       </c>
       <c r="AP30" s="12" t="n">
-        <v>101470</v>
+        <v>97236</v>
       </c>
       <c r="AQ30" s="12" t="n">
-        <v>97236</v>
+        <v>104540</v>
       </c>
       <c r="AR30" s="12" t="n">
-        <v>104540</v>
+        <v>80012</v>
       </c>
       <c r="AS30" s="12" t="n">
-        <v>80012</v>
+        <v>75815</v>
       </c>
       <c r="AT30" s="12" t="n">
-        <v>75815</v>
+        <v>82855</v>
       </c>
       <c r="AU30" s="12" t="n">
-        <v>82855</v>
+        <v>90743</v>
       </c>
       <c r="AV30" s="12" t="n">
-        <v>90743</v>
+        <v>103275</v>
       </c>
       <c r="AW30" s="12" t="n">
-        <v>103275</v>
+        <v>89151</v>
       </c>
       <c r="AX30" s="12" t="n">
-        <v>89151</v>
+        <v>82208</v>
       </c>
       <c r="AY30" s="12" t="n">
-        <v>82208</v>
+        <v>88774</v>
       </c>
       <c r="AZ30" s="12" t="n">
-        <v>88774</v>
+        <v>144915</v>
       </c>
       <c r="BA30" s="12" t="n">
-        <v>144915</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="12" t="n">
-        <v>0</v>
+        <v>79890</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,154 +5812,154 @@
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="n">
-        <v>5387728</v>
+        <v>6441312</v>
       </c>
       <c r="F31" s="15" t="n">
-        <v>6441312</v>
+        <v>6074205</v>
       </c>
       <c r="G31" s="15" t="n">
-        <v>6074205</v>
+        <v>7289547</v>
       </c>
       <c r="H31" s="15" t="n">
-        <v>7289547</v>
+        <v>8659755</v>
       </c>
       <c r="I31" s="15" t="n">
-        <v>8659755</v>
+        <v>8082305</v>
       </c>
       <c r="J31" s="15" t="n">
-        <v>8082305</v>
+        <v>9944091</v>
       </c>
       <c r="K31" s="15" t="n">
-        <v>9944091</v>
+        <v>9761618</v>
       </c>
       <c r="L31" s="15" t="n">
-        <v>9761618</v>
+        <v>8549247</v>
       </c>
       <c r="M31" s="15" t="n">
-        <v>8549247</v>
+        <v>7306571</v>
       </c>
       <c r="N31" s="15" t="n">
-        <v>7306571</v>
+        <v>7724916</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>7724916</v>
+        <v>7072410</v>
       </c>
       <c r="P31" s="15" t="n">
-        <v>7072410</v>
+        <v>7350947</v>
       </c>
       <c r="Q31" s="15" t="n">
-        <v>7350947</v>
+        <v>8662580</v>
       </c>
       <c r="R31" s="15" t="n">
-        <v>8662580</v>
+        <v>7021477</v>
       </c>
       <c r="S31" s="15" t="n">
-        <v>7021477</v>
+        <v>8916170</v>
       </c>
       <c r="T31" s="15" t="n">
-        <v>8916170</v>
+        <v>11749232</v>
       </c>
       <c r="U31" s="15" t="n">
-        <v>11749232</v>
+        <v>12338105</v>
       </c>
       <c r="V31" s="15" t="n">
-        <v>12338105</v>
+        <v>14830812</v>
       </c>
       <c r="W31" s="15" t="n">
-        <v>14830812</v>
+        <v>12661600</v>
       </c>
       <c r="X31" s="15" t="n">
-        <v>12661600</v>
+        <v>11488044</v>
       </c>
       <c r="Y31" s="15" t="n">
-        <v>11488044</v>
+        <v>11179961</v>
       </c>
       <c r="Z31" s="15" t="n">
-        <v>11179961</v>
+        <v>9351162</v>
       </c>
       <c r="AA31" s="15" t="n">
-        <v>9351162</v>
+        <v>8971867</v>
       </c>
       <c r="AB31" s="15" t="n">
-        <v>8971867</v>
+        <v>9717055</v>
       </c>
       <c r="AC31" s="15" t="n">
-        <v>9717055</v>
+        <v>11412688</v>
       </c>
       <c r="AD31" s="15" t="n">
-        <v>11412688</v>
+        <v>12624384</v>
       </c>
       <c r="AE31" s="15" t="n">
-        <v>12624384</v>
+        <v>13805974</v>
       </c>
       <c r="AF31" s="15" t="n">
-        <v>13805974</v>
+        <v>15961267</v>
       </c>
       <c r="AG31" s="15" t="n">
-        <v>15961267</v>
+        <v>17976227</v>
       </c>
       <c r="AH31" s="15" t="n">
-        <v>17976227</v>
+        <v>16154420</v>
       </c>
       <c r="AI31" s="15" t="n">
-        <v>16154420</v>
+        <v>16084035</v>
       </c>
       <c r="AJ31" s="15" t="n">
-        <v>16084035</v>
+        <v>13610934</v>
       </c>
       <c r="AK31" s="15" t="n">
-        <v>13610934</v>
+        <v>11101258</v>
       </c>
       <c r="AL31" s="15" t="n">
-        <v>11101258</v>
+        <v>11947247</v>
       </c>
       <c r="AM31" s="15" t="n">
-        <v>11947247</v>
+        <v>9825457</v>
       </c>
       <c r="AN31" s="15" t="n">
-        <v>9825457</v>
+        <v>9774660</v>
       </c>
       <c r="AO31" s="15" t="n">
-        <v>9774660</v>
+        <v>10634712</v>
       </c>
       <c r="AP31" s="15" t="n">
-        <v>10634712</v>
+        <v>12641007</v>
       </c>
       <c r="AQ31" s="15" t="n">
-        <v>12641007</v>
+        <v>13889100</v>
       </c>
       <c r="AR31" s="15" t="n">
-        <v>13889100</v>
+        <v>13916922</v>
       </c>
       <c r="AS31" s="15" t="n">
-        <v>13916922</v>
+        <v>14790107</v>
       </c>
       <c r="AT31" s="15" t="n">
-        <v>14790107</v>
+        <v>14444561</v>
       </c>
       <c r="AU31" s="15" t="n">
-        <v>14444561</v>
+        <v>15479125</v>
       </c>
       <c r="AV31" s="15" t="n">
-        <v>15479125</v>
+        <v>12622103</v>
       </c>
       <c r="AW31" s="15" t="n">
-        <v>12622103</v>
+        <v>9181529</v>
       </c>
       <c r="AX31" s="15" t="n">
-        <v>9181529</v>
+        <v>8876590</v>
       </c>
       <c r="AY31" s="15" t="n">
-        <v>8876590</v>
+        <v>9697925</v>
       </c>
       <c r="AZ31" s="15" t="n">
-        <v>9697925</v>
+        <v>10032474</v>
       </c>
       <c r="BA31" s="15" t="n">
-        <v>10032474</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="15" t="n">
-        <v>0</v>
+        <v>13129729</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,154 +5971,154 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="n">
-        <v>12060264</v>
+        <v>16557967</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>16557967</v>
+        <v>8538817</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>8538817</v>
+        <v>11763069</v>
       </c>
       <c r="H32" s="12" t="n">
-        <v>11763069</v>
+        <v>11616888</v>
       </c>
       <c r="I32" s="12" t="n">
-        <v>11616888</v>
+        <v>11352512</v>
       </c>
       <c r="J32" s="12" t="n">
-        <v>11352512</v>
+        <v>13370823</v>
       </c>
       <c r="K32" s="12" t="n">
-        <v>13370823</v>
+        <v>14568055</v>
       </c>
       <c r="L32" s="12" t="n">
-        <v>14568055</v>
+        <v>14082209</v>
       </c>
       <c r="M32" s="12" t="n">
-        <v>14082209</v>
+        <v>14967609</v>
       </c>
       <c r="N32" s="12" t="n">
-        <v>14967609</v>
+        <v>15459496</v>
       </c>
       <c r="O32" s="12" t="n">
-        <v>15459496</v>
+        <v>14552552</v>
       </c>
       <c r="P32" s="12" t="n">
-        <v>14552552</v>
+        <v>14484935</v>
       </c>
       <c r="Q32" s="12" t="n">
-        <v>14484935</v>
+        <v>27870096</v>
       </c>
       <c r="R32" s="12" t="n">
-        <v>27870096</v>
+        <v>12083421</v>
       </c>
       <c r="S32" s="12" t="n">
-        <v>12083421</v>
+        <v>13261570</v>
       </c>
       <c r="T32" s="12" t="n">
-        <v>13261570</v>
+        <v>15095494</v>
       </c>
       <c r="U32" s="12" t="n">
-        <v>15095494</v>
+        <v>17206660</v>
       </c>
       <c r="V32" s="12" t="n">
-        <v>17206660</v>
+        <v>17568099</v>
       </c>
       <c r="W32" s="12" t="n">
-        <v>17568099</v>
+        <v>17706350</v>
       </c>
       <c r="X32" s="12" t="n">
-        <v>17706350</v>
+        <v>18388526</v>
       </c>
       <c r="Y32" s="12" t="n">
-        <v>18388526</v>
+        <v>20708554</v>
       </c>
       <c r="Z32" s="12" t="n">
-        <v>20708554</v>
+        <v>17183591</v>
       </c>
       <c r="AA32" s="12" t="n">
-        <v>17183591</v>
+        <v>16376941</v>
       </c>
       <c r="AB32" s="12" t="n">
-        <v>16376941</v>
+        <v>16376968</v>
       </c>
       <c r="AC32" s="12" t="n">
-        <v>16376968</v>
+        <v>21248616</v>
       </c>
       <c r="AD32" s="12" t="n">
-        <v>21248616</v>
+        <v>15281382</v>
       </c>
       <c r="AE32" s="12" t="n">
-        <v>15281382</v>
+        <v>17220459</v>
       </c>
       <c r="AF32" s="12" t="n">
-        <v>17220459</v>
+        <v>18912959</v>
       </c>
       <c r="AG32" s="12" t="n">
-        <v>18912959</v>
+        <v>20079295</v>
       </c>
       <c r="AH32" s="12" t="n">
-        <v>20079295</v>
+        <v>19301896</v>
       </c>
       <c r="AI32" s="12" t="n">
-        <v>19301896</v>
+        <v>20535799</v>
       </c>
       <c r="AJ32" s="12" t="n">
-        <v>20535799</v>
+        <v>17651054</v>
       </c>
       <c r="AK32" s="12" t="n">
-        <v>17651054</v>
+        <v>16965670</v>
       </c>
       <c r="AL32" s="12" t="n">
-        <v>16965670</v>
+        <v>17600543</v>
       </c>
       <c r="AM32" s="12" t="n">
-        <v>17600543</v>
+        <v>17329932</v>
       </c>
       <c r="AN32" s="12" t="n">
-        <v>17329932</v>
+        <v>17099020</v>
       </c>
       <c r="AO32" s="12" t="n">
-        <v>17099020</v>
+        <v>21483638</v>
       </c>
       <c r="AP32" s="12" t="n">
-        <v>21483638</v>
+        <v>13981098</v>
       </c>
       <c r="AQ32" s="12" t="n">
-        <v>13981098</v>
+        <v>22754245</v>
       </c>
       <c r="AR32" s="12" t="n">
-        <v>22754245</v>
+        <v>18090677</v>
       </c>
       <c r="AS32" s="12" t="n">
-        <v>18090677</v>
+        <v>14466236</v>
       </c>
       <c r="AT32" s="12" t="n">
-        <v>14466236</v>
+        <v>14758053</v>
       </c>
       <c r="AU32" s="12" t="n">
-        <v>14758053</v>
+        <v>15563697</v>
       </c>
       <c r="AV32" s="12" t="n">
-        <v>15563697</v>
+        <v>15348170</v>
       </c>
       <c r="AW32" s="12" t="n">
-        <v>15348170</v>
+        <v>14203833</v>
       </c>
       <c r="AX32" s="12" t="n">
-        <v>14203833</v>
+        <v>14533789</v>
       </c>
       <c r="AY32" s="12" t="n">
-        <v>14533789</v>
+        <v>16464210</v>
       </c>
       <c r="AZ32" s="12" t="n">
-        <v>16464210</v>
+        <v>16814303</v>
       </c>
       <c r="BA32" s="12" t="n">
-        <v>16814303</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="12" t="n">
-        <v>0</v>
+        <v>13878808</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,154 +6130,154 @@
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="n">
-        <v>40694713</v>
+        <v>51456261</v>
       </c>
       <c r="F33" s="15" t="n">
-        <v>51456261</v>
+        <v>33403458</v>
       </c>
       <c r="G33" s="15" t="n">
-        <v>33403458</v>
+        <v>45119722</v>
       </c>
       <c r="H33" s="15" t="n">
-        <v>45119722</v>
+        <v>39340831</v>
       </c>
       <c r="I33" s="15" t="n">
-        <v>39340831</v>
+        <v>33525785</v>
       </c>
       <c r="J33" s="15" t="n">
-        <v>33525785</v>
+        <v>39081503</v>
       </c>
       <c r="K33" s="15" t="n">
-        <v>39081503</v>
+        <v>43209897</v>
       </c>
       <c r="L33" s="15" t="n">
-        <v>43209897</v>
+        <v>47028639</v>
       </c>
       <c r="M33" s="15" t="n">
-        <v>47028639</v>
+        <v>48200143</v>
       </c>
       <c r="N33" s="15" t="n">
-        <v>48200143</v>
+        <v>51524604</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>51524604</v>
+        <v>48255505</v>
       </c>
       <c r="P33" s="15" t="n">
-        <v>48255505</v>
+        <v>48685081</v>
       </c>
       <c r="Q33" s="15" t="n">
-        <v>48685081</v>
+        <v>70579586</v>
       </c>
       <c r="R33" s="15" t="n">
-        <v>70579586</v>
+        <v>48690856</v>
       </c>
       <c r="S33" s="15" t="n">
-        <v>48690856</v>
+        <v>50683599</v>
       </c>
       <c r="T33" s="15" t="n">
-        <v>50683599</v>
+        <v>47361733</v>
       </c>
       <c r="U33" s="15" t="n">
-        <v>47361733</v>
+        <v>57571414</v>
       </c>
       <c r="V33" s="15" t="n">
-        <v>57571414</v>
+        <v>59646278</v>
       </c>
       <c r="W33" s="15" t="n">
-        <v>59646278</v>
+        <v>58140459</v>
       </c>
       <c r="X33" s="15" t="n">
-        <v>58140459</v>
+        <v>57773285</v>
       </c>
       <c r="Y33" s="15" t="n">
-        <v>57773285</v>
+        <v>64515930</v>
       </c>
       <c r="Z33" s="15" t="n">
-        <v>64515930</v>
+        <v>65714642</v>
       </c>
       <c r="AA33" s="15" t="n">
-        <v>65714642</v>
+        <v>62726377</v>
       </c>
       <c r="AB33" s="15" t="n">
-        <v>62726377</v>
+        <v>60609553</v>
       </c>
       <c r="AC33" s="15" t="n">
-        <v>60609553</v>
+        <v>67659907</v>
       </c>
       <c r="AD33" s="15" t="n">
-        <v>67659907</v>
+        <v>53457828</v>
       </c>
       <c r="AE33" s="15" t="n">
-        <v>53457828</v>
+        <v>66812305</v>
       </c>
       <c r="AF33" s="15" t="n">
-        <v>66812305</v>
+        <v>59614939</v>
       </c>
       <c r="AG33" s="15" t="n">
-        <v>59614939</v>
+        <v>58232320</v>
       </c>
       <c r="AH33" s="15" t="n">
-        <v>58232320</v>
+        <v>56946505</v>
       </c>
       <c r="AI33" s="15" t="n">
-        <v>56946505</v>
+        <v>71602593</v>
       </c>
       <c r="AJ33" s="15" t="n">
-        <v>71602593</v>
+        <v>57629702</v>
       </c>
       <c r="AK33" s="15" t="n">
-        <v>57629702</v>
+        <v>57386405</v>
       </c>
       <c r="AL33" s="15" t="n">
-        <v>57386405</v>
+        <v>66711181</v>
       </c>
       <c r="AM33" s="15" t="n">
-        <v>66711181</v>
+        <v>66548565</v>
       </c>
       <c r="AN33" s="15" t="n">
-        <v>66548565</v>
+        <v>63538266</v>
       </c>
       <c r="AO33" s="15" t="n">
-        <v>63538266</v>
+        <v>66380136</v>
       </c>
       <c r="AP33" s="15" t="n">
-        <v>66380136</v>
+        <v>52970275</v>
       </c>
       <c r="AQ33" s="15" t="n">
-        <v>52970275</v>
+        <v>67639588</v>
       </c>
       <c r="AR33" s="15" t="n">
-        <v>67639588</v>
+        <v>48804861</v>
       </c>
       <c r="AS33" s="15" t="n">
-        <v>48804861</v>
+        <v>47432831</v>
       </c>
       <c r="AT33" s="15" t="n">
-        <v>47432831</v>
+        <v>45354285</v>
       </c>
       <c r="AU33" s="15" t="n">
-        <v>45354285</v>
+        <v>48477286</v>
       </c>
       <c r="AV33" s="15" t="n">
-        <v>48477286</v>
+        <v>50169920</v>
       </c>
       <c r="AW33" s="15" t="n">
-        <v>50169920</v>
+        <v>45702718</v>
       </c>
       <c r="AX33" s="15" t="n">
-        <v>45702718</v>
+        <v>47416084</v>
       </c>
       <c r="AY33" s="15" t="n">
-        <v>47416084</v>
+        <v>51214725</v>
       </c>
       <c r="AZ33" s="15" t="n">
-        <v>51214725</v>
+        <v>59424541</v>
       </c>
       <c r="BA33" s="15" t="n">
-        <v>59424541</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="15" t="n">
-        <v>0</v>
+        <v>50937504</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,34 +6289,34 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12" t="n">
-        <v>569</v>
+        <v>5283</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>5283</v>
+        <v>1550</v>
       </c>
       <c r="G34" s="12" t="n">
-        <v>1550</v>
+        <v>2099</v>
       </c>
       <c r="H34" s="12" t="n">
-        <v>2099</v>
+        <v>1213</v>
       </c>
       <c r="I34" s="12" t="n">
-        <v>1213</v>
+        <v>50</v>
       </c>
       <c r="J34" s="12" t="n">
-        <v>50</v>
+        <v>2404</v>
       </c>
       <c r="K34" s="12" t="n">
-        <v>2404</v>
+        <v>166</v>
       </c>
       <c r="L34" s="12" t="n">
-        <v>166</v>
+        <v>1006</v>
       </c>
       <c r="M34" s="12" t="n">
-        <v>1006</v>
+        <v>1762</v>
       </c>
       <c r="N34" s="12" t="n">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="O34" s="12" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="12" t="n">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="AJ34" s="12" t="n">
-        <v>1656</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="12" t="n">
         <v>0</v>
@@ -6409,28 +6409,28 @@
         <v>0</v>
       </c>
       <c r="AS34" s="12" t="n">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="AT34" s="12" t="n">
-        <v>1334</v>
+        <v>1114</v>
       </c>
       <c r="AU34" s="12" t="n">
-        <v>1114</v>
+        <v>7122</v>
       </c>
       <c r="AV34" s="12" t="n">
-        <v>7122</v>
+        <v>1260</v>
       </c>
       <c r="AW34" s="12" t="n">
-        <v>1260</v>
+        <v>152</v>
       </c>
       <c r="AX34" s="12" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="12" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AZ34" s="12" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="12" t="n">
         <v>0</v>
@@ -6448,85 +6448,85 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="n">
-        <v>271389</v>
+        <v>355682</v>
       </c>
       <c r="F35" s="15" t="n">
-        <v>355682</v>
+        <v>200351</v>
       </c>
       <c r="G35" s="15" t="n">
-        <v>200351</v>
+        <v>413676</v>
       </c>
       <c r="H35" s="15" t="n">
-        <v>413676</v>
+        <v>487705</v>
       </c>
       <c r="I35" s="15" t="n">
-        <v>487705</v>
+        <v>597972</v>
       </c>
       <c r="J35" s="15" t="n">
-        <v>597972</v>
+        <v>831093</v>
       </c>
       <c r="K35" s="15" t="n">
-        <v>831093</v>
+        <v>942675</v>
       </c>
       <c r="L35" s="15" t="n">
-        <v>942675</v>
+        <v>948286</v>
       </c>
       <c r="M35" s="15" t="n">
-        <v>948286</v>
+        <v>892556</v>
       </c>
       <c r="N35" s="15" t="n">
-        <v>892556</v>
+        <v>1021392</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>1021392</v>
+        <v>769794</v>
       </c>
       <c r="P35" s="15" t="n">
-        <v>769794</v>
+        <v>757082</v>
       </c>
       <c r="Q35" s="15" t="n">
-        <v>757082</v>
+        <v>1128426</v>
       </c>
       <c r="R35" s="15" t="n">
-        <v>1128426</v>
+        <v>588840</v>
       </c>
       <c r="S35" s="15" t="n">
-        <v>588840</v>
+        <v>678019</v>
       </c>
       <c r="T35" s="15" t="n">
-        <v>678019</v>
+        <v>816027</v>
       </c>
       <c r="U35" s="15" t="n">
-        <v>816027</v>
+        <v>745530</v>
       </c>
       <c r="V35" s="15" t="n">
-        <v>745530</v>
+        <v>900893</v>
       </c>
       <c r="W35" s="15" t="n">
-        <v>900893</v>
+        <v>726292</v>
       </c>
       <c r="X35" s="15" t="n">
-        <v>726292</v>
+        <v>574826</v>
       </c>
       <c r="Y35" s="15" t="n">
-        <v>574826</v>
+        <v>283033</v>
       </c>
       <c r="Z35" s="15" t="n">
-        <v>283033</v>
+        <v>272393</v>
       </c>
       <c r="AA35" s="15" t="n">
-        <v>272393</v>
+        <v>210621</v>
       </c>
       <c r="AB35" s="15" t="n">
-        <v>210621</v>
+        <v>174080</v>
       </c>
       <c r="AC35" s="15" t="n">
-        <v>174080</v>
+        <v>121738</v>
       </c>
       <c r="AD35" s="15" t="n">
-        <v>121738</v>
+        <v>86250</v>
       </c>
       <c r="AE35" s="15" t="n">
-        <v>86250</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="15" t="n">
         <v>0</v>
@@ -6607,154 +6607,154 @@
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="n">
-        <v>1375373</v>
+        <v>1865836</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>1865836</v>
+        <v>1110752</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>1110752</v>
+        <v>1473525</v>
       </c>
       <c r="H36" s="12" t="n">
-        <v>1473525</v>
+        <v>1495183</v>
       </c>
       <c r="I36" s="12" t="n">
-        <v>1495183</v>
+        <v>1385654</v>
       </c>
       <c r="J36" s="12" t="n">
-        <v>1385654</v>
+        <v>1682697</v>
       </c>
       <c r="K36" s="12" t="n">
-        <v>1682697</v>
+        <v>1844784</v>
       </c>
       <c r="L36" s="12" t="n">
-        <v>1844784</v>
+        <v>2108357</v>
       </c>
       <c r="M36" s="12" t="n">
-        <v>2108357</v>
+        <v>2224550</v>
       </c>
       <c r="N36" s="12" t="n">
-        <v>2224550</v>
+        <v>2245025</v>
       </c>
       <c r="O36" s="12" t="n">
-        <v>2245025</v>
+        <v>2160514</v>
       </c>
       <c r="P36" s="12" t="n">
-        <v>2160514</v>
+        <v>2231429</v>
       </c>
       <c r="Q36" s="12" t="n">
-        <v>2231429</v>
+        <v>4042605</v>
       </c>
       <c r="R36" s="12" t="n">
-        <v>4042605</v>
+        <v>2239551</v>
       </c>
       <c r="S36" s="12" t="n">
-        <v>2239551</v>
+        <v>2142439</v>
       </c>
       <c r="T36" s="12" t="n">
-        <v>2142439</v>
+        <v>2298856</v>
       </c>
       <c r="U36" s="12" t="n">
-        <v>2298856</v>
+        <v>2541700</v>
       </c>
       <c r="V36" s="12" t="n">
-        <v>2541700</v>
+        <v>2635036</v>
       </c>
       <c r="W36" s="12" t="n">
-        <v>2635036</v>
+        <v>2593815</v>
       </c>
       <c r="X36" s="12" t="n">
-        <v>2593815</v>
+        <v>2611827</v>
       </c>
       <c r="Y36" s="12" t="n">
-        <v>2611827</v>
+        <v>2550881</v>
       </c>
       <c r="Z36" s="12" t="n">
-        <v>2550881</v>
+        <v>2391337</v>
       </c>
       <c r="AA36" s="12" t="n">
-        <v>2391337</v>
+        <v>2106565</v>
       </c>
       <c r="AB36" s="12" t="n">
-        <v>2106565</v>
+        <v>2095587</v>
       </c>
       <c r="AC36" s="12" t="n">
-        <v>2095587</v>
+        <v>2775670</v>
       </c>
       <c r="AD36" s="12" t="n">
-        <v>2775670</v>
+        <v>2242860</v>
       </c>
       <c r="AE36" s="12" t="n">
-        <v>2242860</v>
+        <v>2304370</v>
       </c>
       <c r="AF36" s="12" t="n">
-        <v>2304370</v>
+        <v>2639319</v>
       </c>
       <c r="AG36" s="12" t="n">
-        <v>2639319</v>
+        <v>2427523</v>
       </c>
       <c r="AH36" s="12" t="n">
-        <v>2427523</v>
+        <v>2562359</v>
       </c>
       <c r="AI36" s="12" t="n">
-        <v>2562359</v>
+        <v>2800216</v>
       </c>
       <c r="AJ36" s="12" t="n">
-        <v>2800216</v>
+        <v>2523846</v>
       </c>
       <c r="AK36" s="12" t="n">
-        <v>2523846</v>
+        <v>2331925</v>
       </c>
       <c r="AL36" s="12" t="n">
-        <v>2331925</v>
+        <v>2410115</v>
       </c>
       <c r="AM36" s="12" t="n">
-        <v>2410115</v>
+        <v>2330385</v>
       </c>
       <c r="AN36" s="12" t="n">
-        <v>2330385</v>
+        <v>2337703</v>
       </c>
       <c r="AO36" s="12" t="n">
-        <v>2337703</v>
+        <v>2605945</v>
       </c>
       <c r="AP36" s="12" t="n">
-        <v>2605945</v>
+        <v>1996719</v>
       </c>
       <c r="AQ36" s="12" t="n">
-        <v>1996719</v>
+        <v>2315970</v>
       </c>
       <c r="AR36" s="12" t="n">
-        <v>2315970</v>
+        <v>1876064</v>
       </c>
       <c r="AS36" s="12" t="n">
-        <v>1876064</v>
+        <v>1873813</v>
       </c>
       <c r="AT36" s="12" t="n">
-        <v>1873813</v>
+        <v>1952996</v>
       </c>
       <c r="AU36" s="12" t="n">
-        <v>1952996</v>
+        <v>1989907</v>
       </c>
       <c r="AV36" s="12" t="n">
-        <v>1989907</v>
+        <v>1940115</v>
       </c>
       <c r="AW36" s="12" t="n">
-        <v>1940115</v>
+        <v>1852241</v>
       </c>
       <c r="AX36" s="12" t="n">
-        <v>1852241</v>
+        <v>1802272</v>
       </c>
       <c r="AY36" s="12" t="n">
-        <v>1802272</v>
+        <v>1983721</v>
       </c>
       <c r="AZ36" s="12" t="n">
-        <v>1983721</v>
+        <v>2551461</v>
       </c>
       <c r="BA36" s="12" t="n">
-        <v>2551461</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="12" t="n">
-        <v>0</v>
+        <v>2271200</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,154 +6766,154 @@
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="n">
-        <v>19896353</v>
+        <v>22124502</v>
       </c>
       <c r="F37" s="15" t="n">
-        <v>22124502</v>
+        <v>18175000</v>
       </c>
       <c r="G37" s="15" t="n">
-        <v>18175000</v>
+        <v>23917957</v>
       </c>
       <c r="H37" s="15" t="n">
-        <v>23917957</v>
+        <v>37747751</v>
       </c>
       <c r="I37" s="15" t="n">
-        <v>37747751</v>
+        <v>24531566</v>
       </c>
       <c r="J37" s="15" t="n">
-        <v>24531566</v>
+        <v>25549280</v>
       </c>
       <c r="K37" s="15" t="n">
-        <v>25549280</v>
+        <v>26360436</v>
       </c>
       <c r="L37" s="15" t="n">
-        <v>26360436</v>
+        <v>23676600</v>
       </c>
       <c r="M37" s="15" t="n">
-        <v>23676600</v>
+        <v>24285735</v>
       </c>
       <c r="N37" s="15" t="n">
-        <v>24285735</v>
+        <v>27718117</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>27718117</v>
+        <v>28288675</v>
       </c>
       <c r="P37" s="15" t="n">
-        <v>28288675</v>
+        <v>26826691</v>
       </c>
       <c r="Q37" s="15" t="n">
-        <v>26826691</v>
+        <v>36100791</v>
       </c>
       <c r="R37" s="15" t="n">
-        <v>36100791</v>
+        <v>30765673</v>
       </c>
       <c r="S37" s="15" t="n">
-        <v>30765673</v>
+        <v>30780036</v>
       </c>
       <c r="T37" s="15" t="n">
-        <v>30780036</v>
+        <v>32076277</v>
       </c>
       <c r="U37" s="15" t="n">
-        <v>32076277</v>
+        <v>30339987</v>
       </c>
       <c r="V37" s="15" t="n">
-        <v>30339987</v>
+        <v>33185494</v>
       </c>
       <c r="W37" s="15" t="n">
-        <v>33185494</v>
+        <v>31092530</v>
       </c>
       <c r="X37" s="15" t="n">
-        <v>31092530</v>
+        <v>29467135</v>
       </c>
       <c r="Y37" s="15" t="n">
-        <v>29467135</v>
+        <v>30089287</v>
       </c>
       <c r="Z37" s="15" t="n">
-        <v>30089287</v>
+        <v>30598330</v>
       </c>
       <c r="AA37" s="15" t="n">
-        <v>30598330</v>
+        <v>28352398</v>
       </c>
       <c r="AB37" s="15" t="n">
-        <v>28352398</v>
+        <v>27728429</v>
       </c>
       <c r="AC37" s="15" t="n">
-        <v>27728429</v>
+        <v>29817853</v>
       </c>
       <c r="AD37" s="15" t="n">
-        <v>29817853</v>
+        <v>27253387</v>
       </c>
       <c r="AE37" s="15" t="n">
-        <v>27253387</v>
+        <v>31028661</v>
       </c>
       <c r="AF37" s="15" t="n">
-        <v>31028661</v>
+        <v>33228542</v>
       </c>
       <c r="AG37" s="15" t="n">
-        <v>33228542</v>
+        <v>33720402</v>
       </c>
       <c r="AH37" s="15" t="n">
-        <v>33720402</v>
+        <v>33519755</v>
       </c>
       <c r="AI37" s="15" t="n">
-        <v>33519755</v>
+        <v>33756058</v>
       </c>
       <c r="AJ37" s="15" t="n">
-        <v>33756058</v>
+        <v>29258226</v>
       </c>
       <c r="AK37" s="15" t="n">
-        <v>29258226</v>
+        <v>27508476</v>
       </c>
       <c r="AL37" s="15" t="n">
-        <v>27508476</v>
+        <v>27884234</v>
       </c>
       <c r="AM37" s="15" t="n">
-        <v>27884234</v>
+        <v>27053859</v>
       </c>
       <c r="AN37" s="15" t="n">
-        <v>27053859</v>
+        <v>27624335</v>
       </c>
       <c r="AO37" s="15" t="n">
-        <v>27624335</v>
+        <v>28596619</v>
       </c>
       <c r="AP37" s="15" t="n">
-        <v>28596619</v>
+        <v>27720113</v>
       </c>
       <c r="AQ37" s="15" t="n">
-        <v>27720113</v>
+        <v>35902084</v>
       </c>
       <c r="AR37" s="15" t="n">
-        <v>35902084</v>
+        <v>28405738</v>
       </c>
       <c r="AS37" s="15" t="n">
-        <v>28405738</v>
+        <v>27973099</v>
       </c>
       <c r="AT37" s="15" t="n">
-        <v>27973099</v>
+        <v>25968930</v>
       </c>
       <c r="AU37" s="15" t="n">
-        <v>25968930</v>
+        <v>27613600</v>
       </c>
       <c r="AV37" s="15" t="n">
-        <v>27613600</v>
+        <v>26757928</v>
       </c>
       <c r="AW37" s="15" t="n">
-        <v>26757928</v>
+        <v>22485348</v>
       </c>
       <c r="AX37" s="15" t="n">
-        <v>22485348</v>
+        <v>21782670</v>
       </c>
       <c r="AY37" s="15" t="n">
-        <v>21782670</v>
+        <v>23835702</v>
       </c>
       <c r="AZ37" s="15" t="n">
-        <v>23835702</v>
+        <v>27280784</v>
       </c>
       <c r="BA37" s="15" t="n">
-        <v>27280784</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="15" t="n">
-        <v>0</v>
+        <v>30502332</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,127 +6925,127 @@
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="n">
-        <v>79952</v>
+        <v>140831</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>140831</v>
+        <v>9313</v>
       </c>
       <c r="G38" s="12" t="n">
-        <v>9313</v>
+        <v>9974</v>
       </c>
       <c r="H38" s="12" t="n">
-        <v>9974</v>
+        <v>8988</v>
       </c>
       <c r="I38" s="12" t="n">
-        <v>8988</v>
+        <v>6821</v>
       </c>
       <c r="J38" s="12" t="n">
-        <v>6821</v>
+        <v>5012</v>
       </c>
       <c r="K38" s="12" t="n">
-        <v>5012</v>
+        <v>4834</v>
       </c>
       <c r="L38" s="12" t="n">
-        <v>4834</v>
+        <v>3870</v>
       </c>
       <c r="M38" s="12" t="n">
-        <v>3870</v>
+        <v>3472</v>
       </c>
       <c r="N38" s="12" t="n">
-        <v>3472</v>
+        <v>4081</v>
       </c>
       <c r="O38" s="12" t="n">
-        <v>4081</v>
+        <v>4140</v>
       </c>
       <c r="P38" s="12" t="n">
-        <v>4140</v>
+        <v>4549</v>
       </c>
       <c r="Q38" s="12" t="n">
-        <v>4549</v>
+        <v>4602</v>
       </c>
       <c r="R38" s="12" t="n">
-        <v>4602</v>
+        <v>3188</v>
       </c>
       <c r="S38" s="12" t="n">
-        <v>3188</v>
+        <v>4435</v>
       </c>
       <c r="T38" s="12" t="n">
-        <v>4435</v>
+        <v>6871</v>
       </c>
       <c r="U38" s="12" t="n">
-        <v>6871</v>
+        <v>5655</v>
       </c>
       <c r="V38" s="12" t="n">
-        <v>5655</v>
+        <v>5494</v>
       </c>
       <c r="W38" s="12" t="n">
-        <v>5494</v>
+        <v>4796</v>
       </c>
       <c r="X38" s="12" t="n">
-        <v>4796</v>
+        <v>161421120</v>
       </c>
       <c r="Y38" s="12" t="n">
-        <v>161421120</v>
+        <v>2597</v>
       </c>
       <c r="Z38" s="12" t="n">
-        <v>2597</v>
+        <v>2248</v>
       </c>
       <c r="AA38" s="12" t="n">
-        <v>2248</v>
+        <v>1914</v>
       </c>
       <c r="AB38" s="12" t="n">
-        <v>1914</v>
+        <v>2085</v>
       </c>
       <c r="AC38" s="12" t="n">
-        <v>2085</v>
+        <v>2759</v>
       </c>
       <c r="AD38" s="12" t="n">
-        <v>2759</v>
+        <v>2822</v>
       </c>
       <c r="AE38" s="12" t="n">
-        <v>2822</v>
+        <v>111810</v>
       </c>
       <c r="AF38" s="12" t="n">
-        <v>111810</v>
+        <v>106030</v>
       </c>
       <c r="AG38" s="12" t="n">
-        <v>106030</v>
+        <v>57510</v>
       </c>
       <c r="AH38" s="12" t="n">
-        <v>57510</v>
+        <v>25041</v>
       </c>
       <c r="AI38" s="12" t="n">
-        <v>25041</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="12" t="n">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="AK38" s="12" t="n">
-        <v>6443</v>
+        <v>5988</v>
       </c>
       <c r="AL38" s="12" t="n">
-        <v>5988</v>
+        <v>9023</v>
       </c>
       <c r="AM38" s="12" t="n">
-        <v>9023</v>
+        <v>215</v>
       </c>
       <c r="AN38" s="12" t="n">
-        <v>215</v>
+        <v>1117</v>
       </c>
       <c r="AO38" s="12" t="n">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="12" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AQ38" s="12" t="n">
-        <v>713</v>
+        <v>251</v>
       </c>
       <c r="AR38" s="12" t="n">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AS38" s="12" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="12" t="n">
         <v>0</v>
@@ -7054,22 +7054,22 @@
         <v>0</v>
       </c>
       <c r="AV38" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AW38" s="12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="12" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AY38" s="12" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="12" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="BA38" s="12" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="12" t="n">
         <v>0</v>
@@ -7197,41 +7197,41 @@
       <c r="AP39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AQ39" s="15" t="s">
-        <v>66</v>
+      <c r="AQ39" s="15" t="n">
+        <v>201266</v>
       </c>
       <c r="AR39" s="15" t="n">
-        <v>201266</v>
+        <v>395223</v>
       </c>
       <c r="AS39" s="15" t="n">
-        <v>395223</v>
+        <v>507987</v>
       </c>
       <c r="AT39" s="15" t="n">
-        <v>507987</v>
+        <v>824330</v>
       </c>
       <c r="AU39" s="15" t="n">
-        <v>824330</v>
+        <v>1346724</v>
       </c>
       <c r="AV39" s="15" t="n">
-        <v>1346724</v>
+        <v>901773</v>
       </c>
       <c r="AW39" s="15" t="n">
-        <v>901773</v>
+        <v>744313</v>
       </c>
       <c r="AX39" s="15" t="n">
-        <v>744313</v>
+        <v>809954</v>
       </c>
       <c r="AY39" s="15" t="n">
-        <v>809954</v>
+        <v>981146</v>
       </c>
       <c r="AZ39" s="15" t="n">
-        <v>981146</v>
+        <v>991745</v>
       </c>
       <c r="BA39" s="15" t="n">
-        <v>991745</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="15" t="n">
-        <v>0</v>
+        <v>1496262</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,8 +7345,8 @@
       <c r="T41" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U41" s="19" t="s">
-        <v>66</v>
+      <c r="U41" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="19" t="n">
         <v>0</v>
@@ -7559,8 +7559,8 @@
       <c r="T43" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U43" s="19" t="s">
-        <v>66</v>
+      <c r="U43" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="19" t="n">
         <v>0</v>
@@ -7669,154 +7669,154 @@
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="n">
-        <v>79879208</v>
+        <v>99096564</v>
       </c>
       <c r="F44" s="21" t="n">
-        <v>99096564</v>
+        <v>67592257</v>
       </c>
       <c r="G44" s="21" t="n">
-        <v>67592257</v>
+        <v>90086269</v>
       </c>
       <c r="H44" s="21" t="n">
-        <v>90086269</v>
+        <v>99461605</v>
       </c>
       <c r="I44" s="21" t="n">
-        <v>99461605</v>
+        <v>79569095</v>
       </c>
       <c r="J44" s="21" t="n">
-        <v>79569095</v>
+        <v>90570640</v>
       </c>
       <c r="K44" s="21" t="n">
-        <v>90570640</v>
+        <v>96823796</v>
       </c>
       <c r="L44" s="21" t="n">
-        <v>96823796</v>
+        <v>96553521</v>
       </c>
       <c r="M44" s="21" t="n">
-        <v>96553521</v>
+        <v>98055173</v>
       </c>
       <c r="N44" s="21" t="n">
-        <v>98055173</v>
+        <v>105875841</v>
       </c>
       <c r="O44" s="21" t="n">
-        <v>105875841</v>
+        <v>101271055</v>
       </c>
       <c r="P44" s="21" t="n">
-        <v>101271055</v>
+        <v>100514042</v>
       </c>
       <c r="Q44" s="21" t="n">
-        <v>100514042</v>
+        <v>148599979</v>
       </c>
       <c r="R44" s="21" t="n">
-        <v>148599979</v>
+        <v>101507982</v>
       </c>
       <c r="S44" s="21" t="n">
-        <v>101507982</v>
+        <v>106595819</v>
       </c>
       <c r="T44" s="21" t="n">
-        <v>106595819</v>
+        <v>109556101</v>
       </c>
       <c r="U44" s="21" t="n">
-        <v>109556101</v>
+        <v>120897071</v>
       </c>
       <c r="V44" s="21" t="n">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="W44" s="21" t="n">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="X44" s="21" t="n">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="Y44" s="21" t="n">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="Z44" s="21" t="n">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AA44" s="21" t="n">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AB44" s="21" t="n">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AC44" s="21" t="n">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AD44" s="21" t="n">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AE44" s="21" t="n">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AF44" s="21" t="n">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AG44" s="21" t="n">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AH44" s="21" t="n">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AI44" s="21" t="n">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AJ44" s="21" t="n">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AK44" s="21" t="n">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AL44" s="21" t="n">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AM44" s="21" t="n">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AN44" s="21" t="n">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AO44" s="21" t="n">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AP44" s="21" t="n">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AQ44" s="21" t="n">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AR44" s="21" t="n">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AS44" s="21" t="n">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AT44" s="21" t="n">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AU44" s="21" t="n">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AV44" s="21" t="n">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AW44" s="21" t="n">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AX44" s="21" t="n">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="AY44" s="21" t="n">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="AZ44" s="21" t="n">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
       <c r="BA44" s="21" t="n">
-        <v>117240452</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="21" t="n">
-        <v>0</v>
+        <v>112295725</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8262,154 +8262,154 @@
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12" t="n">
-        <v>9226</v>
+        <v>12088</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>12088</v>
+        <v>6925</v>
       </c>
       <c r="G51" s="12" t="n">
-        <v>6925</v>
+        <v>8758</v>
       </c>
       <c r="H51" s="12" t="n">
-        <v>8758</v>
+        <v>9762</v>
       </c>
       <c r="I51" s="12" t="n">
-        <v>9762</v>
+        <v>9160</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>9160</v>
+        <v>11485</v>
       </c>
       <c r="K51" s="12" t="n">
-        <v>11485</v>
+        <v>14428</v>
       </c>
       <c r="L51" s="12" t="n">
-        <v>14428</v>
+        <v>16986</v>
       </c>
       <c r="M51" s="12" t="n">
-        <v>16986</v>
+        <v>19409</v>
       </c>
       <c r="N51" s="12" t="n">
-        <v>19409</v>
+        <v>20542</v>
       </c>
       <c r="O51" s="12" t="n">
-        <v>20542</v>
+        <v>19234</v>
       </c>
       <c r="P51" s="12" t="n">
-        <v>19234</v>
+        <v>21333</v>
       </c>
       <c r="Q51" s="12" t="n">
-        <v>21333</v>
+        <v>26773</v>
       </c>
       <c r="R51" s="12" t="n">
-        <v>26773</v>
+        <v>14602</v>
       </c>
       <c r="S51" s="12" t="n">
-        <v>14602</v>
+        <v>15967</v>
       </c>
       <c r="T51" s="12" t="n">
-        <v>15967</v>
+        <v>18562</v>
       </c>
       <c r="U51" s="12" t="n">
-        <v>18562</v>
+        <v>19257</v>
       </c>
       <c r="V51" s="12" t="n">
-        <v>19257</v>
+        <v>19091</v>
       </c>
       <c r="W51" s="12" t="n">
-        <v>19091</v>
+        <v>21686</v>
       </c>
       <c r="X51" s="12" t="n">
-        <v>21686</v>
+        <v>25120</v>
       </c>
       <c r="Y51" s="12" t="n">
-        <v>25120</v>
+        <v>28085</v>
       </c>
       <c r="Z51" s="12" t="n">
-        <v>28085</v>
+        <v>31177</v>
       </c>
       <c r="AA51" s="12" t="n">
-        <v>31177</v>
+        <v>26729</v>
       </c>
       <c r="AB51" s="12" t="n">
-        <v>26729</v>
+        <v>24057</v>
       </c>
       <c r="AC51" s="12" t="n">
-        <v>24057</v>
+        <v>29822</v>
       </c>
       <c r="AD51" s="12" t="n">
-        <v>29822</v>
+        <v>16880</v>
       </c>
       <c r="AE51" s="12" t="n">
-        <v>16880</v>
+        <v>11091</v>
       </c>
       <c r="AF51" s="12" t="n">
-        <v>11091</v>
+        <v>19898</v>
       </c>
       <c r="AG51" s="12" t="n">
-        <v>19898</v>
+        <v>22155</v>
       </c>
       <c r="AH51" s="12" t="n">
-        <v>22155</v>
+        <v>21017</v>
       </c>
       <c r="AI51" s="12" t="n">
-        <v>21017</v>
+        <v>29361</v>
       </c>
       <c r="AJ51" s="12" t="n">
-        <v>29361</v>
+        <v>30583</v>
       </c>
       <c r="AK51" s="12" t="n">
-        <v>30583</v>
+        <v>29217</v>
       </c>
       <c r="AL51" s="12" t="n">
-        <v>29217</v>
+        <v>32352</v>
       </c>
       <c r="AM51" s="12" t="n">
-        <v>32352</v>
+        <v>30611</v>
       </c>
       <c r="AN51" s="12" t="n">
-        <v>30611</v>
+        <v>28504</v>
       </c>
       <c r="AO51" s="12" t="n">
-        <v>28504</v>
+        <v>25982</v>
       </c>
       <c r="AP51" s="12" t="n">
-        <v>25982</v>
+        <v>21147</v>
       </c>
       <c r="AQ51" s="12" t="n">
-        <v>21147</v>
+        <v>24586</v>
       </c>
       <c r="AR51" s="12" t="n">
-        <v>24586</v>
+        <v>20484</v>
       </c>
       <c r="AS51" s="12" t="n">
-        <v>20484</v>
+        <v>22006</v>
       </c>
       <c r="AT51" s="12" t="n">
-        <v>22006</v>
+        <v>22320</v>
       </c>
       <c r="AU51" s="12" t="n">
-        <v>22320</v>
+        <v>24122</v>
       </c>
       <c r="AV51" s="12" t="n">
-        <v>24122</v>
+        <v>26782</v>
       </c>
       <c r="AW51" s="12" t="n">
-        <v>26782</v>
+        <v>24834</v>
       </c>
       <c r="AX51" s="12" t="n">
-        <v>24834</v>
+        <v>23821</v>
       </c>
       <c r="AY51" s="12" t="n">
-        <v>23821</v>
+        <v>29723</v>
       </c>
       <c r="AZ51" s="12" t="n">
-        <v>29723</v>
+        <v>47070</v>
       </c>
       <c r="BA51" s="12" t="n">
-        <v>47070</v>
+        <v>35904</v>
       </c>
       <c r="BB51" s="12" t="n">
-        <v>35904</v>
+        <v>26876</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,154 +8421,154 @@
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="n">
-        <v>167966</v>
+        <v>202383</v>
       </c>
       <c r="F52" s="15" t="n">
-        <v>202383</v>
+        <v>204713</v>
       </c>
       <c r="G52" s="15" t="n">
-        <v>204713</v>
+        <v>273939</v>
       </c>
       <c r="H52" s="15" t="n">
-        <v>273939</v>
+        <v>354007</v>
       </c>
       <c r="I52" s="15" t="n">
-        <v>354007</v>
+        <v>342804</v>
       </c>
       <c r="J52" s="15" t="n">
-        <v>342804</v>
+        <v>390270</v>
       </c>
       <c r="K52" s="15" t="n">
-        <v>390270</v>
+        <v>358303</v>
       </c>
       <c r="L52" s="15" t="n">
-        <v>358303</v>
+        <v>313049</v>
       </c>
       <c r="M52" s="15" t="n">
-        <v>313049</v>
+        <v>267994</v>
       </c>
       <c r="N52" s="15" t="n">
-        <v>267994</v>
+        <v>281635</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>281635</v>
+        <v>264430</v>
       </c>
       <c r="P52" s="15" t="n">
-        <v>264430</v>
+        <v>288041</v>
       </c>
       <c r="Q52" s="15" t="n">
-        <v>288041</v>
+        <v>363830</v>
       </c>
       <c r="R52" s="15" t="n">
-        <v>363830</v>
+        <v>307929</v>
       </c>
       <c r="S52" s="15" t="n">
-        <v>307929</v>
+        <v>390251</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>390251</v>
+        <v>526417</v>
       </c>
       <c r="U52" s="15" t="n">
-        <v>526417</v>
+        <v>585002</v>
       </c>
       <c r="V52" s="15" t="n">
-        <v>585002</v>
+        <v>729611</v>
       </c>
       <c r="W52" s="15" t="n">
-        <v>729611</v>
+        <v>648355</v>
       </c>
       <c r="X52" s="15" t="n">
-        <v>648355</v>
+        <v>636887</v>
       </c>
       <c r="Y52" s="15" t="n">
-        <v>636887</v>
+        <v>670461</v>
       </c>
       <c r="Z52" s="15" t="n">
-        <v>670461</v>
+        <v>599483</v>
       </c>
       <c r="AA52" s="15" t="n">
-        <v>599483</v>
+        <v>583108</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>583108</v>
+        <v>643083</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>643083</v>
+        <v>756688</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>756688</v>
+        <v>914139</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>914139</v>
+        <v>1091281</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>1091281</v>
+        <v>1359509</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>1359509</v>
+        <v>1545280</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>1545280</v>
+        <v>1508859</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>1508859</v>
+        <v>1523560</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>1523560</v>
+        <v>1249471</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>1249471</v>
+        <v>1017604</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>1017604</v>
+        <v>1072647</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>1072647</v>
+        <v>945572</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>945572</v>
+        <v>938030</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>938030</v>
+        <v>1011912</v>
       </c>
       <c r="AP52" s="15" t="n">
-        <v>1011912</v>
+        <v>1159348</v>
       </c>
       <c r="AQ52" s="15" t="n">
-        <v>1159348</v>
+        <v>1356891</v>
       </c>
       <c r="AR52" s="15" t="n">
-        <v>1356891</v>
+        <v>1526004</v>
       </c>
       <c r="AS52" s="15" t="n">
-        <v>1526004</v>
+        <v>1727081</v>
       </c>
       <c r="AT52" s="15" t="n">
-        <v>1727081</v>
+        <v>1710685</v>
       </c>
       <c r="AU52" s="15" t="n">
-        <v>1710685</v>
+        <v>1747365</v>
       </c>
       <c r="AV52" s="15" t="n">
-        <v>1747365</v>
+        <v>1436820</v>
       </c>
       <c r="AW52" s="15" t="n">
-        <v>1436820</v>
+        <v>1064517</v>
       </c>
       <c r="AX52" s="15" t="n">
-        <v>1064517</v>
+        <v>1047146</v>
       </c>
       <c r="AY52" s="15" t="n">
-        <v>1047146</v>
+        <v>1143177</v>
       </c>
       <c r="AZ52" s="15" t="n">
-        <v>1143177</v>
+        <v>1228545</v>
       </c>
       <c r="BA52" s="15" t="n">
-        <v>1228545</v>
+        <v>1557019</v>
       </c>
       <c r="BB52" s="15" t="n">
-        <v>1557019</v>
+        <v>1756633</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,154 +8580,154 @@
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12" t="n">
-        <v>1147244</v>
+        <v>1518982</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1518982</v>
+        <v>904839</v>
       </c>
       <c r="G53" s="12" t="n">
-        <v>904839</v>
+        <v>1230952</v>
       </c>
       <c r="H53" s="12" t="n">
-        <v>1230952</v>
+        <v>1232585</v>
       </c>
       <c r="I53" s="12" t="n">
-        <v>1232585</v>
+        <v>1239695</v>
       </c>
       <c r="J53" s="12" t="n">
-        <v>1239695</v>
+        <v>1461718</v>
       </c>
       <c r="K53" s="12" t="n">
-        <v>1461718</v>
+        <v>1575057</v>
       </c>
       <c r="L53" s="12" t="n">
-        <v>1575057</v>
+        <v>1541073</v>
       </c>
       <c r="M53" s="12" t="n">
-        <v>1541073</v>
+        <v>1602288</v>
       </c>
       <c r="N53" s="12" t="n">
-        <v>1602288</v>
+        <v>1667371</v>
       </c>
       <c r="O53" s="12" t="n">
-        <v>1667371</v>
+        <v>1613085</v>
       </c>
       <c r="P53" s="12" t="n">
-        <v>1613085</v>
+        <v>1651771</v>
       </c>
       <c r="Q53" s="12" t="n">
-        <v>1651771</v>
+        <v>3191684</v>
       </c>
       <c r="R53" s="12" t="n">
-        <v>3191684</v>
+        <v>1474820</v>
       </c>
       <c r="S53" s="12" t="n">
-        <v>1474820</v>
+        <v>1657987</v>
       </c>
       <c r="T53" s="12" t="n">
-        <v>1657987</v>
+        <v>1878689</v>
       </c>
       <c r="U53" s="12" t="n">
-        <v>1878689</v>
+        <v>2151811</v>
       </c>
       <c r="V53" s="12" t="n">
-        <v>2151811</v>
+        <v>2285483</v>
       </c>
       <c r="W53" s="12" t="n">
-        <v>2285483</v>
+        <v>2425327</v>
       </c>
       <c r="X53" s="12" t="n">
-        <v>2425327</v>
+        <v>2631987</v>
       </c>
       <c r="Y53" s="12" t="n">
-        <v>2631987</v>
+        <v>3093213</v>
       </c>
       <c r="Z53" s="12" t="n">
-        <v>3093213</v>
+        <v>2844327</v>
       </c>
       <c r="AA53" s="12" t="n">
-        <v>2844327</v>
+        <v>2898215</v>
       </c>
       <c r="AB53" s="12" t="n">
-        <v>2898215</v>
+        <v>2997082</v>
       </c>
       <c r="AC53" s="12" t="n">
-        <v>2997082</v>
+        <v>3925203</v>
       </c>
       <c r="AD53" s="12" t="n">
-        <v>3925203</v>
+        <v>2999325</v>
       </c>
       <c r="AE53" s="12" t="n">
-        <v>2999325</v>
+        <v>3449680</v>
       </c>
       <c r="AF53" s="12" t="n">
-        <v>3449680</v>
+        <v>3743355</v>
       </c>
       <c r="AG53" s="12" t="n">
-        <v>3743355</v>
+        <v>3920905</v>
       </c>
       <c r="AH53" s="12" t="n">
-        <v>3920905</v>
+        <v>3993741</v>
       </c>
       <c r="AI53" s="12" t="n">
-        <v>3993741</v>
+        <v>4439205</v>
       </c>
       <c r="AJ53" s="12" t="n">
-        <v>4439205</v>
+        <v>4062786</v>
       </c>
       <c r="AK53" s="12" t="n">
-        <v>4062786</v>
+        <v>4009310</v>
       </c>
       <c r="AL53" s="12" t="n">
-        <v>4009310</v>
+        <v>4211898</v>
       </c>
       <c r="AM53" s="12" t="n">
-        <v>4211898</v>
+        <v>4130260</v>
       </c>
       <c r="AN53" s="12" t="n">
-        <v>4130260</v>
+        <v>4061542</v>
       </c>
       <c r="AO53" s="12" t="n">
-        <v>4061542</v>
+        <v>5012506</v>
       </c>
       <c r="AP53" s="12" t="n">
-        <v>5012506</v>
+        <v>3503471</v>
       </c>
       <c r="AQ53" s="12" t="n">
-        <v>3503471</v>
+        <v>5722771</v>
       </c>
       <c r="AR53" s="12" t="n">
-        <v>5722771</v>
+        <v>4711193</v>
       </c>
       <c r="AS53" s="12" t="n">
-        <v>4711193</v>
+        <v>3967881</v>
       </c>
       <c r="AT53" s="12" t="n">
-        <v>3967881</v>
+        <v>4241702</v>
       </c>
       <c r="AU53" s="12" t="n">
-        <v>4241702</v>
+        <v>4603288</v>
       </c>
       <c r="AV53" s="12" t="n">
-        <v>4603288</v>
+        <v>4744859</v>
       </c>
       <c r="AW53" s="12" t="n">
-        <v>4744859</v>
+        <v>4443387</v>
       </c>
       <c r="AX53" s="12" t="n">
-        <v>4443387</v>
+        <v>4607831</v>
       </c>
       <c r="AY53" s="12" t="n">
-        <v>4607831</v>
+        <v>5307938</v>
       </c>
       <c r="AZ53" s="12" t="n">
-        <v>5307938</v>
+        <v>5428002</v>
       </c>
       <c r="BA53" s="12" t="n">
-        <v>5428002</v>
+        <v>7144435</v>
       </c>
       <c r="BB53" s="12" t="n">
-        <v>7144435</v>
+        <v>4803805</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,154 +8739,154 @@
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15" t="n">
-        <v>2468338</v>
+        <v>3453565</v>
       </c>
       <c r="F54" s="15" t="n">
-        <v>3453565</v>
+        <v>2028780</v>
       </c>
       <c r="G54" s="15" t="n">
-        <v>2028780</v>
+        <v>2920619</v>
       </c>
       <c r="H54" s="15" t="n">
-        <v>2920619</v>
+        <v>2604943</v>
       </c>
       <c r="I54" s="15" t="n">
-        <v>2604943</v>
+        <v>2488429</v>
       </c>
       <c r="J54" s="15" t="n">
-        <v>2488429</v>
+        <v>2975121</v>
       </c>
       <c r="K54" s="15" t="n">
-        <v>2975121</v>
+        <v>3273152</v>
       </c>
       <c r="L54" s="15" t="n">
-        <v>3273152</v>
+        <v>3106797</v>
       </c>
       <c r="M54" s="15" t="n">
-        <v>3106797</v>
+        <v>3425031</v>
       </c>
       <c r="N54" s="15" t="n">
-        <v>3425031</v>
+        <v>3700580</v>
       </c>
       <c r="O54" s="15" t="n">
-        <v>3700580</v>
+        <v>3471847</v>
       </c>
       <c r="P54" s="15" t="n">
-        <v>3471847</v>
+        <v>3767354</v>
       </c>
       <c r="Q54" s="15" t="n">
-        <v>3767354</v>
+        <v>6114291</v>
       </c>
       <c r="R54" s="15" t="n">
-        <v>6114291</v>
+        <v>3680929</v>
       </c>
       <c r="S54" s="15" t="n">
-        <v>3680929</v>
+        <v>4221481</v>
       </c>
       <c r="T54" s="15" t="n">
-        <v>4221481</v>
+        <v>4021188</v>
       </c>
       <c r="U54" s="15" t="n">
-        <v>4021188</v>
+        <v>4990908</v>
       </c>
       <c r="V54" s="15" t="n">
-        <v>4990908</v>
+        <v>5265812</v>
       </c>
       <c r="W54" s="15" t="n">
-        <v>5265812</v>
+        <v>5900747</v>
       </c>
       <c r="X54" s="15" t="n">
-        <v>5900747</v>
+        <v>6504085</v>
       </c>
       <c r="Y54" s="15" t="n">
-        <v>6504085</v>
+        <v>7219003</v>
       </c>
       <c r="Z54" s="15" t="n">
-        <v>7219003</v>
+        <v>7311372</v>
       </c>
       <c r="AA54" s="15" t="n">
-        <v>7311372</v>
+        <v>6935743</v>
       </c>
       <c r="AB54" s="15" t="n">
-        <v>6935743</v>
+        <v>7296125</v>
       </c>
       <c r="AC54" s="15" t="n">
-        <v>7296125</v>
+        <v>8748094</v>
       </c>
       <c r="AD54" s="15" t="n">
-        <v>8748094</v>
+        <v>6509840</v>
       </c>
       <c r="AE54" s="15" t="n">
-        <v>6509840</v>
+        <v>8066608</v>
       </c>
       <c r="AF54" s="15" t="n">
-        <v>8066608</v>
+        <v>7626220</v>
       </c>
       <c r="AG54" s="15" t="n">
-        <v>7626220</v>
+        <v>7920911</v>
       </c>
       <c r="AH54" s="15" t="n">
-        <v>7920911</v>
+        <v>8360736</v>
       </c>
       <c r="AI54" s="15" t="n">
-        <v>8360736</v>
+        <v>10101834</v>
       </c>
       <c r="AJ54" s="15" t="n">
-        <v>10101834</v>
+        <v>8398934</v>
       </c>
       <c r="AK54" s="15" t="n">
-        <v>8398934</v>
+        <v>8499351</v>
       </c>
       <c r="AL54" s="15" t="n">
-        <v>8499351</v>
+        <v>9596331</v>
       </c>
       <c r="AM54" s="15" t="n">
-        <v>9596331</v>
+        <v>10347719</v>
       </c>
       <c r="AN54" s="15" t="n">
-        <v>10347719</v>
+        <v>10772289</v>
       </c>
       <c r="AO54" s="15" t="n">
-        <v>10772289</v>
+        <v>13235697</v>
       </c>
       <c r="AP54" s="15" t="n">
-        <v>13235697</v>
+        <v>9796097</v>
       </c>
       <c r="AQ54" s="15" t="n">
-        <v>9796097</v>
+        <v>14324572</v>
       </c>
       <c r="AR54" s="15" t="n">
-        <v>14324572</v>
+        <v>13498000</v>
       </c>
       <c r="AS54" s="15" t="n">
-        <v>13498000</v>
+        <v>14494598</v>
       </c>
       <c r="AT54" s="15" t="n">
-        <v>14494598</v>
+        <v>14227007</v>
       </c>
       <c r="AU54" s="15" t="n">
-        <v>14227007</v>
+        <v>14823623</v>
       </c>
       <c r="AV54" s="15" t="n">
-        <v>14823623</v>
+        <v>14758883</v>
       </c>
       <c r="AW54" s="15" t="n">
-        <v>14758883</v>
+        <v>13660816</v>
       </c>
       <c r="AX54" s="15" t="n">
-        <v>13660816</v>
+        <v>14326316</v>
       </c>
       <c r="AY54" s="15" t="n">
-        <v>14326316</v>
+        <v>16814363</v>
       </c>
       <c r="AZ54" s="15" t="n">
-        <v>16814363</v>
+        <v>18473690</v>
       </c>
       <c r="BA54" s="15" t="n">
-        <v>18473690</v>
+        <v>25748752</v>
       </c>
       <c r="BB54" s="15" t="n">
-        <v>25748752</v>
+        <v>16902409</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,34 +8898,34 @@
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12" t="n">
-        <v>108</v>
+        <v>1015</v>
       </c>
       <c r="F55" s="12" t="n">
-        <v>1015</v>
+        <v>134</v>
       </c>
       <c r="G55" s="12" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="H55" s="12" t="n">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="I55" s="12" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="J55" s="12" t="n">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="K55" s="12" t="n">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="L55" s="12" t="n">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="M55" s="12" t="n">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="N55" s="12" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="O55" s="12" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="AI55" s="12" t="n">
-        <v>0</v>
+        <v>2755119</v>
       </c>
       <c r="AJ55" s="12" t="n">
-        <v>2755119</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="12" t="n">
         <v>0</v>
@@ -9015,37 +9015,37 @@
         <v>0</v>
       </c>
       <c r="AR55" s="12" t="n">
-        <v>0</v>
+        <v>103535</v>
       </c>
       <c r="AS55" s="12" t="n">
-        <v>103535</v>
+        <v>8731</v>
       </c>
       <c r="AT55" s="12" t="n">
-        <v>8731</v>
+        <v>5038</v>
       </c>
       <c r="AU55" s="12" t="n">
-        <v>5038</v>
+        <v>279748</v>
       </c>
       <c r="AV55" s="12" t="n">
-        <v>279748</v>
+        <v>4506</v>
       </c>
       <c r="AW55" s="12" t="n">
-        <v>4506</v>
+        <v>4331</v>
       </c>
       <c r="AX55" s="12" t="n">
-        <v>4331</v>
+        <v>164511</v>
       </c>
       <c r="AY55" s="12" t="n">
-        <v>164511</v>
+        <v>4526</v>
       </c>
       <c r="AZ55" s="12" t="n">
-        <v>4526</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="12" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="BB55" s="12" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,85 +9057,85 @@
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15" t="n">
-        <v>15610</v>
+        <v>25194</v>
       </c>
       <c r="F56" s="15" t="n">
-        <v>25194</v>
+        <v>16389</v>
       </c>
       <c r="G56" s="15" t="n">
-        <v>16389</v>
+        <v>25824</v>
       </c>
       <c r="H56" s="15" t="n">
-        <v>25824</v>
+        <v>26883</v>
       </c>
       <c r="I56" s="15" t="n">
-        <v>26883</v>
+        <v>28982</v>
       </c>
       <c r="J56" s="15" t="n">
-        <v>28982</v>
+        <v>34968</v>
       </c>
       <c r="K56" s="15" t="n">
-        <v>34968</v>
+        <v>36736</v>
       </c>
       <c r="L56" s="15" t="n">
-        <v>36736</v>
+        <v>44702</v>
       </c>
       <c r="M56" s="15" t="n">
-        <v>44702</v>
+        <v>51316</v>
       </c>
       <c r="N56" s="15" t="n">
-        <v>51316</v>
+        <v>67932</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>67932</v>
+        <v>50769</v>
       </c>
       <c r="P56" s="15" t="n">
-        <v>50769</v>
+        <v>53676</v>
       </c>
       <c r="Q56" s="15" t="n">
-        <v>53676</v>
+        <v>89320</v>
       </c>
       <c r="R56" s="15" t="n">
-        <v>89320</v>
+        <v>50925</v>
       </c>
       <c r="S56" s="15" t="n">
-        <v>50925</v>
+        <v>48082</v>
       </c>
       <c r="T56" s="15" t="n">
-        <v>48082</v>
+        <v>40152</v>
       </c>
       <c r="U56" s="15" t="n">
-        <v>40152</v>
+        <v>44553</v>
       </c>
       <c r="V56" s="15" t="n">
-        <v>44553</v>
+        <v>54408</v>
       </c>
       <c r="W56" s="15" t="n">
-        <v>54408</v>
+        <v>49016</v>
       </c>
       <c r="X56" s="15" t="n">
-        <v>49016</v>
+        <v>46330</v>
       </c>
       <c r="Y56" s="15" t="n">
-        <v>46330</v>
+        <v>32613</v>
       </c>
       <c r="Z56" s="15" t="n">
-        <v>32613</v>
+        <v>33980</v>
       </c>
       <c r="AA56" s="15" t="n">
-        <v>33980</v>
+        <v>26077</v>
       </c>
       <c r="AB56" s="15" t="n">
-        <v>26077</v>
+        <v>22750</v>
       </c>
       <c r="AC56" s="15" t="n">
-        <v>22750</v>
+        <v>15354</v>
       </c>
       <c r="AD56" s="15" t="n">
-        <v>15354</v>
+        <v>10058</v>
       </c>
       <c r="AE56" s="15" t="n">
-        <v>10058</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="15" t="n">
         <v>0</v>
@@ -9216,154 +9216,154 @@
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12" t="n">
-        <v>87932</v>
+        <v>117811</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>117811</v>
+        <v>77945</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>77945</v>
+        <v>98307</v>
       </c>
       <c r="H57" s="12" t="n">
-        <v>98307</v>
+        <v>97409</v>
       </c>
       <c r="I57" s="12" t="n">
-        <v>97409</v>
+        <v>92421</v>
       </c>
       <c r="J57" s="12" t="n">
-        <v>92421</v>
+        <v>113931</v>
       </c>
       <c r="K57" s="12" t="n">
-        <v>113931</v>
+        <v>127450</v>
       </c>
       <c r="L57" s="12" t="n">
-        <v>127450</v>
+        <v>146887</v>
       </c>
       <c r="M57" s="12" t="n">
-        <v>146887</v>
+        <v>157013</v>
       </c>
       <c r="N57" s="12" t="n">
-        <v>157013</v>
+        <v>160726</v>
       </c>
       <c r="O57" s="12" t="n">
-        <v>160726</v>
+        <v>159456</v>
       </c>
       <c r="P57" s="12" t="n">
-        <v>159456</v>
+        <v>166041</v>
       </c>
       <c r="Q57" s="12" t="n">
-        <v>166041</v>
+        <v>300463</v>
       </c>
       <c r="R57" s="12" t="n">
-        <v>300463</v>
+        <v>180614</v>
       </c>
       <c r="S57" s="12" t="n">
-        <v>180614</v>
+        <v>174124</v>
       </c>
       <c r="T57" s="12" t="n">
-        <v>174124</v>
+        <v>190557</v>
       </c>
       <c r="U57" s="12" t="n">
-        <v>190557</v>
+        <v>212010</v>
       </c>
       <c r="V57" s="12" t="n">
-        <v>212010</v>
+        <v>228097</v>
       </c>
       <c r="W57" s="12" t="n">
-        <v>228097</v>
+        <v>232289</v>
       </c>
       <c r="X57" s="12" t="n">
-        <v>232289</v>
+        <v>244016</v>
       </c>
       <c r="Y57" s="12" t="n">
-        <v>244016</v>
+        <v>276674</v>
       </c>
       <c r="Z57" s="12" t="n">
-        <v>276674</v>
+        <v>288483</v>
       </c>
       <c r="AA57" s="12" t="n">
-        <v>288483</v>
+        <v>274387</v>
       </c>
       <c r="AB57" s="12" t="n">
-        <v>274387</v>
+        <v>273734</v>
       </c>
       <c r="AC57" s="12" t="n">
-        <v>273734</v>
+        <v>359663</v>
       </c>
       <c r="AD57" s="12" t="n">
-        <v>359663</v>
+        <v>297043</v>
       </c>
       <c r="AE57" s="12" t="n">
-        <v>297043</v>
+        <v>308827</v>
       </c>
       <c r="AF57" s="12" t="n">
-        <v>308827</v>
+        <v>335207</v>
       </c>
       <c r="AG57" s="12" t="n">
-        <v>335207</v>
+        <v>369689</v>
       </c>
       <c r="AH57" s="12" t="n">
-        <v>369689</v>
+        <v>365617</v>
       </c>
       <c r="AI57" s="12" t="n">
-        <v>365617</v>
+        <v>422248</v>
       </c>
       <c r="AJ57" s="12" t="n">
-        <v>422248</v>
+        <v>399701</v>
       </c>
       <c r="AK57" s="12" t="n">
-        <v>399701</v>
+        <v>378506</v>
       </c>
       <c r="AL57" s="12" t="n">
-        <v>378506</v>
+        <v>386569</v>
       </c>
       <c r="AM57" s="12" t="n">
-        <v>386569</v>
+        <v>377865</v>
       </c>
       <c r="AN57" s="12" t="n">
-        <v>377865</v>
+        <v>380540</v>
       </c>
       <c r="AO57" s="12" t="n">
-        <v>380540</v>
+        <v>446524</v>
       </c>
       <c r="AP57" s="12" t="n">
-        <v>446524</v>
+        <v>352952</v>
       </c>
       <c r="AQ57" s="12" t="n">
-        <v>352952</v>
+        <v>433235</v>
       </c>
       <c r="AR57" s="12" t="n">
-        <v>433235</v>
+        <v>372635</v>
       </c>
       <c r="AS57" s="12" t="n">
-        <v>372635</v>
+        <v>408102</v>
       </c>
       <c r="AT57" s="12" t="n">
-        <v>408102</v>
+        <v>423248</v>
       </c>
       <c r="AU57" s="12" t="n">
-        <v>423248</v>
+        <v>443416</v>
       </c>
       <c r="AV57" s="12" t="n">
-        <v>443416</v>
+        <v>434388</v>
       </c>
       <c r="AW57" s="12" t="n">
-        <v>434388</v>
+        <v>410089</v>
       </c>
       <c r="AX57" s="12" t="n">
-        <v>410089</v>
+        <v>423647</v>
       </c>
       <c r="AY57" s="12" t="n">
-        <v>423647</v>
+        <v>473244</v>
       </c>
       <c r="AZ57" s="12" t="n">
-        <v>473244</v>
+        <v>636315</v>
       </c>
       <c r="BA57" s="12" t="n">
-        <v>636315</v>
+        <v>733826</v>
       </c>
       <c r="BB57" s="12" t="n">
-        <v>733826</v>
+        <v>599160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,154 +9375,154 @@
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="n">
-        <v>1481960</v>
+        <v>1554888</v>
       </c>
       <c r="F58" s="15" t="n">
-        <v>1554888</v>
+        <v>1134505</v>
       </c>
       <c r="G58" s="15" t="n">
-        <v>1134505</v>
+        <v>1418933</v>
       </c>
       <c r="H58" s="15" t="n">
-        <v>1418933</v>
+        <v>1469102</v>
       </c>
       <c r="I58" s="15" t="n">
-        <v>1469102</v>
+        <v>1664369</v>
       </c>
       <c r="J58" s="15" t="n">
-        <v>1664369</v>
+        <v>2325393</v>
       </c>
       <c r="K58" s="15" t="n">
-        <v>2325393</v>
+        <v>2557551</v>
       </c>
       <c r="L58" s="15" t="n">
-        <v>2557551</v>
+        <v>2344533</v>
       </c>
       <c r="M58" s="15" t="n">
-        <v>2344533</v>
+        <v>2412956</v>
       </c>
       <c r="N58" s="15" t="n">
-        <v>2412956</v>
+        <v>2538473</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>2538473</v>
+        <v>2427403</v>
       </c>
       <c r="P58" s="15" t="n">
-        <v>2427403</v>
+        <v>2459131</v>
       </c>
       <c r="Q58" s="15" t="n">
-        <v>2459131</v>
+        <v>3488774</v>
       </c>
       <c r="R58" s="15" t="n">
-        <v>3488774</v>
+        <v>2636713</v>
       </c>
       <c r="S58" s="15" t="n">
-        <v>2636713</v>
+        <v>2658893</v>
       </c>
       <c r="T58" s="15" t="n">
-        <v>2658893</v>
+        <v>2703852</v>
       </c>
       <c r="U58" s="15" t="n">
-        <v>2703852</v>
+        <v>2972383</v>
       </c>
       <c r="V58" s="15" t="n">
-        <v>2972383</v>
+        <v>3257940</v>
       </c>
       <c r="W58" s="15" t="n">
-        <v>3257940</v>
+        <v>3206542</v>
       </c>
       <c r="X58" s="15" t="n">
-        <v>3206542</v>
+        <v>3351039</v>
       </c>
       <c r="Y58" s="15" t="n">
-        <v>3351039</v>
+        <v>3612938</v>
       </c>
       <c r="Z58" s="15" t="n">
-        <v>3612938</v>
+        <v>3941276</v>
       </c>
       <c r="AA58" s="15" t="n">
-        <v>3941276</v>
+        <v>3637068</v>
       </c>
       <c r="AB58" s="15" t="n">
-        <v>3637068</v>
+        <v>3530372</v>
       </c>
       <c r="AC58" s="15" t="n">
-        <v>3530372</v>
+        <v>4060749</v>
       </c>
       <c r="AD58" s="15" t="n">
-        <v>4060749</v>
+        <v>3332831</v>
       </c>
       <c r="AE58" s="15" t="n">
-        <v>3332831</v>
+        <v>3940472</v>
       </c>
       <c r="AF58" s="15" t="n">
-        <v>3940472</v>
+        <v>4271109</v>
       </c>
       <c r="AG58" s="15" t="n">
-        <v>4271109</v>
+        <v>4518665</v>
       </c>
       <c r="AH58" s="15" t="n">
-        <v>4518665</v>
+        <v>4474989</v>
       </c>
       <c r="AI58" s="15" t="n">
-        <v>4474989</v>
+        <v>5096411</v>
       </c>
       <c r="AJ58" s="15" t="n">
-        <v>5096411</v>
+        <v>4951513</v>
       </c>
       <c r="AK58" s="15" t="n">
-        <v>4951513</v>
+        <v>4951413</v>
       </c>
       <c r="AL58" s="15" t="n">
-        <v>4951413</v>
+        <v>4968123</v>
       </c>
       <c r="AM58" s="15" t="n">
-        <v>4968123</v>
+        <v>4819676</v>
       </c>
       <c r="AN58" s="15" t="n">
-        <v>4819676</v>
+        <v>4964394</v>
       </c>
       <c r="AO58" s="15" t="n">
-        <v>4964394</v>
+        <v>5484395</v>
       </c>
       <c r="AP58" s="15" t="n">
-        <v>5484395</v>
+        <v>4787700</v>
       </c>
       <c r="AQ58" s="15" t="n">
-        <v>4787700</v>
+        <v>6629414</v>
       </c>
       <c r="AR58" s="15" t="n">
-        <v>6629414</v>
+        <v>6264816</v>
       </c>
       <c r="AS58" s="15" t="n">
-        <v>6264816</v>
+        <v>6871349</v>
       </c>
       <c r="AT58" s="15" t="n">
-        <v>6871349</v>
+        <v>6677201</v>
       </c>
       <c r="AU58" s="15" t="n">
-        <v>6677201</v>
+        <v>7461348</v>
       </c>
       <c r="AV58" s="15" t="n">
-        <v>7461348</v>
+        <v>7721704</v>
       </c>
       <c r="AW58" s="15" t="n">
-        <v>7721704</v>
+        <v>6895939</v>
       </c>
       <c r="AX58" s="15" t="n">
-        <v>6895939</v>
+        <v>6708641</v>
       </c>
       <c r="AY58" s="15" t="n">
-        <v>6708641</v>
+        <v>7401744</v>
       </c>
       <c r="AZ58" s="15" t="n">
-        <v>7401744</v>
+        <v>8967356</v>
       </c>
       <c r="BA58" s="15" t="n">
-        <v>8967356</v>
+        <v>12062839</v>
       </c>
       <c r="BB58" s="15" t="n">
-        <v>12062839</v>
+        <v>9870657</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,154 +9534,154 @@
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="n">
-        <v>1204</v>
+        <v>1997</v>
       </c>
       <c r="F59" s="12" t="n">
-        <v>1997</v>
+        <v>1557</v>
       </c>
       <c r="G59" s="12" t="n">
-        <v>1557</v>
+        <v>1681</v>
       </c>
       <c r="H59" s="12" t="n">
-        <v>1681</v>
+        <v>1546</v>
       </c>
       <c r="I59" s="12" t="n">
-        <v>1546</v>
+        <v>1173</v>
       </c>
       <c r="J59" s="12" t="n">
-        <v>1173</v>
+        <v>867</v>
       </c>
       <c r="K59" s="12" t="n">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="L59" s="12" t="n">
-        <v>830</v>
+        <v>671</v>
       </c>
       <c r="M59" s="12" t="n">
-        <v>671</v>
+        <v>603</v>
       </c>
       <c r="N59" s="12" t="n">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="O59" s="12" t="n">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="P59" s="12" t="n">
-        <v>718</v>
+        <v>789</v>
       </c>
       <c r="Q59" s="12" t="n">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="R59" s="12" t="n">
-        <v>798</v>
+        <v>553</v>
       </c>
       <c r="S59" s="12" t="n">
-        <v>553</v>
+        <v>770</v>
       </c>
       <c r="T59" s="12" t="n">
-        <v>770</v>
+        <v>1193</v>
       </c>
       <c r="U59" s="12" t="n">
-        <v>1193</v>
+        <v>982</v>
       </c>
       <c r="V59" s="12" t="n">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="W59" s="12" t="n">
-        <v>954</v>
+        <v>832</v>
       </c>
       <c r="X59" s="12" t="n">
-        <v>832</v>
+        <v>629</v>
       </c>
       <c r="Y59" s="12" t="n">
-        <v>629</v>
+        <v>451</v>
       </c>
       <c r="Z59" s="12" t="n">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="AA59" s="12" t="n">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="AB59" s="12" t="n">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AC59" s="12" t="n">
-        <v>362</v>
+        <v>479</v>
       </c>
       <c r="AD59" s="12" t="n">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AE59" s="12" t="n">
-        <v>490</v>
+        <v>12179</v>
       </c>
       <c r="AF59" s="12" t="n">
-        <v>12179</v>
+        <v>12743</v>
       </c>
       <c r="AG59" s="12" t="n">
-        <v>12743</v>
+        <v>7060</v>
       </c>
       <c r="AH59" s="12" t="n">
-        <v>7060</v>
+        <v>2935</v>
       </c>
       <c r="AI59" s="12" t="n">
-        <v>2935</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="12" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AK59" s="12" t="n">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="AL59" s="12" t="n">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="AM59" s="12" t="n">
-        <v>995</v>
+        <v>53</v>
       </c>
       <c r="AN59" s="12" t="n">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="AO59" s="12" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="12" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AQ59" s="12" t="n">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="AR59" s="12" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AS59" s="12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AU59" s="12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV59" s="12" t="n">
         <v>9</v>
       </c>
       <c r="AW59" s="12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="12" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="AY59" s="12" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BA59" s="12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BB59" s="12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,41 +9806,41 @@
       <c r="AP60" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AQ60" s="15" t="s">
-        <v>66</v>
+      <c r="AQ60" s="15" t="n">
+        <v>20447</v>
       </c>
       <c r="AR60" s="15" t="n">
-        <v>20447</v>
+        <v>40470</v>
       </c>
       <c r="AS60" s="15" t="n">
-        <v>40470</v>
+        <v>53595</v>
       </c>
       <c r="AT60" s="15" t="n">
-        <v>53595</v>
+        <v>84891</v>
       </c>
       <c r="AU60" s="15" t="n">
-        <v>84891</v>
+        <v>142170</v>
       </c>
       <c r="AV60" s="15" t="n">
-        <v>142170</v>
+        <v>99683</v>
       </c>
       <c r="AW60" s="15" t="n">
-        <v>99683</v>
+        <v>84776</v>
       </c>
       <c r="AX60" s="15" t="n">
-        <v>84776</v>
+        <v>94643</v>
       </c>
       <c r="AY60" s="15" t="n">
-        <v>94643</v>
+        <v>115263</v>
       </c>
       <c r="AZ60" s="15" t="n">
-        <v>115263</v>
+        <v>117047</v>
       </c>
       <c r="BA60" s="15" t="n">
-        <v>117047</v>
+        <v>140480</v>
       </c>
       <c r="BB60" s="15" t="n">
-        <v>140480</v>
+        <v>188916</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9956,8 +9956,8 @@
       <c r="T62" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U62" s="19" t="s">
-        <v>66</v>
+      <c r="U62" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="22" t="n">
         <v>0</v>
@@ -10172,8 +10172,8 @@
       <c r="T64" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="U64" s="19" t="s">
-        <v>66</v>
+      <c r="U64" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="22" t="n">
         <v>0</v>
@@ -10388,8 +10388,8 @@
       <c r="T66" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="U66" s="23" t="s">
-        <v>66</v>
+      <c r="U66" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="23" t="n">
         <v>0</v>
@@ -10498,154 +10498,154 @@
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21" t="n">
-        <v>5379588</v>
+        <v>6887923</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>6887923</v>
+        <v>4375787</v>
       </c>
       <c r="G67" s="21" t="n">
-        <v>4375787</v>
+        <v>5979196</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>5979196</v>
+        <v>5796346</v>
       </c>
       <c r="I67" s="21" t="n">
-        <v>5796346</v>
+        <v>5867038</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>5867038</v>
+        <v>7313971</v>
       </c>
       <c r="K67" s="21" t="n">
-        <v>7313971</v>
+        <v>7943522</v>
       </c>
       <c r="L67" s="21" t="n">
-        <v>7943522</v>
+        <v>7514790</v>
       </c>
       <c r="M67" s="21" t="n">
-        <v>7514790</v>
+        <v>7936771</v>
       </c>
       <c r="N67" s="21" t="n">
-        <v>7936771</v>
+        <v>8437967</v>
       </c>
       <c r="O67" s="21" t="n">
-        <v>8437967</v>
+        <v>8006942</v>
       </c>
       <c r="P67" s="21" t="n">
-        <v>8006942</v>
+        <v>8408136</v>
       </c>
       <c r="Q67" s="21" t="n">
-        <v>8408136</v>
+        <v>13575933</v>
       </c>
       <c r="R67" s="21" t="n">
-        <v>13575933</v>
+        <v>8347085</v>
       </c>
       <c r="S67" s="21" t="n">
-        <v>8347085</v>
+        <v>9167555</v>
       </c>
       <c r="T67" s="21" t="n">
-        <v>9167555</v>
+        <v>9380610</v>
       </c>
       <c r="U67" s="21" t="n">
-        <v>9380610</v>
+        <v>10976906</v>
       </c>
       <c r="V67" s="21" t="n">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="W67" s="21" t="n">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="X67" s="21" t="n">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="Y67" s="21" t="n">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="Z67" s="21" t="n">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AA67" s="21" t="n">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AB67" s="21" t="n">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AC67" s="21" t="n">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AD67" s="21" t="n">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AE67" s="21" t="n">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AF67" s="21" t="n">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AG67" s="21" t="n">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AH67" s="21" t="n">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AI67" s="21" t="n">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AJ67" s="21" t="n">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AK67" s="21" t="n">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AL67" s="21" t="n">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AM67" s="21" t="n">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AN67" s="21" t="n">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AO67" s="21" t="n">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AP67" s="21" t="n">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AQ67" s="21" t="n">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AR67" s="21" t="n">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AS67" s="21" t="n">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AT67" s="21" t="n">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AU67" s="21" t="n">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AV67" s="21" t="n">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AW67" s="21" t="n">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AX67" s="21" t="n">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="AY67" s="21" t="n">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="AZ67" s="21" t="n">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
       <c r="BA67" s="21" t="n">
-        <v>34898059</v>
+        <v>47424467</v>
       </c>
       <c r="BB67" s="21" t="n">
-        <v>47424467</v>
+        <v>34148456</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,154 +11091,154 @@
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23" t="n">
-        <v>81742</v>
+        <v>81187</v>
       </c>
       <c r="F74" s="23" t="n">
-        <v>81187</v>
+        <v>87868</v>
       </c>
       <c r="G74" s="23" t="n">
-        <v>87868</v>
+        <v>90569</v>
       </c>
       <c r="H74" s="23" t="n">
-        <v>90569</v>
+        <v>94510</v>
       </c>
       <c r="I74" s="23" t="n">
-        <v>94510</v>
+        <v>105982</v>
       </c>
       <c r="J74" s="23" t="n">
-        <v>105982</v>
+        <v>110713</v>
       </c>
       <c r="K74" s="23" t="n">
-        <v>110713</v>
+        <v>109860</v>
       </c>
       <c r="L74" s="23" t="n">
-        <v>109860</v>
+        <v>109370</v>
       </c>
       <c r="M74" s="23" t="n">
-        <v>109370</v>
+        <v>112337</v>
       </c>
       <c r="N74" s="23" t="n">
-        <v>112337</v>
+        <v>115269</v>
       </c>
       <c r="O74" s="23" t="n">
-        <v>115269</v>
+        <v>114854</v>
       </c>
       <c r="P74" s="23" t="n">
-        <v>114854</v>
+        <v>123079</v>
       </c>
       <c r="Q74" s="23" t="n">
-        <v>123079</v>
+        <v>126710</v>
       </c>
       <c r="R74" s="23" t="n">
-        <v>126710</v>
+        <v>127000</v>
       </c>
       <c r="S74" s="23" t="n">
-        <v>127000</v>
+        <v>123249</v>
       </c>
       <c r="T74" s="23" t="n">
-        <v>123249</v>
+        <v>122432</v>
       </c>
       <c r="U74" s="23" t="n">
-        <v>122432</v>
+        <v>130097</v>
       </c>
       <c r="V74" s="23" t="n">
-        <v>130097</v>
+        <v>141857</v>
       </c>
       <c r="W74" s="23" t="n">
-        <v>141857</v>
+        <v>143573</v>
       </c>
       <c r="X74" s="23" t="n">
-        <v>143573</v>
+        <v>152534</v>
       </c>
       <c r="Y74" s="23" t="n">
-        <v>152534</v>
+        <v>168952</v>
       </c>
       <c r="Z74" s="23" t="n">
-        <v>168952</v>
+        <v>175039</v>
       </c>
       <c r="AA74" s="23" t="n">
-        <v>175039</v>
+        <v>175670</v>
       </c>
       <c r="AB74" s="23" t="n">
-        <v>175670</v>
+        <v>173954</v>
       </c>
       <c r="AC74" s="23" t="n">
-        <v>173954</v>
+        <v>180002</v>
       </c>
       <c r="AD74" s="23" t="n">
-        <v>180002</v>
+        <v>173868</v>
       </c>
       <c r="AE74" s="23" t="n">
-        <v>173868</v>
+        <v>165941</v>
       </c>
       <c r="AF74" s="23" t="n">
-        <v>165941</v>
+        <v>60348</v>
       </c>
       <c r="AG74" s="23" t="n">
-        <v>60348</v>
+        <v>433519</v>
       </c>
       <c r="AH74" s="23" t="n">
-        <v>433519</v>
+        <v>428054</v>
       </c>
       <c r="AI74" s="23" t="n">
-        <v>428054</v>
+        <v>562978</v>
       </c>
       <c r="AJ74" s="23" t="n">
-        <v>562978</v>
+        <v>202872</v>
       </c>
       <c r="AK74" s="23" t="n">
-        <v>202872</v>
+        <v>199863</v>
       </c>
       <c r="AL74" s="23" t="n">
-        <v>199863</v>
+        <v>208980</v>
       </c>
       <c r="AM74" s="23" t="n">
-        <v>208980</v>
+        <v>215569</v>
       </c>
       <c r="AN74" s="23" t="n">
-        <v>215569</v>
+        <v>214703</v>
       </c>
       <c r="AO74" s="23" t="n">
-        <v>214703</v>
+        <v>256056</v>
       </c>
       <c r="AP74" s="23" t="n">
-        <v>256056</v>
+        <v>217481</v>
       </c>
       <c r="AQ74" s="23" t="n">
-        <v>217481</v>
+        <v>235183</v>
       </c>
       <c r="AR74" s="23" t="n">
-        <v>235183</v>
+        <v>256012</v>
       </c>
       <c r="AS74" s="23" t="n">
-        <v>256012</v>
+        <v>290259</v>
       </c>
       <c r="AT74" s="23" t="n">
-        <v>290259</v>
+        <v>269386</v>
       </c>
       <c r="AU74" s="23" t="n">
-        <v>269386</v>
+        <v>265828</v>
       </c>
       <c r="AV74" s="23" t="n">
-        <v>265828</v>
+        <v>259327</v>
       </c>
       <c r="AW74" s="23" t="n">
-        <v>259327</v>
+        <v>278561</v>
       </c>
       <c r="AX74" s="23" t="n">
-        <v>278561</v>
+        <v>289765</v>
       </c>
       <c r="AY74" s="23" t="n">
-        <v>289765</v>
+        <v>334817</v>
       </c>
       <c r="AZ74" s="23" t="n">
-        <v>334817</v>
-      </c>
-      <c r="BA74" s="23" t="n">
         <v>324811</v>
       </c>
-      <c r="BB74" s="23" t="s">
-        <v>66</v>
+      <c r="BA74" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB74" s="23" t="n">
+        <v>336413</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11250,154 +11250,154 @@
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="n">
-        <v>31176</v>
+        <v>31420</v>
       </c>
       <c r="F75" s="15" t="n">
-        <v>31420</v>
+        <v>33702</v>
       </c>
       <c r="G75" s="15" t="n">
-        <v>33702</v>
+        <v>37580</v>
       </c>
       <c r="H75" s="15" t="n">
-        <v>37580</v>
+        <v>40880</v>
       </c>
       <c r="I75" s="15" t="n">
-        <v>40880</v>
+        <v>42414</v>
       </c>
       <c r="J75" s="15" t="n">
-        <v>42414</v>
+        <v>39246</v>
       </c>
       <c r="K75" s="15" t="n">
-        <v>39246</v>
+        <v>36705</v>
       </c>
       <c r="L75" s="15" t="n">
-        <v>36705</v>
+        <v>36617</v>
       </c>
       <c r="M75" s="15" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="N75" s="15" t="n">
-        <v>36678</v>
+        <v>36458</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>36458</v>
+        <v>37389</v>
       </c>
       <c r="P75" s="15" t="n">
-        <v>37389</v>
+        <v>39184</v>
       </c>
       <c r="Q75" s="15" t="n">
-        <v>39184</v>
+        <v>42000</v>
       </c>
       <c r="R75" s="15" t="n">
-        <v>42000</v>
+        <v>43855</v>
       </c>
       <c r="S75" s="15" t="n">
-        <v>43855</v>
+        <v>43769</v>
       </c>
       <c r="T75" s="15" t="n">
-        <v>43769</v>
+        <v>44804</v>
       </c>
       <c r="U75" s="15" t="n">
-        <v>44804</v>
+        <v>47414</v>
       </c>
       <c r="V75" s="15" t="n">
-        <v>47414</v>
+        <v>49196</v>
       </c>
       <c r="W75" s="15" t="n">
-        <v>49196</v>
+        <v>51206</v>
       </c>
       <c r="X75" s="15" t="n">
-        <v>51206</v>
+        <v>55439</v>
       </c>
       <c r="Y75" s="15" t="n">
-        <v>55439</v>
+        <v>59970</v>
       </c>
       <c r="Z75" s="15" t="n">
-        <v>59970</v>
+        <v>64108</v>
       </c>
       <c r="AA75" s="15" t="n">
-        <v>64108</v>
+        <v>64993</v>
       </c>
       <c r="AB75" s="15" t="n">
-        <v>64993</v>
+        <v>66181</v>
       </c>
       <c r="AC75" s="15" t="n">
-        <v>66181</v>
+        <v>66302</v>
       </c>
       <c r="AD75" s="15" t="n">
-        <v>66302</v>
+        <v>72411</v>
       </c>
       <c r="AE75" s="15" t="n">
-        <v>72411</v>
+        <v>79044</v>
       </c>
       <c r="AF75" s="15" t="n">
-        <v>79044</v>
+        <v>85176</v>
       </c>
       <c r="AG75" s="15" t="n">
-        <v>85176</v>
+        <v>85962</v>
       </c>
       <c r="AH75" s="15" t="n">
-        <v>85962</v>
+        <v>93402</v>
       </c>
       <c r="AI75" s="15" t="n">
-        <v>93402</v>
+        <v>94725</v>
       </c>
       <c r="AJ75" s="15" t="n">
-        <v>94725</v>
+        <v>91799</v>
       </c>
       <c r="AK75" s="15" t="n">
-        <v>91799</v>
+        <v>91666</v>
       </c>
       <c r="AL75" s="15" t="n">
-        <v>91666</v>
+        <v>89782</v>
       </c>
       <c r="AM75" s="15" t="n">
-        <v>89782</v>
+        <v>96237</v>
       </c>
       <c r="AN75" s="15" t="n">
-        <v>96237</v>
+        <v>95965</v>
       </c>
       <c r="AO75" s="15" t="n">
-        <v>95965</v>
+        <v>95152</v>
       </c>
       <c r="AP75" s="15" t="n">
-        <v>95152</v>
+        <v>91713</v>
       </c>
       <c r="AQ75" s="15" t="n">
-        <v>91713</v>
+        <v>97695</v>
       </c>
       <c r="AR75" s="15" t="n">
-        <v>97695</v>
+        <v>109651</v>
       </c>
       <c r="AS75" s="15" t="n">
-        <v>109651</v>
+        <v>116773</v>
       </c>
       <c r="AT75" s="15" t="n">
-        <v>116773</v>
+        <v>118431</v>
       </c>
       <c r="AU75" s="15" t="n">
-        <v>118431</v>
+        <v>112885</v>
       </c>
       <c r="AV75" s="15" t="n">
-        <v>112885</v>
+        <v>113834</v>
       </c>
       <c r="AW75" s="15" t="n">
-        <v>113834</v>
+        <v>115941</v>
       </c>
       <c r="AX75" s="15" t="n">
-        <v>115941</v>
+        <v>117967</v>
       </c>
       <c r="AY75" s="15" t="n">
-        <v>117967</v>
+        <v>117879</v>
       </c>
       <c r="AZ75" s="15" t="n">
-        <v>117879</v>
-      </c>
-      <c r="BA75" s="15" t="n">
         <v>122457</v>
       </c>
-      <c r="BB75" s="15" t="s">
-        <v>66</v>
+      <c r="BA75" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB75" s="15" t="n">
+        <v>133791</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11409,154 +11409,154 @@
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23" t="n">
-        <v>95126</v>
+        <v>91737</v>
       </c>
       <c r="F76" s="23" t="n">
-        <v>91737</v>
+        <v>105968</v>
       </c>
       <c r="G76" s="23" t="n">
-        <v>105968</v>
+        <v>104645</v>
       </c>
       <c r="H76" s="23" t="n">
-        <v>104645</v>
+        <v>106103</v>
       </c>
       <c r="I76" s="23" t="n">
-        <v>106103</v>
+        <v>109200</v>
       </c>
       <c r="J76" s="23" t="n">
-        <v>109200</v>
+        <v>109321</v>
       </c>
       <c r="K76" s="23" t="n">
-        <v>109321</v>
+        <v>108117</v>
       </c>
       <c r="L76" s="23" t="n">
-        <v>108117</v>
+        <v>109434</v>
       </c>
       <c r="M76" s="23" t="n">
-        <v>109434</v>
+        <v>107050</v>
       </c>
       <c r="N76" s="23" t="n">
-        <v>107050</v>
+        <v>107854</v>
       </c>
       <c r="O76" s="23" t="n">
-        <v>107854</v>
+        <v>110846</v>
       </c>
       <c r="P76" s="23" t="n">
-        <v>110846</v>
+        <v>114034</v>
       </c>
       <c r="Q76" s="23" t="n">
-        <v>114034</v>
+        <v>114520</v>
       </c>
       <c r="R76" s="23" t="n">
-        <v>114520</v>
+        <v>122053</v>
       </c>
       <c r="S76" s="23" t="n">
-        <v>122053</v>
+        <v>125022</v>
       </c>
       <c r="T76" s="23" t="n">
-        <v>125022</v>
+        <v>124454</v>
       </c>
       <c r="U76" s="23" t="n">
-        <v>124454</v>
+        <v>125057</v>
       </c>
       <c r="V76" s="23" t="n">
-        <v>125057</v>
+        <v>130093</v>
       </c>
       <c r="W76" s="23" t="n">
-        <v>130093</v>
+        <v>136975</v>
       </c>
       <c r="X76" s="23" t="n">
-        <v>136975</v>
+        <v>143132</v>
       </c>
       <c r="Y76" s="23" t="n">
-        <v>143132</v>
+        <v>149369</v>
       </c>
       <c r="Z76" s="23" t="n">
-        <v>149369</v>
+        <v>165526</v>
       </c>
       <c r="AA76" s="23" t="n">
-        <v>165526</v>
+        <v>176969</v>
       </c>
       <c r="AB76" s="23" t="n">
-        <v>176969</v>
+        <v>183006</v>
       </c>
       <c r="AC76" s="23" t="n">
-        <v>183006</v>
+        <v>184727</v>
       </c>
       <c r="AD76" s="23" t="n">
-        <v>184727</v>
+        <v>196273</v>
       </c>
       <c r="AE76" s="23" t="n">
-        <v>196273</v>
+        <v>200325</v>
       </c>
       <c r="AF76" s="23" t="n">
-        <v>200325</v>
+        <v>197925</v>
       </c>
       <c r="AG76" s="23" t="n">
-        <v>197925</v>
+        <v>195271</v>
       </c>
       <c r="AH76" s="23" t="n">
-        <v>195271</v>
+        <v>206909</v>
       </c>
       <c r="AI76" s="23" t="n">
-        <v>206909</v>
+        <v>216169</v>
       </c>
       <c r="AJ76" s="23" t="n">
-        <v>216169</v>
+        <v>230172</v>
       </c>
       <c r="AK76" s="23" t="n">
-        <v>230172</v>
+        <v>236319</v>
       </c>
       <c r="AL76" s="23" t="n">
-        <v>236319</v>
+        <v>239305</v>
       </c>
       <c r="AM76" s="23" t="n">
-        <v>239305</v>
+        <v>238331</v>
       </c>
       <c r="AN76" s="23" t="n">
-        <v>238331</v>
+        <v>237531</v>
       </c>
       <c r="AO76" s="23" t="n">
-        <v>237531</v>
+        <v>233317</v>
       </c>
       <c r="AP76" s="23" t="n">
-        <v>233317</v>
+        <v>250586</v>
       </c>
       <c r="AQ76" s="23" t="n">
-        <v>250586</v>
+        <v>251503</v>
       </c>
       <c r="AR76" s="23" t="n">
-        <v>251503</v>
+        <v>260421</v>
       </c>
       <c r="AS76" s="23" t="n">
-        <v>260421</v>
+        <v>274286</v>
       </c>
       <c r="AT76" s="23" t="n">
-        <v>274286</v>
+        <v>287416</v>
       </c>
       <c r="AU76" s="23" t="n">
-        <v>287416</v>
+        <v>295771</v>
       </c>
       <c r="AV76" s="23" t="n">
-        <v>295771</v>
+        <v>309148</v>
       </c>
       <c r="AW76" s="23" t="n">
-        <v>309148</v>
+        <v>312830</v>
       </c>
       <c r="AX76" s="23" t="n">
-        <v>312830</v>
+        <v>317043</v>
       </c>
       <c r="AY76" s="23" t="n">
-        <v>317043</v>
+        <v>322393</v>
       </c>
       <c r="AZ76" s="23" t="n">
-        <v>322393</v>
-      </c>
-      <c r="BA76" s="23" t="n">
         <v>322821</v>
       </c>
-      <c r="BB76" s="23" t="s">
-        <v>66</v>
+      <c r="BA76" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB76" s="23" t="n">
+        <v>346125</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11568,154 +11568,154 @@
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="n">
-        <v>60655</v>
+        <v>67117</v>
       </c>
       <c r="F77" s="15" t="n">
-        <v>67117</v>
+        <v>60736</v>
       </c>
       <c r="G77" s="15" t="n">
-        <v>60736</v>
+        <v>64730</v>
       </c>
       <c r="H77" s="15" t="n">
-        <v>64730</v>
+        <v>66215</v>
       </c>
       <c r="I77" s="15" t="n">
-        <v>66215</v>
+        <v>74224</v>
       </c>
       <c r="J77" s="15" t="n">
-        <v>74224</v>
+        <v>76126</v>
       </c>
       <c r="K77" s="15" t="n">
-        <v>76126</v>
+        <v>75750</v>
       </c>
       <c r="L77" s="15" t="n">
-        <v>75750</v>
+        <v>66062</v>
       </c>
       <c r="M77" s="15" t="n">
-        <v>66062</v>
+        <v>71059</v>
       </c>
       <c r="N77" s="15" t="n">
-        <v>71059</v>
+        <v>71822</v>
       </c>
       <c r="O77" s="15" t="n">
-        <v>71822</v>
+        <v>71947</v>
       </c>
       <c r="P77" s="15" t="n">
-        <v>71947</v>
+        <v>77382</v>
       </c>
       <c r="Q77" s="15" t="n">
-        <v>77382</v>
+        <v>86630</v>
       </c>
       <c r="R77" s="15" t="n">
-        <v>86630</v>
+        <v>75598</v>
       </c>
       <c r="S77" s="15" t="n">
-        <v>75598</v>
+        <v>83291</v>
       </c>
       <c r="T77" s="15" t="n">
-        <v>83291</v>
+        <v>84904</v>
       </c>
       <c r="U77" s="15" t="n">
-        <v>84904</v>
+        <v>86691</v>
       </c>
       <c r="V77" s="15" t="n">
-        <v>86691</v>
+        <v>88284</v>
       </c>
       <c r="W77" s="15" t="n">
-        <v>88284</v>
+        <v>101491</v>
       </c>
       <c r="X77" s="15" t="n">
-        <v>101491</v>
+        <v>112579</v>
       </c>
       <c r="Y77" s="15" t="n">
-        <v>112579</v>
+        <v>111895</v>
       </c>
       <c r="Z77" s="15" t="n">
-        <v>111895</v>
+        <v>111259</v>
       </c>
       <c r="AA77" s="15" t="n">
-        <v>111259</v>
+        <v>110571</v>
       </c>
       <c r="AB77" s="15" t="n">
-        <v>110571</v>
+        <v>120379</v>
       </c>
       <c r="AC77" s="15" t="n">
-        <v>120379</v>
+        <v>129295</v>
       </c>
       <c r="AD77" s="15" t="n">
-        <v>129295</v>
+        <v>121775</v>
       </c>
       <c r="AE77" s="15" t="n">
-        <v>121775</v>
+        <v>120735</v>
       </c>
       <c r="AF77" s="15" t="n">
-        <v>120735</v>
+        <v>127925</v>
       </c>
       <c r="AG77" s="15" t="n">
-        <v>127925</v>
+        <v>136023</v>
       </c>
       <c r="AH77" s="15" t="n">
-        <v>136023</v>
+        <v>146817</v>
       </c>
       <c r="AI77" s="15" t="n">
-        <v>146817</v>
+        <v>141082</v>
       </c>
       <c r="AJ77" s="15" t="n">
-        <v>141082</v>
+        <v>145740</v>
       </c>
       <c r="AK77" s="15" t="n">
-        <v>145740</v>
+        <v>148107</v>
       </c>
       <c r="AL77" s="15" t="n">
-        <v>148107</v>
+        <v>143849</v>
       </c>
       <c r="AM77" s="15" t="n">
-        <v>143849</v>
+        <v>155491</v>
       </c>
       <c r="AN77" s="15" t="n">
-        <v>155491</v>
+        <v>169540</v>
       </c>
       <c r="AO77" s="15" t="n">
-        <v>169540</v>
+        <v>199392</v>
       </c>
       <c r="AP77" s="15" t="n">
-        <v>199392</v>
+        <v>184936</v>
       </c>
       <c r="AQ77" s="15" t="n">
-        <v>184936</v>
+        <v>211778</v>
       </c>
       <c r="AR77" s="15" t="n">
-        <v>211778</v>
+        <v>276571</v>
       </c>
       <c r="AS77" s="15" t="n">
-        <v>276571</v>
+        <v>305582</v>
       </c>
       <c r="AT77" s="15" t="n">
-        <v>305582</v>
+        <v>313686</v>
       </c>
       <c r="AU77" s="15" t="n">
-        <v>313686</v>
+        <v>305785</v>
       </c>
       <c r="AV77" s="15" t="n">
-        <v>305785</v>
+        <v>294178</v>
       </c>
       <c r="AW77" s="15" t="n">
-        <v>294178</v>
+        <v>298906</v>
       </c>
       <c r="AX77" s="15" t="n">
-        <v>298906</v>
+        <v>302140</v>
       </c>
       <c r="AY77" s="15" t="n">
-        <v>302140</v>
+        <v>328311</v>
       </c>
       <c r="AZ77" s="15" t="n">
-        <v>328311</v>
-      </c>
-      <c r="BA77" s="15" t="n">
         <v>310876</v>
       </c>
-      <c r="BB77" s="15" t="s">
-        <v>66</v>
+      <c r="BA77" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB77" s="15" t="n">
+        <v>331826</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11727,34 +11727,34 @@
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23" t="n">
-        <v>189807</v>
+        <v>192126</v>
       </c>
       <c r="F78" s="23" t="n">
-        <v>192126</v>
+        <v>86452</v>
       </c>
       <c r="G78" s="23" t="n">
-        <v>86452</v>
+        <v>87184</v>
       </c>
       <c r="H78" s="23" t="n">
-        <v>87184</v>
+        <v>89860</v>
       </c>
       <c r="I78" s="23" t="n">
-        <v>89860</v>
+        <v>100000</v>
       </c>
       <c r="J78" s="23" t="n">
-        <v>100000</v>
+        <v>90682</v>
       </c>
       <c r="K78" s="23" t="n">
-        <v>90682</v>
+        <v>90361</v>
       </c>
       <c r="L78" s="23" t="n">
-        <v>90361</v>
+        <v>91451</v>
       </c>
       <c r="M78" s="23" t="n">
-        <v>91451</v>
+        <v>91373</v>
       </c>
       <c r="N78" s="23" t="n">
-        <v>91373</v>
+        <v>0</v>
       </c>
       <c r="O78" s="23" t="n">
         <v>0</v>
@@ -11765,8 +11765,8 @@
       <c r="Q78" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="R78" s="23" t="n">
-        <v>0</v>
+      <c r="R78" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="S78" s="23" t="s">
         <v>66</v>
@@ -11816,12 +11816,12 @@
       <c r="AH78" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AI78" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ78" s="23" t="n">
+      <c r="AI78" s="23" t="n">
         <v>1663719203</v>
       </c>
+      <c r="AJ78" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="AK78" s="23" t="s">
         <v>66</v>
       </c>
@@ -11846,29 +11846,29 @@
       <c r="AR78" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AS78" s="23" t="s">
-        <v>66</v>
+      <c r="AS78" s="23" t="n">
+        <v>6544978</v>
       </c>
       <c r="AT78" s="23" t="n">
-        <v>6544978</v>
+        <v>4522442</v>
       </c>
       <c r="AU78" s="23" t="n">
-        <v>4522442</v>
+        <v>39279416</v>
       </c>
       <c r="AV78" s="23" t="n">
-        <v>39279416</v>
+        <v>3576190</v>
       </c>
       <c r="AW78" s="23" t="n">
-        <v>3576190</v>
-      </c>
-      <c r="AX78" s="23" t="n">
         <v>28493421</v>
       </c>
-      <c r="AY78" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ78" s="23" t="n">
+      <c r="AX78" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY78" s="23" t="n">
         <v>14694805</v>
+      </c>
+      <c r="AZ78" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="BA78" s="23" t="s">
         <v>66</v>
@@ -11886,85 +11886,85 @@
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="n">
-        <v>57519</v>
+        <v>70833</v>
       </c>
       <c r="F79" s="15" t="n">
-        <v>70833</v>
+        <v>81801</v>
       </c>
       <c r="G79" s="15" t="n">
-        <v>81801</v>
+        <v>62426</v>
       </c>
       <c r="H79" s="15" t="n">
-        <v>62426</v>
+        <v>55121</v>
       </c>
       <c r="I79" s="15" t="n">
-        <v>55121</v>
+        <v>48467</v>
       </c>
       <c r="J79" s="15" t="n">
-        <v>48467</v>
+        <v>42075</v>
       </c>
       <c r="K79" s="15" t="n">
-        <v>42075</v>
+        <v>38970</v>
       </c>
       <c r="L79" s="15" t="n">
-        <v>38970</v>
+        <v>47140</v>
       </c>
       <c r="M79" s="15" t="n">
-        <v>47140</v>
+        <v>57493</v>
       </c>
       <c r="N79" s="15" t="n">
-        <v>57493</v>
+        <v>66509</v>
       </c>
       <c r="O79" s="15" t="n">
-        <v>66509</v>
+        <v>65951</v>
       </c>
       <c r="P79" s="15" t="n">
-        <v>65951</v>
+        <v>70899</v>
       </c>
       <c r="Q79" s="15" t="n">
-        <v>70899</v>
+        <v>79155</v>
       </c>
       <c r="R79" s="15" t="n">
-        <v>79155</v>
+        <v>86484</v>
       </c>
       <c r="S79" s="15" t="n">
-        <v>86484</v>
+        <v>70915</v>
       </c>
       <c r="T79" s="15" t="n">
-        <v>70915</v>
+        <v>49204</v>
       </c>
       <c r="U79" s="15" t="n">
-        <v>49204</v>
+        <v>59760</v>
       </c>
       <c r="V79" s="15" t="n">
-        <v>59760</v>
+        <v>60393</v>
       </c>
       <c r="W79" s="15" t="n">
-        <v>60393</v>
+        <v>67488</v>
       </c>
       <c r="X79" s="15" t="n">
-        <v>67488</v>
+        <v>80598</v>
       </c>
       <c r="Y79" s="15" t="n">
-        <v>80598</v>
+        <v>115227</v>
       </c>
       <c r="Z79" s="15" t="n">
-        <v>115227</v>
+        <v>124746</v>
       </c>
       <c r="AA79" s="15" t="n">
-        <v>124746</v>
+        <v>123810</v>
       </c>
       <c r="AB79" s="15" t="n">
-        <v>123810</v>
+        <v>130687</v>
       </c>
       <c r="AC79" s="15" t="n">
-        <v>130687</v>
+        <v>126123</v>
       </c>
       <c r="AD79" s="15" t="n">
-        <v>126123</v>
-      </c>
-      <c r="AE79" s="15" t="n">
         <v>116614</v>
+      </c>
+      <c r="AE79" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="AF79" s="15" t="s">
         <v>66</v>
@@ -12045,154 +12045,154 @@
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="23" t="n">
-        <v>63933</v>
+        <v>63141</v>
       </c>
       <c r="F80" s="23" t="n">
-        <v>63141</v>
+        <v>70173</v>
       </c>
       <c r="G80" s="23" t="n">
-        <v>70173</v>
+        <v>66716</v>
       </c>
       <c r="H80" s="23" t="n">
-        <v>66716</v>
+        <v>65149</v>
       </c>
       <c r="I80" s="23" t="n">
-        <v>65149</v>
+        <v>66698</v>
       </c>
       <c r="J80" s="23" t="n">
-        <v>66698</v>
+        <v>67707</v>
       </c>
       <c r="K80" s="23" t="n">
-        <v>67707</v>
+        <v>69087</v>
       </c>
       <c r="L80" s="23" t="n">
-        <v>69087</v>
+        <v>69669</v>
       </c>
       <c r="M80" s="23" t="n">
-        <v>69669</v>
+        <v>70582</v>
       </c>
       <c r="N80" s="23" t="n">
-        <v>70582</v>
+        <v>71592</v>
       </c>
       <c r="O80" s="23" t="n">
-        <v>71592</v>
+        <v>73805</v>
       </c>
       <c r="P80" s="23" t="n">
-        <v>73805</v>
+        <v>74410</v>
       </c>
       <c r="Q80" s="23" t="n">
-        <v>74410</v>
+        <v>74324</v>
       </c>
       <c r="R80" s="23" t="n">
-        <v>74324</v>
+        <v>80647</v>
       </c>
       <c r="S80" s="23" t="n">
-        <v>80647</v>
+        <v>81274</v>
       </c>
       <c r="T80" s="23" t="n">
-        <v>81274</v>
+        <v>82892</v>
       </c>
       <c r="U80" s="23" t="n">
-        <v>82892</v>
+        <v>83413</v>
       </c>
       <c r="V80" s="23" t="n">
-        <v>83413</v>
+        <v>86563</v>
       </c>
       <c r="W80" s="23" t="n">
-        <v>86563</v>
+        <v>89555</v>
       </c>
       <c r="X80" s="23" t="n">
-        <v>89555</v>
+        <v>93427</v>
       </c>
       <c r="Y80" s="23" t="n">
-        <v>93427</v>
+        <v>108462</v>
       </c>
       <c r="Z80" s="23" t="n">
-        <v>108462</v>
+        <v>120637</v>
       </c>
       <c r="AA80" s="23" t="n">
-        <v>120637</v>
+        <v>130253</v>
       </c>
       <c r="AB80" s="23" t="n">
-        <v>130253</v>
+        <v>130624</v>
       </c>
       <c r="AC80" s="23" t="n">
-        <v>130624</v>
+        <v>129577</v>
       </c>
       <c r="AD80" s="23" t="n">
-        <v>129577</v>
+        <v>132439</v>
       </c>
       <c r="AE80" s="23" t="n">
-        <v>132439</v>
+        <v>134018</v>
       </c>
       <c r="AF80" s="23" t="n">
-        <v>134018</v>
+        <v>127005</v>
       </c>
       <c r="AG80" s="23" t="n">
-        <v>127005</v>
+        <v>152291</v>
       </c>
       <c r="AH80" s="23" t="n">
-        <v>152291</v>
+        <v>142688</v>
       </c>
       <c r="AI80" s="23" t="n">
-        <v>142688</v>
+        <v>150791</v>
       </c>
       <c r="AJ80" s="23" t="n">
-        <v>150791</v>
+        <v>158370</v>
       </c>
       <c r="AK80" s="23" t="n">
-        <v>158370</v>
+        <v>162315</v>
       </c>
       <c r="AL80" s="23" t="n">
-        <v>162315</v>
+        <v>160394</v>
       </c>
       <c r="AM80" s="23" t="n">
-        <v>160394</v>
+        <v>162147</v>
       </c>
       <c r="AN80" s="23" t="n">
-        <v>162147</v>
+        <v>162784</v>
       </c>
       <c r="AO80" s="23" t="n">
-        <v>162784</v>
+        <v>171348</v>
       </c>
       <c r="AP80" s="23" t="n">
-        <v>171348</v>
+        <v>176766</v>
       </c>
       <c r="AQ80" s="23" t="n">
-        <v>176766</v>
+        <v>187064</v>
       </c>
       <c r="AR80" s="23" t="n">
-        <v>187064</v>
+        <v>198626</v>
       </c>
       <c r="AS80" s="23" t="n">
-        <v>198626</v>
+        <v>217792</v>
       </c>
       <c r="AT80" s="23" t="n">
-        <v>217792</v>
+        <v>216717</v>
       </c>
       <c r="AU80" s="23" t="n">
-        <v>216717</v>
+        <v>222833</v>
       </c>
       <c r="AV80" s="23" t="n">
-        <v>222833</v>
+        <v>223898</v>
       </c>
       <c r="AW80" s="23" t="n">
-        <v>223898</v>
+        <v>221402</v>
       </c>
       <c r="AX80" s="23" t="n">
-        <v>221402</v>
+        <v>235063</v>
       </c>
       <c r="AY80" s="23" t="n">
-        <v>235063</v>
+        <v>238564</v>
       </c>
       <c r="AZ80" s="23" t="n">
-        <v>238564</v>
-      </c>
-      <c r="BA80" s="23" t="n">
         <v>249392</v>
       </c>
-      <c r="BB80" s="23" t="s">
-        <v>66</v>
+      <c r="BA80" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB80" s="23" t="n">
+        <v>263808</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12204,154 +12204,154 @@
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="n">
-        <v>74484</v>
+        <v>70279</v>
       </c>
       <c r="F81" s="15" t="n">
-        <v>70279</v>
+        <v>62421</v>
       </c>
       <c r="G81" s="15" t="n">
-        <v>62421</v>
+        <v>59325</v>
       </c>
       <c r="H81" s="15" t="n">
-        <v>59325</v>
+        <v>38919</v>
       </c>
       <c r="I81" s="15" t="n">
-        <v>38919</v>
+        <v>67846</v>
       </c>
       <c r="J81" s="15" t="n">
-        <v>67846</v>
+        <v>91016</v>
       </c>
       <c r="K81" s="15" t="n">
-        <v>91016</v>
+        <v>97022</v>
       </c>
       <c r="L81" s="15" t="n">
-        <v>97022</v>
+        <v>99023</v>
       </c>
       <c r="M81" s="15" t="n">
-        <v>99023</v>
+        <v>99357</v>
       </c>
       <c r="N81" s="15" t="n">
-        <v>99357</v>
+        <v>91582</v>
       </c>
       <c r="O81" s="15" t="n">
-        <v>91582</v>
+        <v>85808</v>
       </c>
       <c r="P81" s="15" t="n">
-        <v>85808</v>
+        <v>91667</v>
       </c>
       <c r="Q81" s="15" t="n">
-        <v>91667</v>
+        <v>96640</v>
       </c>
       <c r="R81" s="15" t="n">
-        <v>96640</v>
+        <v>85703</v>
       </c>
       <c r="S81" s="15" t="n">
-        <v>85703</v>
+        <v>86384</v>
       </c>
       <c r="T81" s="15" t="n">
-        <v>86384</v>
+        <v>84294</v>
       </c>
       <c r="U81" s="15" t="n">
-        <v>84294</v>
+        <v>97969</v>
       </c>
       <c r="V81" s="15" t="n">
-        <v>97969</v>
+        <v>98174</v>
       </c>
       <c r="W81" s="15" t="n">
-        <v>98174</v>
+        <v>103129</v>
       </c>
       <c r="X81" s="15" t="n">
-        <v>103129</v>
+        <v>113721</v>
       </c>
       <c r="Y81" s="15" t="n">
-        <v>113721</v>
+        <v>120074</v>
       </c>
       <c r="Z81" s="15" t="n">
-        <v>120074</v>
+        <v>128807</v>
       </c>
       <c r="AA81" s="15" t="n">
-        <v>128807</v>
+        <v>128281</v>
       </c>
       <c r="AB81" s="15" t="n">
-        <v>128281</v>
+        <v>127320</v>
       </c>
       <c r="AC81" s="15" t="n">
-        <v>127320</v>
+        <v>136185</v>
       </c>
       <c r="AD81" s="15" t="n">
-        <v>136185</v>
+        <v>122291</v>
       </c>
       <c r="AE81" s="15" t="n">
-        <v>122291</v>
+        <v>126995</v>
       </c>
       <c r="AF81" s="15" t="n">
-        <v>126995</v>
+        <v>128537</v>
       </c>
       <c r="AG81" s="15" t="n">
-        <v>128537</v>
+        <v>134004</v>
       </c>
       <c r="AH81" s="15" t="n">
-        <v>134004</v>
+        <v>133503</v>
       </c>
       <c r="AI81" s="15" t="n">
-        <v>133503</v>
+        <v>150978</v>
       </c>
       <c r="AJ81" s="15" t="n">
-        <v>150978</v>
+        <v>169235</v>
       </c>
       <c r="AK81" s="15" t="n">
-        <v>169235</v>
+        <v>179996</v>
       </c>
       <c r="AL81" s="15" t="n">
-        <v>179996</v>
+        <v>178170</v>
       </c>
       <c r="AM81" s="15" t="n">
-        <v>178170</v>
+        <v>178151</v>
       </c>
       <c r="AN81" s="15" t="n">
-        <v>178151</v>
+        <v>179711</v>
       </c>
       <c r="AO81" s="15" t="n">
-        <v>179711</v>
+        <v>191785</v>
       </c>
       <c r="AP81" s="15" t="n">
-        <v>191785</v>
+        <v>172716</v>
       </c>
       <c r="AQ81" s="15" t="n">
-        <v>172716</v>
+        <v>184653</v>
       </c>
       <c r="AR81" s="15" t="n">
-        <v>184653</v>
+        <v>220548</v>
       </c>
       <c r="AS81" s="15" t="n">
-        <v>220548</v>
+        <v>245641</v>
       </c>
       <c r="AT81" s="15" t="n">
-        <v>245641</v>
+        <v>257123</v>
       </c>
       <c r="AU81" s="15" t="n">
-        <v>257123</v>
+        <v>270206</v>
       </c>
       <c r="AV81" s="15" t="n">
-        <v>270206</v>
+        <v>288576</v>
       </c>
       <c r="AW81" s="15" t="n">
-        <v>288576</v>
+        <v>306686</v>
       </c>
       <c r="AX81" s="15" t="n">
-        <v>306686</v>
+        <v>307981</v>
       </c>
       <c r="AY81" s="15" t="n">
-        <v>307981</v>
+        <v>310532</v>
       </c>
       <c r="AZ81" s="15" t="n">
-        <v>310532</v>
-      </c>
-      <c r="BA81" s="15" t="n">
         <v>328706</v>
       </c>
-      <c r="BB81" s="15" t="s">
-        <v>66</v>
+      <c r="BA81" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB81" s="15" t="n">
+        <v>323603</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,151 +12363,151 @@
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23" t="n">
-        <v>15059</v>
+        <v>14180</v>
       </c>
       <c r="F82" s="23" t="n">
-        <v>14180</v>
+        <v>167186</v>
       </c>
       <c r="G82" s="23" t="n">
-        <v>167186</v>
+        <v>168538</v>
       </c>
       <c r="H82" s="23" t="n">
-        <v>168538</v>
+        <v>172007</v>
       </c>
       <c r="I82" s="23" t="n">
-        <v>172007</v>
+        <v>171969</v>
       </c>
       <c r="J82" s="23" t="n">
-        <v>171969</v>
+        <v>172985</v>
       </c>
       <c r="K82" s="23" t="n">
-        <v>172985</v>
+        <v>171700</v>
       </c>
       <c r="L82" s="23" t="n">
-        <v>171700</v>
+        <v>173385</v>
       </c>
       <c r="M82" s="23" t="n">
-        <v>173385</v>
+        <v>173675</v>
       </c>
       <c r="N82" s="23" t="n">
-        <v>173675</v>
+        <v>173487</v>
       </c>
       <c r="O82" s="23" t="n">
-        <v>173487</v>
+        <v>173430</v>
       </c>
       <c r="P82" s="23" t="n">
-        <v>173430</v>
+        <v>173445</v>
       </c>
       <c r="Q82" s="23" t="n">
-        <v>173445</v>
+        <v>173403</v>
       </c>
       <c r="R82" s="23" t="n">
-        <v>173403</v>
+        <v>173463</v>
       </c>
       <c r="S82" s="23" t="n">
-        <v>173463</v>
+        <v>173619</v>
       </c>
       <c r="T82" s="23" t="n">
-        <v>173619</v>
+        <v>173628</v>
       </c>
       <c r="U82" s="23" t="n">
-        <v>173628</v>
+        <v>173652</v>
       </c>
       <c r="V82" s="23" t="n">
-        <v>173652</v>
+        <v>173644</v>
       </c>
       <c r="W82" s="23" t="n">
-        <v>173644</v>
+        <v>173478</v>
       </c>
       <c r="X82" s="23" t="n">
-        <v>173478</v>
+        <v>4</v>
       </c>
       <c r="Y82" s="23" t="n">
-        <v>4</v>
+        <v>173662</v>
       </c>
       <c r="Z82" s="23" t="n">
-        <v>173662</v>
+        <v>173488</v>
       </c>
       <c r="AA82" s="23" t="n">
-        <v>173488</v>
+        <v>173459</v>
       </c>
       <c r="AB82" s="23" t="n">
-        <v>173459</v>
+        <v>173621</v>
       </c>
       <c r="AC82" s="23" t="n">
-        <v>173621</v>
+        <v>173614</v>
       </c>
       <c r="AD82" s="23" t="n">
-        <v>173614</v>
+        <v>173636</v>
       </c>
       <c r="AE82" s="23" t="n">
-        <v>173636</v>
+        <v>108926</v>
       </c>
       <c r="AF82" s="23" t="n">
-        <v>108926</v>
+        <v>120183</v>
       </c>
       <c r="AG82" s="23" t="n">
-        <v>120183</v>
+        <v>122761</v>
       </c>
       <c r="AH82" s="23" t="n">
-        <v>122761</v>
-      </c>
-      <c r="AI82" s="23" t="n">
         <v>117208</v>
       </c>
-      <c r="AJ82" s="23" t="s">
-        <v>66</v>
+      <c r="AI82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ82" s="23" t="n">
+        <v>147757</v>
       </c>
       <c r="AK82" s="23" t="n">
-        <v>147757</v>
+        <v>144623</v>
       </c>
       <c r="AL82" s="23" t="n">
-        <v>144623</v>
+        <v>110274</v>
       </c>
       <c r="AM82" s="23" t="n">
-        <v>110274</v>
+        <v>246512</v>
       </c>
       <c r="AN82" s="23" t="n">
-        <v>246512</v>
-      </c>
-      <c r="AO82" s="23" t="n">
         <v>256043</v>
       </c>
-      <c r="AP82" s="23" t="s">
-        <v>66</v>
+      <c r="AO82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP82" s="23" t="n">
+        <v>269285</v>
       </c>
       <c r="AQ82" s="23" t="n">
-        <v>269285</v>
+        <v>266932</v>
       </c>
       <c r="AR82" s="23" t="n">
-        <v>266932</v>
-      </c>
-      <c r="AS82" s="23" t="n">
         <v>265060</v>
       </c>
+      <c r="AS82" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="AT82" s="23" t="s">
         <v>66</v>
       </c>
       <c r="AU82" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AV82" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW82" s="23" t="n">
+      <c r="AV82" s="23" t="n">
         <v>257143</v>
       </c>
-      <c r="AX82" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY82" s="23" t="n">
+      <c r="AW82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX82" s="23" t="n">
         <v>313333</v>
       </c>
-      <c r="AZ82" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA82" s="23" t="n">
+      <c r="AY82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ82" s="23" t="n">
         <v>148472</v>
+      </c>
+      <c r="BA82" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="BB82" s="23" t="s">
         <v>66</v>
@@ -12635,41 +12635,41 @@
       <c r="AP83" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AQ83" s="15" t="s">
-        <v>66</v>
+      <c r="AQ83" s="15" t="n">
+        <v>101592</v>
       </c>
       <c r="AR83" s="15" t="n">
-        <v>101592</v>
+        <v>102398</v>
       </c>
       <c r="AS83" s="15" t="n">
-        <v>102398</v>
+        <v>105505</v>
       </c>
       <c r="AT83" s="15" t="n">
-        <v>105505</v>
+        <v>102982</v>
       </c>
       <c r="AU83" s="15" t="n">
-        <v>102982</v>
+        <v>105567</v>
       </c>
       <c r="AV83" s="15" t="n">
-        <v>105567</v>
+        <v>110541</v>
       </c>
       <c r="AW83" s="15" t="n">
-        <v>110541</v>
+        <v>113898</v>
       </c>
       <c r="AX83" s="15" t="n">
-        <v>113898</v>
+        <v>116850</v>
       </c>
       <c r="AY83" s="15" t="n">
-        <v>116850</v>
+        <v>117478</v>
       </c>
       <c r="AZ83" s="15" t="n">
-        <v>117478</v>
-      </c>
-      <c r="BA83" s="15" t="n">
         <v>118021</v>
       </c>
-      <c r="BB83" s="15" t="s">
-        <v>66</v>
+      <c r="BA83" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB83" s="15" t="n">
+        <v>126259</v>
       </c>
     </row>
   </sheetData>
